--- a/frontend-cemos/public/assets/content/historia/breve-historia/script/vf_consolidado.xlsx
+++ b/frontend-cemos/public/assets/content/historia/breve-historia/script/vf_consolidado.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I453"/>
+  <dimension ref="A1:I486"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10321,27 +10321,27 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Custo e Logística da Invasão do Japão</t>
+          <t>Defesa de Pearl Harbor</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Uma invasão convencional do Japão exigiria uma armada maior que a do Dia D, só estaria pronta em março de 1946 e custaria cerca de 1 milhão de vidas norte-americanas.</t>
+          <t>Pearl Harbor, na remota ilha do Havaí, abrigava cerca de 70 embarcações de guerra em dezembro de 1941.</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>A invasão do Japão estava planejada para ser uma operação pequena e rápida, com baixo custo de vidas, pois o exército japonês já estava desmobilizado em meados de 1945.</t>
+          <t>O comandante de Pearl Harbor acreditava que um ataque japonês pelo mar era o cenário mais provável de agressão.</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>Conforme o **segundo parágrafo da Página 1**, seria necessária "uma armada... maior do que a usada... no Dia D" e comprometeria "aproximadamente 1 milhão de vidas".</t>
+          <t>Conforme o primeiro parágrafo da Página 1, o comandante acreditava que um ataque japonês pelo mar, embora possível, não fosse provável.</t>
         </is>
       </c>
       <c r="H254" t="inlineStr"/>
@@ -10360,27 +10360,27 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Moral e Determinação Japonesa</t>
+          <t>Ataque a Pearl Harbor</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Em meados de 1945, o moral nas cidades japonesas não havia sido abalado pelos bombardeios, e milhares de kamikazes aguardavam para se sacrificar.</t>
+          <t>O sucesso japonês em Pearl Harbor resultou na destruição ou dano de 188 aviões norte-americanos.</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>O moral japonês estava completamente destruído antes da bomba atômica, e o exército recusava-se a lutar, tendo abandonado a tática dos kamikazes.</t>
+          <t>Os japoneses conseguiram destruir os três porta-aviões norte-americanos que estavam no porto na manhã do ataque.</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>Segundo o **segundo parágrafo da Página 1**, "O moral nas cidades japonesas não havia sido abalado... O exército nipônico estava determinado a lutar".</t>
+          <t>Conforme o segundo parágrafo da Página 1, os três porta-aviões norte-americanos estavam em alto-mar na manhã do ataque e não foram descobertos.</t>
         </is>
       </c>
       <c r="H255" t="inlineStr"/>
@@ -10399,27 +10399,27 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Segredo da Arma Atômica</t>
+          <t>Defesa das Filipinas</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>O desenvolvimento da arma atômica ocorria em sigilo absoluto, sendo desconhecido pelos líderes japoneses e por Stalin.</t>
+          <t>O general Douglas MacArthur acreditava poder defender as Filipinas contando com o apoio de 250 aeronaves e 29 submarinos.</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>O desenvolvimento da bomba atômica era de conhecimento público e compartilhado abertamente com Stalin e com os líderes japoneses como forma de intimidação.</t>
+          <t>MacArthur possuía sete novos equipamentos de radar em pleno funcionamento para alertar sobre ataques aéreos.</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>De acordo com o **terceiro parágrafo da Página 1**, o debate era travado em sigilo e, "Desconhecida pelos líderes japoneses e por Stalin, os norte-americanos mantinham uma arma".</t>
+          <t>Conforme o terceiro parágrafo da Página 1, embora MacArthur contasse com sete radares, apenas dois deles estavam funcionando.</t>
         </is>
       </c>
       <c r="H256" t="inlineStr"/>
@@ -10438,27 +10438,27 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Influência de Einstein</t>
+          <t>Alerta em Cingapura</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Einstein alertou Roosevelt sobre a possibilidade da bomba, mas acreditava, baseado em especialistas, que ela talvez fosse pesada demais para aviões e devesse ser transportada por barco.</t>
+          <t>Oficiais britânicos em Cingapura acreditavam erronamente que os pilotos japoneses não conseguiam avistar alvos à noite.</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>Einstein projetou pessoalmente a bomba atômica para ser lançada por aviões, garantindo ao presidente que seria leve e fácil de transportar.</t>
+          <t>A Grã-Bretanha enviou uma esquadra completa e aviões rápidos para defender Cingapura assim que a crise se aproximou.</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>Conforme o **primeiro parágrafo da seção 'Sob o Estádio' (Página 2)**, Einstein concluiu que a bomba "talvez fosse pesada demais para ser levada de avião", sugerindo transporte por barco.</t>
+          <t>Conforme o quarto parágrafo da Página 2, a Grã-Bretanha não dispunha de uma esquadra nem de aviões rápidos para enviar, pois eram necessários para defender as ilhas britânicas e outras rotas.</t>
         </is>
       </c>
       <c r="H257" t="inlineStr"/>
@@ -10477,27 +10477,27 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Enrico Fermi e o Primeiro Reator</t>
+          <t>Impacto da queda da França</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>O físico refugiado Enrico Fermi construiu o primeiro reator nuclear sob um estádio universitário, utilizando urânio do Congo Belga.</t>
+          <t>A queda da França acabou com os planos britânicos para a defesa naval de Cingapura, que previa o patrulhamento francês no Mediterrâneo.</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>Enrico Fermi construiu o primeiro reator nuclear em um laboratório militar de alta segurança na Alemanha, utilizando urânio extraído nos Estados Unidos.</t>
+          <t>Os navios Prince of Wales e Repulse chegaram a Cingapura acompanhados pelo porta-aviões Indomitable.</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>Segundo o **segundo parágrafo da seção 'Sob o Estádio' (Página 2)**, Fermi "usou o estádio da universidade... para criar uma reação atômica" com urânio do "Congo Belga".</t>
+          <t>Conforme o último parágrafo da Página 2, o Indomitable ficou encalhado nas Índias Ocidentais e não pôde acompanhar os outros navios.</t>
         </is>
       </c>
       <c r="H258" t="inlineStr"/>
@@ -10516,27 +10516,27 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>Sucesso da Experiência de 1942</t>
+          <t>Rearmamento Japonês</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Em 2 de dezembro de 1942, o reator ficou pronto e a reação de fissão foi um sucesso, comemorada com vinho em copos de papel.</t>
+          <t>Um fator negligenciado pelos britânicos foi o empenho japonês em promover o rearmamento na década anterior ao conflito.</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>A experiência de 1942 foi um fracasso perigoso, resultando em contaminação radioativa e no cancelamento temporário do projeto.</t>
+          <t>O exército japonês era considerado altamente capaz pelos britânicos devido à sua rápida conquista da China nos quatro anos anteriores.</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>De acordo com o **terceiro parágrafo da seção 'Sob o Estádio' (Página 2)**, "a reação de fissão nuclear teve início... a experiência tinha sido um sucesso".</t>
+          <t>Conforme o primeiro parágrafo da Página 2 (Alerta em Cingapura), os britânicos acreditavam que o exército japonês tinha dado mostras de incapacidade ao não conquistar a China.</t>
         </is>
       </c>
       <c r="H259" t="inlineStr"/>
@@ -10555,27 +10555,27 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>O Teste no Novo México</t>
+          <t>Combate Aeronaval</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>O teste da bomba no Novo México gerou uma luz tão intensa que foi percebida por uma mulher cega, mas o governo alegou ser a explosão de um depósito de munição.</t>
+          <t>O afundamento do Prince of Wales e do Repulse por aviões japoneses foi a primeira vitória aérea importante sobre uma grande força naval.</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>O teste da bomba foi anunciado previamente em todos os jornais e rádios, para que a população pudesse testemunhar o poderio militar americano.</t>
+          <t>Cingapura e sua base naval caíram em março de 1942, após a queda das Índias Orientais Neerlandesas.</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>Conforme o **primeiro e segundo parágrafos da seção 'A Luz Ofuscante...' (Página 3)**, uma mulher cega teve a sensação de ter visto a luz e o governo adotou como álibi a "explosão de um depósito de munição".</t>
+          <t>Conforme o terceiro parágrafo da Página 3, Cingapura caiu em 15 de fevereiro de 1942.</t>
         </is>
       </c>
       <c r="H260" t="inlineStr"/>
@@ -10594,27 +10594,27 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>Decisão de Truman</t>
+          <t>Rendição em Cingapura</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Truman, que assumiu após a morte de Roosevelt, tinha duas bombas e decidiu usá-las porque os japoneses se recusavam categoricamente a render-se.</t>
+          <t>A queda de Cingapura representou o maior aprisionamento de tropas sob comando britânico em um só dia na história.</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>Truman ordenou o uso da bomba atômica apesar de o Japão já ter assinado a rendição incondicional, apenas para testar a arma.</t>
+          <t>Manila foi tomada pelas tropas japonesas em 8 de dezembro de 1941, simultaneamente ao ataque a Pearl Harbor.</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>Segundo o **segundo parágrafo da seção 'A Luz Ofuscante...' (Página 3)**, Truman "não tinha intenção de usá-las se os japoneses se rendessem, mas eles se recusavam".</t>
+          <t>Conforme o segundo parágrafo da Página 3, Manila estava prestes a cair em 1° de janeiro de 1942, e as bandeiras japonesas foram hasteadas no dia seguinte.</t>
         </is>
       </c>
       <c r="H261" t="inlineStr"/>
@@ -10633,27 +10633,27 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Logística do Bombardeio</t>
+          <t>Avanço em Java</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Foi necessário usar o bombardeiro B-29, capaz de voar 3 mil quilômetros, partindo da ilha de Tinian, para onde a bomba foi levada de navio.</t>
+          <t>Os japoneses apoderaram-se da ilha de Java em março de 1942, após o desembarque de tropas com facilidade.</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>Qualquer avião da época poderia levar a bomba, que foi transportada inteiramente por via aérea desde a Califórnia até o Japão.</t>
+          <t>O avanço japonês na Península Malaia foi dificultado pelo uso exclusivo de veículos blindados pesados na selva.</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>De acordo com o **terceiro parágrafo da seção 'A Luz Ofuscante...' (Página 3)**, era necessário o B-29; a base era "na ilha tropical de Tinian" e a bomba foi transportada "por um navio".</t>
+          <t>Conforme o terceiro parágrafo da Página 3, os soldados japoneses usavam bicicletas sempre que possível para avançar em direção à selva.</t>
         </is>
       </c>
       <c r="H262" t="inlineStr"/>
@@ -10672,27 +10672,27 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>O Alvo Hiroshima</t>
+          <t>Ameaça à Índia</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Hiroshima, oitava maior cidade e base naval, foi atingida às 8h15; a bomba explodiu antes de chegar ao solo, destruindo a parte central da cidade.</t>
+          <t>A Birmânia britânica era vista em 1942 como uma potencial via de entrada para a invasão da Índia pelo Japão.</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>Hiroshima era uma cidade desabitada usada apenas para testes militares, e a bomba foi detonada no solo para maximizar o impacto sísmico.</t>
+          <t>Os líderes indianos aproveitaram a oportunidade da guerra para convidar formalmente os japoneses como libertadores.</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>Conforme o **segundo parágrafo da Página 4**, Hiroshima era "Oitava maior cidade... base naval", e a bomba "explodiu antes de chegar ao solo".</t>
+          <t>Conforme o primeiro parágrafo da Página 4, embora tenham considerado a ideia, os líderes indianos acabaram desistindo de convidar os japoneses.</t>
         </is>
       </c>
       <c r="H263" t="inlineStr"/>
@@ -10711,27 +10711,27 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Entrada da URSS e Rendição</t>
+          <t>Mar de Coral</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Entre as duas bombas, a União Soviética invadiu a Manchúria; o medo da bomba e da invasão convenceu o Imperador a render-se em 14 de agosto.</t>
+          <t>A Batalha do Mar de Coral foi o primeiro grande conflito em que as esquadras rivais não se avistaram diretamente.</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>A União Soviética manteve-se neutra até o fim, e o Japão só se rendeu meses após as bombas, devido a um bloqueio naval.</t>
+          <t>Tecnicamente, os Estados Unidos venceram a Batalha do Mar de Coral por terem destruído mais navios que o Japão.</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>Segundo o **quarto parágrafo da Página 4**, a URSS entrou na guerra no intervalo das bombas e o medo "foi a principal ameaça que convenceu o imperador... Em 14 de agosto... o Japão se rendeu".</t>
+          <t>Conforme o terceiro parágrafo da Página 4, tecnicamente o Japão venceu por destruir mais navios, embora tenha perdido a maioria dos aviões.</t>
         </is>
       </c>
       <c r="H264" t="inlineStr"/>
@@ -10750,27 +10750,27 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>O Ataque a Nagasaki</t>
+          <t>Expansão Japonesa</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Três dias após Hiroshima, Nagasaki foi bombardeada; os habitantes viram um clarão ofuscante e o mundo que conheciam veio abaixo.</t>
+          <t>O império japonês se estendia do Japão até as proximidades das águas costeiras do norte da Austrália em 1942.</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>O ataque a Nagasaki ocorreu um mês após Hiroshima e serviu apenas como demonstração, sem causar destruição significativa na cidade.</t>
+          <t>O porto australiano de Darwin foi bombardeado por aviões vindos diretamente de bases terrestres no Japão.</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>De acordo com o **quarto parágrafo da Página 4**, "Três dias após o ataque a Hiroshima... Nagasaki... avistaram um clarão ofuscante".</t>
+          <t>Conforme o segundo parágrafo da Página 4, os aviões japoneses decolaram dos mesmos porta-aviões usados no ataque a Pearl Harbor para bombardear Darwin.</t>
         </is>
       </c>
       <c r="H265" t="inlineStr"/>
@@ -10789,27 +10789,27 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Incerteza Pós-Guerra</t>
+          <t>Batalha de Midway</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>No fim de 1945, a questão atormentadora era se a humanidade saberia lidar com o poder destrutivo, especialmente com tiranos como Stalin ainda no poder.</t>
+          <t>Na Batalha de Midway, a surpresa japonesa foi neutralizada porque os norte-americanos decifraram seu código secreto.</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>Com a morte de Hitler e o fim da guerra, o mundo entrou em uma era de certeza absoluta de paz, sem preocupações com o poder destrutivo das novas armas.</t>
+          <t>Na Batalha de Midway, os Estados Unidos perderam três porta-aviões, incluindo o milagrosamente reparado Yorktown.</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>Conforme o **primeiro parágrafo da Página 5**, a questão era se seriam "capazes de lidar com o enorme poder" e "Stalin... continuava no poder".</t>
+          <t>Conforme o segundo parágrafo da Página 5, os Estados Unidos perderam somente um porta-aviões, o Yorktown.</t>
         </is>
       </c>
       <c r="H266" t="inlineStr"/>
@@ -10828,27 +10828,27 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Lorde Acton</t>
+          <t>Recursos Conquistados</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Lorde Acton foi um historiador católico que refletiu sobre os danos morais e físicos causados pela concentração de poder em uma só pessoa.</t>
+          <t>O Japão obteve controle sobre importantes materiais de guerra, como borracha, petróleo, estanho e quinina, em suas conquistas.</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>Lorde Acton foi o cientista chefe do projeto Manhattan, que defendia que o poder absoluto era necessário para manter a ordem mundial.</t>
+          <t>A recuperação dos territórios conquistados pelos japoneses foi rápida, levando menos de um ano para os Aliados.</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>Segundo o **segundo parágrafo da Página 5**, Acton era "um historiador... católico devoto... pensou profundamente no prejuízo moral que se abate sobre os muito poderosos".</t>
+          <t>Conforme o último parágrafo da Página 5, foram necessários mais de três anos de conflito para recuperar apenas uma parcela do território.</t>
         </is>
       </c>
       <c r="H267" t="inlineStr"/>
@@ -10867,27 +10867,27 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>A Máxima de Acton</t>
+          <t>Batalha do Mar de Coral (Reparo)</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>A frase de Acton, "O poder tende a corromper, poder absoluto corrompe absolutamente", tornou-se expressiva diante de líderes como Hitler e Stalin.</t>
+          <t>O porta-aviões Yorktown, danificado no Mar de Coral, foi milagrosamente reparado a tempo para a Batalha de Midway.</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>Acton ficou famoso pela frase "O poder purifica, e o poder absoluto purifica absolutamente", elogiando a liderança de grandes homens.</t>
+          <t>A Batalha de Midway foi travada no Hemisfério Sul, repetindo as condições do Mar de Coral.</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>De acordo com o **terceiro parágrafo da Página 5**, ele escreveu: "O poder tende a corromper, poder absoluto corrompe absolutamente".</t>
+          <t>Conforme o primeiro parágrafo da Página 5, Midway fica perto de uma ilha isolada no Hemisfério Norte.</t>
         </is>
       </c>
       <c r="H268" t="inlineStr"/>
@@ -10901,32 +10901,32 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Pág 1</t>
+          <t>Pág 6</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Danos da Segunda Guerra Mundial</t>
+          <t>Guerra na Rússia</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>A destruição causada pela guerra em infraestrutura e propriedades rivalizava, em seu total, com a devastação de todos os desastres naturais do século anterior.</t>
+          <t>Em 1942, as tropas de Hitler capturaram a cidade de Stalingrado, mas a perderam pouco tempo depois.</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>Os danos materiais da Segunda Guerra foram insignificantes comparados à Primeira Guerra, preservando-se a maior parte da infraestrutura agrícola e industrial.</t>
+          <t>O ano de 1942 marcou o ápice dos triunfos de Hitler, com progressos rápidos em direção aos Urais.</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>Conforme o **primeiro parágrafo da Página 1**, a destruição de casas, fábricas e outros "rivalizava... com a devastação causada por todos os desastres naturais ao longo do século anterior".</t>
+          <t>Conforme o primeiro parágrafo da Página 6, 1941 foi o último ano do triunfo de Hitler; em 1942 as forças pouco progrediam.</t>
         </is>
       </c>
       <c r="H269" t="inlineStr"/>
@@ -10940,32 +10940,32 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Pág 1</t>
+          <t>Pág 6</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>As Novas Superpotências</t>
+          <t>Bombardeios na Alemanha</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Estados Unidos e União Soviética emergiram como superpotências de proporções continentais, não sendo vizinhas e possuindo quase nada no Hemisfério Sul.</t>
+          <t>Em meados de 1942, mil aviões britânicos realizaram um bombardeio maciço contra a cidade de Colônia.</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>Estados Unidos e União Soviética eram nações vizinhas que disputavam vastas colônias herdadas da Alemanha no Hemisfério Sul.</t>
+          <t>Berlim permaneceu imune aos ataques aéreos durante todo o ano de 1942 devido à sua defesa antiaérea superior.</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>Segundo o **terceiro parágrafo da Página 1**, elas "não 'possuíam', praticamente nada no Hemisfério Sul" e "não eram vizinhas".</t>
+          <t>Conforme o segundo parágrafo da Página 6, bombardeiros norte-americanos atacaram Berlim e outras cidades em 1942.</t>
         </is>
       </c>
       <c r="H270" t="inlineStr"/>
@@ -10979,32 +10979,32 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Pág 1</t>
+          <t>Pág 6</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Conferência de São Francisco</t>
+          <t>Suprimentos para a Rússia</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>A União Soviética condicionou sua satisfação com a nova ONU à possibilidade de suas repúblicas-satélite também se tornarem membros.</t>
+          <t>Comboios traziam suprimentos da Grã-Bretanha para a Rússia através de mares gelados até portos no norte.</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>A União Soviética aceitou incondicionalmente a estrutura da ONU, recusando-se a permitir que suas repúblicas-satélite tivessem assento na organização.</t>
+          <t>As novas fábricas russas de munição foram construídas propositalmente perto da linha de frente para facilitar o transporte.</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>De acordo com o **quinto parágrafo da Página 1**, a URSS "não se daria por satisfeita... se suas repúblicas-satélite não pudessem igualmente se tornar membros".</t>
+          <t>Conforme o primeiro parágrafo da Página 6, as novas fábricas ficavam cada vez mais distantes dos invasores alemães.</t>
         </is>
       </c>
       <c r="H271" t="inlineStr"/>
@@ -11018,32 +11018,32 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Pág 2</t>
+          <t>Pág 7</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Ocupação Soviética e Repressão</t>
+          <t>Campanha na Itália</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Nas repúblicas bálticas (Letônia, Estônia e Lituânia), não houve autonomia após a guerra, tornando-se elas parte da União Soviética em 1945.</t>
+          <t>Durante o verão de 1943, a Sicília foi invadida pelos Aliados e ocupada em um período de quatro semanas.</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>As repúblicas bálticas mantiveram sua independência total após a guerra, servindo como zona tampão neutra entre o Ocidente e a URSS.</t>
+          <t>A luta no território italiano foi rápida e decisiva, durando menos de seis meses até a rendição total.</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>Conforme o **primeiro parágrafo da seção 'Atrás da Cortina de Ferro' (Página 2)**, nessas repúblicas "não houve uma só semana de autonomia. Em 1945, tornaram-se parte da União Soviética".</t>
+          <t>Conforme o primeiro parágrafo da Página 7, a luta na Itália continuou durante seiscentos dias.</t>
         </is>
       </c>
       <c r="H272" t="inlineStr"/>
@@ -11057,32 +11057,32 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Pág 2</t>
+          <t>Pág 7</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Golpe na Tchecoslováquia</t>
+          <t>O Dia D</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Após eleições onde os comunistas não tiveram maioria, o líder Klement Gottwald formou uma coalizão que resultou, em 1948, em um governo apenas de comunistas.</t>
+          <t>A invasão da Normandia em 6 de junho de 1944 ocorreu em um ponto de ataque que Hitler não havia previsto.</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>A Tchecoslováquia permaneceu uma democracia liberal multipartidária até o final da década de 1950, rejeitando qualquer influência de Klement Gottwald.</t>
+          <t>No fim do primeiro dia da invasão da Normandia, mais de 800 mil soldados aliados já haviam desembarcado.</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>Segundo o **segundo parágrafo da seção 'Atrás da Cortina de Ferro' (Página 2)**, em 1948, "quando Gottwald rearticulou o ministério, havia nele apenas comunistas".</t>
+          <t>Conforme o terceiro parágrafo da Página 7, no fim do primeiro dia desembarcaram 133 mil soldados (mais 23 mil paraquedistas); a marca de 800 mil foi atingida no fim do mês.</t>
         </is>
       </c>
       <c r="H273" t="inlineStr"/>
@@ -11096,32 +11096,32 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Pág 2</t>
+          <t>Pág 7</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Condições de Vida no Leste Europeu</t>
+          <t>Retomada de Capitais</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>Apesar da opressão política, a vida cotidiana no Leste Europeu voltou ao normal, com acesso a moradia, médicos e férias remuneradas para a maioria.</t>
+          <t>Paris foi retomada pelos Aliados no fim de agosto de 1944, e Bruxelas menos de quinze dias depois.</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>Sob o regime comunista, a população do Leste Europeu vivia em completa miséria, sem acesso a nenhum bem material, comida ou assistência médica básica.</t>
+          <t>As tropas alemãs e italianas tomaram o Canal de Suez em 1942, consolidando o controle do Mediterrâneo.</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>De acordo com o **último parágrafo da Página 2**, "a maior parte das pessoas conseguiu moradia... acesso a médicos e hospitais, férias remuneradas".</t>
+          <t>Conforme o primeiro parágrafo da Página 7, as tropas do Eixo tiveram a possibilidade de tomar o Suez, mas não o fizeram.</t>
         </is>
       </c>
       <c r="H274" t="inlineStr"/>
@@ -11135,32 +11135,32 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Pág 3</t>
+          <t>Pág 8</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Divisão Econômica da Alemanha</t>
+          <t>Produção Industrial Alemã</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>A Alemanha Ocidental recuperou-se com financiamento do Plano Marshall, enquanto a Oriental sofreu com a apropriação de maquinário pelos russos.</t>
+          <t>A produção industrial alemã só foi efetivamente paralisada em 1944 devido à precisão dos bombardeios aliados.</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>A Alemanha Oriental prosperou rapidamente graças à ajuda soviética, enquanto a Alemanha Ocidental estagnou por recusar o Plano Marshall.</t>
+          <t>Os soldados alemães se entregavam em massa assim que as fronteiras do país eram ameaçadas no inverno de 1944.</t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>Conforme o **primeiro parágrafo da Página 3**, os EUA "financiaram o restabelecimento da Alemanha Ocidental" e os russos "tomaram maquinário... em sua zona na Alemanha Oriental".</t>
+          <t>Conforme o primeiro parágrafo da Página 8, os soldados alemães eram resistentes e determinados e não se entregariam facilmente.</t>
         </is>
       </c>
       <c r="H275" t="inlineStr"/>
@@ -11174,32 +11174,32 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Pág 3</t>
+          <t>Pág 8</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Bloqueio de Berlim</t>
+          <t>Os Três Líderes</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>Em 1947, Moscou bloqueou as vias de acesso a Berlim, o que foi contornado pelos aliados através de um transporte aéreo de suprimentos por mais de um ano.</t>
+          <t>O futuro da Europa no final de 1944 era decidido pelas ambições e personalidades de Stalin, Roosevelt e Churchill.</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>O bloqueio de Berlim em 1947 resultou na rendição imediata da parte ocidental da cidade aos soviéticos, pois o transporte aéreo foi ineficaz.</t>
+          <t>A aliança entre os três líderes era isenta de rivalidades internas, dada a união em torno do inimigo comum.</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>Segundo o **segundo parágrafo da Página 3**, "Britânicos e americanos reagiram... enviar suprimentos por via aérea... Por mais de um ano".</t>
+          <t>Conforme o segundo parágrafo da Página 8, surgiam acirradas rivalidades internas na aliança.</t>
         </is>
       </c>
       <c r="H276" t="inlineStr"/>
@@ -11213,32 +11213,32 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Pág 3</t>
+          <t>Pág 8</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Alianças Militares</t>
+          <t>Escassez na Alemanha</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>A Alemanha Ocidental dependia da Otan para sua defesa, enquanto a Alemanha Oriental dependia do Pacto de Varsóvia.</t>
+          <t>No final da guerra, o exército alemão sofria com a escassez de munição, tanques e apoio aéreo.</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>A Alemanha Oriental uniu-se à Otan para garantir sua defesa contra a União Soviética, enquanto a Alemanha Ocidental manteve-se neutra.</t>
+          <t>A força aérea alemã conseguiu manter a superioridade aérea até o colapso final de Berlim em 1945.</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>De acordo com o **segundo parágrafo da Página 3**, uma dependia da "Otan... enquanto a outra... dependia da União Soviética... Pacto de Varsóvia".</t>
+          <t>Conforme o primeiro parágrafo da Página 8, as batalhas aéreas esmagavam o espírito dos alemães enquanto materiais se tornavam escassos.</t>
         </is>
       </c>
       <c r="H277" t="inlineStr"/>
@@ -11252,32 +11252,32 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Pág 4</t>
+          <t>Pág 9</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Origem do termo Cortina de Ferro</t>
+          <t>Franklin D. Roosevelt</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>Embora popularizada por Churchill em 1946, a expressão "cortina de ferro" foi escrita originalmente por Ethel Snowden em 1920.</t>
+          <t>Roosevelt enfrentava as exigências de seu cargo em uma cadeira de rodas devido à poliomielite contraída aos 40 anos.</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>Winston Churchill inventou a expressão "cortina de ferro" em 1946, sendo o primeiro autor a utilizar esse termo na história política.</t>
+          <t>Roosevelt possuía uma visão política extremamente conservadora, condizente com sua origem aristocrática.</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>Conforme o **primeiro parágrafo da Página 4**, "Embora Winston Churchill não fosse o autor... Em 1920, Ethel Snowden... escreveu que eles finalmente estavam 'atrás da cortina de ferro'".</t>
+          <t>Conforme o primeiro parágrafo da Página 9, Roosevelt tinha uma visão política menos conservadora do que sua bagagem (família rica e aristocrática).</t>
         </is>
       </c>
       <c r="H278" t="inlineStr"/>
@@ -11291,32 +11291,32 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Pág 4</t>
+          <t>Pág 9</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Definição de Guerra Fria</t>
+          <t>Percepção de Stalin</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>A expressão "guerra fria", cunhada por Bernard Baruch, descrevia uma relação que se assemelhava mais a uma "paz quente e tensa" entre as superpotências.</t>
+          <t>Roosevelt acreditava, em 1942, que Stalin procurava apenas segurança para seu país e não tentaria anexar nações.</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>A "guerra fria" foi assim chamada porque as batalhas ocorriam exclusivamente nas regiões árticas e polares da União Soviética e do Alasca.</t>
+          <t>Churchill sempre deu crédito integral às promessas de Stalin, mantendo uma confiança inabalável até o fim.</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>Segundo o **segundo parágrafo da Página 4**, Baruch escreveu em 1947, e a relação "se assemelhavam mais a uma quente e tensa paz".</t>
+          <t>Conforme o segundo parágrafo da Página 9, Churchill inicialmente deu algum crédito a Stalin, mas depois recuou.</t>
         </is>
       </c>
       <c r="H279" t="inlineStr"/>
@@ -11330,32 +11330,32 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Pág 4</t>
+          <t>Pág 9</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>Dissidências no Bloco Comunista</t>
+          <t>Opinião Pública nos EUA</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>A Iugoslávia, sob o comando de Tito, não seguia a cartilha de Stalin e foi expulsa do Cominform em 1948.</t>
+          <t>A Sinfonia de Leningrado, de Shostakovich, foi recebida nos EUA como um ato de heroísmo ao ser executada em 1942.</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>A Iugoslávia foi o satélite mais fiel de Stalin, liderando o Cominform e jamais divergindo das ordens de Moscou.</t>
+          <t>A opinião pública norte-americana era hostil ao povo russo em 1942 devido às diferenças ideológicas profundas.</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>De acordo com o **terceiro parágrafo da Página 4**, "A Iugoslávia não rezava pela cartilha de Stalin e foi expulsa da liga soviética... em 1948".</t>
+          <t>Conforme o terceiro parágrafo da Página 9, uma grande parcela da opinião pública dos EUA era simpática ao povo russo que defendia sua pátria.</t>
         </is>
       </c>
       <c r="H280" t="inlineStr"/>
@@ -11369,32 +11369,32 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Pág 5</t>
+          <t>Pág 10</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Desenvolvimento Nuclear Soviético</t>
+          <t>Conferência de Yalta</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>A Rússia desenvolveu sua bomba atômica em 1949 com auxílio de espionagem e sua bomba de hidrogênio em 1953, com destaque para o físico Andrei Sakharov.</t>
+          <t>Em Yalta, Stalin e Roosevelt demonstraram desconfiança mútua em relação ao controle colonial europeu sobre o mundo.</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>A União Soviética recusou-se a desenvolver armas nucleares, preferindo investir apenas em forças convencionais e diplomacia pacífica.</t>
+          <t>Stalin recusou qualquer ajuda militar ocidental, alegando que a URSS deveria vencer a guerra sozinha.</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>Conforme o **primeiro e segundo parágrafos da Página 5**, "Em 1949... conseguiu desenvolver a arma" e Sakharov ajudou na "bomba de hidrogênio" em 1953.</t>
+          <t>Conforme o terceiro parágrafo da Página 10, o líder soviético recebeu uma tremenda ajuda militar dos Estados Unidos e da Grã-Bretanha.</t>
         </is>
       </c>
       <c r="H281" t="inlineStr"/>
@@ -11408,32 +11408,32 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Pág 5</t>
+          <t>Pág 10</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Percepção de Conflito</t>
+          <t>Segunda Frente</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>A maioria das pessoas bem-informadas do Ocidente acreditava que veria outra grande guerra, possivelmente com armas atômicas.</t>
+          <t>Stalin reclamou que a frente ocidental na Europa só foi aberta tardiamente, com as invasões de 1943 e 1944.</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>Após 1945, reinava no Ocidente uma certeza absoluta de paz duradoura, sem qualquer temor de novos conflitos globais ou nucleares.</t>
+          <t>O Japão foi derrotado com a ajuda decisiva e constante da União Soviética desde o início da Guerra do Pacífico.</t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>Segundo o **terceiro parágrafo da Página 5**, "A maioria das pessoas bem-informadas do Ocidente achava que ainda veria outra grande guerra".</t>
+          <t>Conforme o terceiro parágrafo da Página 10, a Grã-Bretanha e os EUA combateram o Japão sem qualquer ajuda soviética até as últimas semanas.</t>
         </is>
       </c>
       <c r="H282" t="inlineStr"/>
@@ -11447,32 +11447,32 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Pág 5</t>
+          <t>Pág 10</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Otimismo Soviético</t>
+          <t>Simpatia Britânica</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>A teoria marxista e a forte posição do comunismo na Europa e Ásia alimentavam o otimismo soviético quanto a uma vitória inevitável.</t>
+          <t>A Grã-Bretanha demonstrava simpatia pelos ideais soviéticos de emprego devido às memórias da depressão mundial.</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>Os soviéticos estavam profundamente pessimistas sobre o futuro do comunismo, acreditando que seu sistema colapsaria em poucos anos.</t>
+          <t>Churchill e Roosevelt ignoravam sistematicamente as exigências soviéticas para evitar o apoio do público.</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>De acordo com o **terceiro parágrafo da Página 5**, havia esperançosos "incentivados pela teoria marxista, a qual prometia uma inevitável vitória".</t>
+          <t>Conforme o primeiro parágrafo da Página 10, Churchill e Roosevelt podiam contar com apoio do público ao aprovarem as ambiciosas exigências soviéticas.</t>
         </is>
       </c>
       <c r="H283" t="inlineStr"/>
@@ -11486,32 +11486,32 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Pág 6</t>
+          <t>Pág 11</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>Origens de Mao Tsé-tung</t>
+          <t>Corrida para Berlim</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>Mao Tsé-tung, filho de um proprietário de terras, foi um dos primeiros membros do Partido Comunista Chinês, criado em 1921.</t>
+          <t>Na corrida em direção a Berlim, as tropas soviéticas ultrapassaram seus rivais norte-americanos e britânicos.</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>Mao Tsé-tung era um operário urbano de Xangai que fundou o Partido Nacionalista antes de se converter ao comunismo.</t>
+          <t>O suicídio de Hitler ocorreu em 7 de maio de 1945, coincidindo com a rendição incondicional da Alemanha.</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>Conforme o **segundo parágrafo da Página 6**, ele era "Filho de um proprietário de terras... se tornou um de seus primeiros membros" do partido criado em 1921.</t>
+          <t>Conforme o terceiro parágrafo da Página 11, Hitler cometeu suicídio em 30 de abril; a rendição ocorreu em 7 de maio.</t>
         </is>
       </c>
       <c r="H284" t="inlineStr"/>
@@ -11525,32 +11525,32 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Pág 6</t>
+          <t>Pág 11</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>Relação URSS e China</t>
+          <t>Domínio do Leste Europeu</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>Inicialmente, a União Soviética interessava-se mais pelo Partido Nacionalista (Kuomintang) do que pelo Partido Comunista Chinês.</t>
+          <t>A região de influência obtida por Stalin no Leste Europeu estendia-se do Mar Negro até o Mar Báltico.</t>
         </is>
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>A União Soviética sempre apoiou exclusivamente os comunistas chineses, rejeitando qualquer contato com o Partido Nacionalista desde o início.</t>
+          <t>A Iugoslávia foi conquistada pelos russos sem qualquer apoio de grupos locais durante o avanço de 1944.</t>
         </is>
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>Segundo o **terceiro parágrafo da Página 6**, a URSS "estivera menos interessada no Partido Comunista Chinês do que no predominante Partido Nacionalista".</t>
+          <t>Conforme o primeiro parágrafo da Página 11, os partidários de Tito preparavam o caminho na Iugoslávia.</t>
         </is>
       </c>
       <c r="H285" t="inlineStr"/>
@@ -11564,32 +11564,32 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Pág 6</t>
+          <t>Pág 11</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>O Massacre de Xangai</t>
+          <t>Destruição da Alemanha</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>Em 1927, Chiang Kai-shek rompeu a aliança com os comunistas e, com apoio de ricos de Xangai, promoveu o assassinato de muitos deles.</t>
+          <t>A rendição incondicional da Alemanha em 1945 ocorreu quando boa parte do país estava em ruínas e entulho.</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>Em 1927, Chiang Kai-shek entregou o poder pacificamente aos comunistas em Xangai, solidificando uma aliança duradoura.</t>
+          <t>Os estragos na Alemanha foram muito mais extensos do que nos países onde seus exércitos haviam combatido.</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>De acordo com o **terceiro parágrafo da Página 6**, "A aliança foi rompida em 1927... concordando em expulsar... muitos foram assassinados".</t>
+          <t>Conforme o quarto parágrafo da Página 11, os estragos na Alemanha não eram tão extensos se comparados à devastação nos países onde ela combateu.</t>
         </is>
       </c>
       <c r="H286" t="inlineStr"/>
@@ -11603,32 +11603,32 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Pág 7</t>
+          <t>Pág 1</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>A Longa Marcha</t>
+          <t>Custo e Logística da Invasão do Japão</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>Em 1935, Mao liderou seu exército em uma longa marcha para o noroeste (Shaanxi), salvando os comunistas do extermínio pelos nacionalistas.</t>
+          <t>Uma invasão convencional do Japão exigiria uma armada maior que a do Dia D, só estaria pronta em março de 1946 e custaria cerca de 1 milhão de vidas norte-americanas.</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>A Longa Marcha foi uma ofensiva fracassada em direção ao litoral, que resultou na captura de Mao Tsé-tung pelas forças nacionalistas.</t>
+          <t>A invasão do Japão estava planejada para ser uma operação pequena e rápida, com baixo custo de vidas, pois o exército japonês já estava desmobilizado em meados de 1945.</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>Conforme o **segundo parágrafo da Página 7**, "Mao liderou seu exército... em uma longa e tortuosa marcha em direção ao noroeste... o que salvou os comunistas".</t>
+          <t>Conforme o **segundo parágrafo da Página 1**, seria necessária "uma armada... maior do que a usada... no Dia D" e comprometeria "aproximadamente 1 milhão de vidas".</t>
         </is>
       </c>
       <c r="H287" t="inlineStr"/>
@@ -11642,32 +11642,32 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Pág 7</t>
+          <t>Pág 1</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Invasão Japonesa e Trégua</t>
+          <t>Moral e Determinação Japonesa</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>Com a invasão japonesa em 1937, nacionalistas e comunistas uniram esforços, mas os nacionalistas pareceram indiferentes e fugiram para o oeste.</t>
+          <t>Em meados de 1945, o moral nas cidades japonesas não havia sido abalado pelos bombardeios, e milhares de kamikazes aguardavam para se sacrificar.</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>Durante a invasão japonesa, os nacionalistas lutaram com mais fervor que os comunistas, impedindo o avanço japonês sem recuar da capital.</t>
+          <t>O moral japonês estava completamente destruído antes da bomba atômica, e o exército recusava-se a lutar, tendo abandonado a tática dos kamikazes.</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>Segundo o **terceiro parágrafo da Página 7**, eles "concordaram em unir esforços... Os nacionalistas... pareceram um tanto indiferentes... fugiu para... o oeste".</t>
+          <t>Segundo o **segundo parágrafo da Página 1**, "O moral nas cidades japonesas não havia sido abalado... O exército nipônico estava determinado a lutar".</t>
         </is>
       </c>
       <c r="H288" t="inlineStr"/>
@@ -11681,32 +11681,32 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Pág 7</t>
+          <t>Pág 1</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Base de Mao</t>
+          <t>Segredo da Arma Atômica</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>Em Paoan, Mao vivia em uma caverna e usava o local como campo de treinamento e planejamento, protegido por ser uma fortaleza isolada.</t>
+          <t>O desenvolvimento da arma atômica ocorria em sigilo absoluto, sendo desconhecido pelos líderes japoneses e por Stalin.</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>Mao comandava a revolução de luxuosos palácios nas cidades costeiras, longe das privações das montanhas do norte.</t>
+          <t>O desenvolvimento da bomba atômica era de conhecimento público e compartilhado abertamente com Stalin e com os líderes japoneses como forma de intimidação.</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>De acordo com o **segundo parágrafo da Página 7**, "Lá, Mao vivia em uma caverna... Paoan... era seu campo de treinamento".</t>
+          <t>De acordo com o **terceiro parágrafo da Página 1**, o debate era travado em sigilo e, "Desconhecida pelos líderes japoneses e por Stalin, os norte-americanos mantinham uma arma".</t>
         </is>
       </c>
       <c r="H289" t="inlineStr"/>
@@ -11720,32 +11720,32 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Pág 8</t>
+          <t>Pág 2</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>Vitória Comunista na China</t>
+          <t>Influência de Einstein</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>Em outubro de 1949, Mao estabeleceu-se no poder em Pequim, enquanto Chiang Kai-shek instituiu uma república na ilha de Taiwan.</t>
+          <t>Einstein alertou Roosevelt sobre a possibilidade da bomba, mas acreditava, baseado em especialistas, que ela talvez fosse pesada demais para aviões e devesse ser transportada por barco.</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>Em 1949, os nacionalistas venceram a guerra civil, forçando Mao Tsé-tung a fugir para a União Soviética.</t>
+          <t>Einstein projetou pessoalmente a bomba atômica para ser lançada por aviões, garantindo ao presidente que seria leve e fácil de transportar.</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>Conforme o **segundo parágrafo da Página 8**, "Em outubro de 1949... Mao finalmente se estabeleceu no poder... Chiang Kai-shek... na ilha de Taiwan".</t>
+          <t>Conforme o **primeiro parágrafo da seção 'Sob o Estádio' (Página 2)**, Einstein concluiu que a bomba "talvez fosse pesada demais para ser levada de avião", sugerindo transporte por barco.</t>
         </is>
       </c>
       <c r="H290" t="inlineStr"/>
@@ -11759,32 +11759,32 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Pág 8</t>
+          <t>Pág 2</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>Tigre de Papel</t>
+          <t>Enrico Fermi e o Primeiro Reator</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>Mao usava a expressão "tigre de papel" para desdenhar da bomba atômica americana, embora tenha mudado o discurso quando a China fez sua bomba.</t>
+          <t>O físico refugiado Enrico Fermi construiu o primeiro reator nuclear sob um estádio universitário, utilizando urânio do Congo Belga.</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>Mao cunhou a expressão "tigre de papel" para elogiar a força indestrutível do exército norte-americano e de suas armas nucleares.</t>
+          <t>Enrico Fermi construiu o primeiro reator nuclear em um laboratório militar de alta segurança na Alemanha, utilizando urânio extraído nos Estados Unidos.</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>Segundo o **primeiro parágrafo da Página 8**, "declarou com desdém que a bomba atômica era um tigre de papel... embora tenha mudado um pouco esse discurso".</t>
+          <t>Segundo o **segundo parágrafo da seção 'Sob o Estádio' (Página 2)**, Fermi "usou o estádio da universidade... para criar uma reação atômica" com urânio do "Congo Belga".</t>
         </is>
       </c>
       <c r="H291" t="inlineStr"/>
@@ -11798,32 +11798,32 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Pág 8</t>
+          <t>Pág 2</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>Extensão do Bloco Comunista</t>
+          <t>Sucesso da Experiência de 1942</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>A vitória de Mao criou uma área vermelha que ia do Mediterrâneo ao Pacífico, abrangendo um terço da população mundial.</t>
+          <t>Em 2 de dezembro de 1942, o reator ficou pronto e a reação de fissão foi um sucesso, comemorada com vinho em copos de papel.</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>A vitória de Mao isolou a China do resto do mundo comunista, criando um bloco pequeno e irrelevante na geopolítica mundial.</t>
+          <t>A experiência de 1942 foi um fracasso perigoso, resultando em contaminação radioativa e no cancelamento temporário do projeto.</t>
         </is>
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>De acordo com o **terceiro parágrafo da Página 8**, a área se estendia "desde o Mediterrâneo... até as costas do Oceano Pacífico... vivia aproximadamente um terço da população mundial".</t>
+          <t>De acordo com o **terceiro parágrafo da seção 'Sob o Estádio' (Página 2)**, "a reação de fissão nuclear teve início... a experiência tinha sido um sucesso".</t>
         </is>
       </c>
       <c r="H292" t="inlineStr"/>
@@ -11837,32 +11837,32 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Pág 9</t>
+          <t>Pág 3</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>Início da Guerra da Coreia</t>
+          <t>O Teste no Novo México</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>A guerra começou em 25 de junho de 1950, quando soldados da Coreia do Norte e tanques soviéticos invadiram a Coreia do Sul.</t>
+          <t>O teste da bomba no Novo México gerou uma luz tão intensa que foi percebida por uma mulher cega, mas o governo alegou ser a explosão de um depósito de munição.</t>
         </is>
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>A Guerra da Coreia começou quando a Coreia do Sul, apoiada pelos EUA, invadiu o Norte para tentar unificar o país à força.</t>
+          <t>O teste da bomba foi anunciado previamente em todos os jornais e rádios, para que a população pudesse testemunhar o poderio militar americano.</t>
         </is>
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>Conforme o **segundo parágrafo da Página 9**, "Ao amanhecer do dia 25 de junho... seus soldados [do Norte] e um grande contingente de tanques soviéticos invadiram a Coreia do Sul".</t>
+          <t>Conforme o **primeiro e segundo parágrafos da seção 'A Luz Ofuscante...' (Página 3)**, uma mulher cega teve a sensação de ter visto a luz e o governo adotou como álibi a "explosão de um depósito de munição".</t>
         </is>
       </c>
       <c r="H293" t="inlineStr"/>
@@ -11876,32 +11876,32 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Pág 9</t>
+          <t>Pág 3</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>Intervenção da ONU</t>
+          <t>Decisão de Truman</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>A ONU optou por uma operação militar na Coreia porque a União Soviética estava ausente do Conselho de Segurança e não pôde vetar a resolução.</t>
+          <t>Truman, que assumiu após a morte de Roosevelt, tinha duas bombas e decidiu usá-las porque os japoneses se recusavam categoricamente a render-se.</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>A ONU foi impedida de agir na Coreia devido ao veto imediato da União Soviética no Conselho de Segurança.</t>
+          <t>Truman ordenou o uso da bomba atômica apesar de o Japão já ter assinado a rendição incondicional, apenas para testar a arma.</t>
         </is>
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>Segundo o **terceiro parágrafo da Página 9**, "a União Soviética não pôde exercer seu direito de veto... As Nações Unidas... acabaram optando por uma operação militar".</t>
+          <t>Segundo o **segundo parágrafo da seção 'A Luz Ofuscante...' (Página 3)**, Truman "não tinha intenção de usá-las se os japoneses se rendessem, mas eles se recusavam".</t>
         </is>
       </c>
       <c r="H294" t="inlineStr"/>
@@ -11915,32 +11915,32 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Pág 9</t>
+          <t>Pág 3</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Intervenção Chinesa</t>
+          <t>Logística do Bombardeio</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>A chegada de tropas chinesas em auxílio aos norte-coreanos, com perdas de até 900 mil homens, tornou a situação da Coreia do Sul desesperadora.</t>
+          <t>Foi necessário usar o bombardeiro B-29, capaz de voar 3 mil quilômetros, partindo da ilha de Tinian, para onde a bomba foi levada de navio.</t>
         </is>
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>A China manteve-se neutra no conflito coreano, recusando-se a enviar tropas para lutar contra as forças da ONU.</t>
+          <t>Qualquer avião da época poderia levar a bomba, que foi transportada inteiramente por via aérea desde a Califórnia até o Japão.</t>
         </is>
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>De acordo com o **quarto parágrafo da Página 9**, "a participação de forças chinesas era tamanha... que a condição da Coreia do Sul se tornou desesperadora".</t>
+          <t>De acordo com o **terceiro parágrafo da seção 'A Luz Ofuscante...' (Página 3)**, era necessário o B-29; a base era "na ilha tropical de Tinian" e a bomba foi transportada "por um navio".</t>
         </is>
       </c>
       <c r="H295" t="inlineStr"/>
@@ -11954,32 +11954,32 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Pág 10</t>
+          <t>Pág 4</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>Ásia como Centro de Poder</t>
+          <t>O Alvo Hiroshima</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Nos dez anos pós-guerra, eventos cruciais como a bomba atômica, a revolução chinesa e a guerra da Coreia deslocaram o foco de poder para a Ásia e o Pacífico.</t>
+          <t>Hiroshima, oitava maior cidade e base naval, foi atingida às 8h15; a bomba explodiu antes de chegar ao solo, destruindo a parte central da cidade.</t>
         </is>
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>Nos anos seguintes à guerra, a Ásia permaneceu irrelevante politicamente, com todo o foco de poder mundial concentrado exclusivamente no Atlântico.</t>
+          <t>Hiroshima era uma cidade desabitada usada apenas para testes militares, e a bomba foi detonada no solo para maximizar o impacto sísmico.</t>
         </is>
       </c>
       <c r="G296" t="inlineStr">
         <is>
-          <t>Conforme o **segundo parágrafo da Página 10**, o Pacífico "começava a desafiar o Atlântico como centro do poder internacional".</t>
+          <t>Conforme o **segundo parágrafo da Página 4**, Hiroshima era "Oitava maior cidade... base naval", e a bomba "explodiu antes de chegar ao solo".</t>
         </is>
       </c>
       <c r="H296" t="inlineStr"/>
@@ -11993,32 +11993,32 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Pág 10</t>
+          <t>Pág 4</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Fim dos Impérios</t>
+          <t>Entrada da URSS e Rendição</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>A independência da Índia foi um evento que refletiu o renascimento da Ásia e sinalizou que o reinado dos impérios ultramarinos europeus estava perto do fim.</t>
+          <t>Entre as duas bombas, a União Soviética invadiu a Manchúria; o medo da bomba e da invasão convenceu o Imperador a render-se em 14 de agosto.</t>
         </is>
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>A independência da Índia fortaleceu o Império Britânico, garantindo a continuidade do domínio europeu na Ásia por mais um século.</t>
+          <t>A União Soviética manteve-se neutra até o fim, e o Japão só se rendeu meses após as bombas, devido a um bloqueio naval.</t>
         </is>
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>Segundo o **segundo parágrafo da Página 10**, com a independência da Índia, "O longo reinado dos impérios ultramarinos... estava muito perto do fim".</t>
+          <t>Segundo o **quarto parágrafo da Página 4**, a URSS entrou na guerra no intervalo das bombas e o medo "foi a principal ameaça que convenceu o imperador... Em 14 de agosto... o Japão se rendeu".</t>
         </is>
       </c>
       <c r="H297" t="inlineStr"/>
@@ -12032,32 +12032,32 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Pág 10</t>
+          <t>Pág 4</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Conflito de Potências</t>
+          <t>O Ataque a Nagasaki</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Na Coreia, pela última vez no século XX, duas grandes potências, China e Estados Unidos, se enfrentaram diretamente em combate.</t>
+          <t>Três dias após Hiroshima, Nagasaki foi bombardeada; os habitantes viram um clarão ofuscante e o mundo que conheciam veio abaixo.</t>
         </is>
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>A Guerra da Coreia foi marcada pela ausência de confronto direto entre grandes potências, sendo uma guerra civil restrita aos coreanos.</t>
+          <t>O ataque a Nagasaki ocorreu um mês após Hiroshima e serviu apenas como demonstração, sem causar destruição significativa na cidade.</t>
         </is>
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>De acordo com o **primeiro parágrafo da Página 10**, na Coreia, "pela última vez naquele século, duas grandes potências - China e Estados Unidos - se enfrentaram".</t>
+          <t>De acordo com o **quarto parágrafo da Página 4**, "Três dias após o ataque a Hiroshima... Nagasaki... avistaram um clarão ofuscante".</t>
         </is>
       </c>
       <c r="H298" t="inlineStr"/>
@@ -12071,32 +12071,32 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Pág 1</t>
+          <t>Pág 5</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Valor Militar das Colônias na II Guerra</t>
+          <t>Incerteza Pós-Guerra</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Às vésperas da Segunda Guerra Mundial, a Alemanha obteve vantagem militar por não possuir colônias, evitando a dispersão de forças que prejudicou a França e a Grã-Bretanha.</t>
+          <t>No fim de 1945, a questão atormentadora era se a humanidade saberia lidar com o poder destrutivo, especialmente com tiranos como Stalin ainda no poder.</t>
         </is>
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>O vasto império colonial da Grã-Bretanha e da França garantiu a essas nações uma vantagem militar decisiva no início da guerra, enquanto a Alemanha sofria por falta de recursos externos.</t>
+          <t>Com a morte de Hitler e o fim da guerra, o mundo entrou em uma era de certeza absoluta de paz, sem preocupações com o poder destrutivo das novas armas.</t>
         </is>
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>Conforme o **segundo parágrafo da Página 1**, a Alemanha esteve "em vantagem militar por não possuir nenhuma colônia", enquanto os aliados ficaram imobilizados e dispersos.</t>
+          <t>Conforme o **primeiro parágrafo da Página 5**, a questão era se seriam "capazes de lidar com o enorme poder" e "Stalin... continuava no poder".</t>
         </is>
       </c>
       <c r="H299" t="inlineStr"/>
@@ -12110,32 +12110,32 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Pág 1</t>
+          <t>Pág 5</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Opinião das Superpotências sobre Impérios</t>
+          <t>Lorde Acton</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Após 1945, tanto Washington quanto Moscou opunham-se aos impérios ultramarinos, embora os EUA hesitassem caso a independência levasse à influência soviética.</t>
+          <t>Lorde Acton foi um historiador católico que refletiu sobre os danos morais e físicos causados pela concentração de poder em uma só pessoa.</t>
         </is>
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>Após a guerra, Washington e Moscou uniram-se para financiar a reconstrução dos impérios coloniais europeus, vendo-os como essenciais para a estabilidade global.</t>
+          <t>Lorde Acton foi o cientista chefe do projeto Manhattan, que defendia que o poder absoluto era necessário para manter a ordem mundial.</t>
         </is>
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>Segundo o **terceiro parágrafo da Página 1**, "Moscou e Washington, opunham-se a esses impérios", apesar das ressalvas sobre a influência soviética.</t>
+          <t>Segundo o **segundo parágrafo da Página 5**, Acton era "um historiador... católico devoto... pensou profundamente no prejuízo moral que se abate sobre os muito poderosos".</t>
         </is>
       </c>
       <c r="H300" t="inlineStr"/>
@@ -12149,32 +12149,32 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Pág 1</t>
+          <t>Pág 5</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Percepção Popular sobre Colônias</t>
+          <t>A Máxima de Acton</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>No início do século 20, a população dos grandes países europeus sentia orgulho de suas colônias, vendo-as como fonte de prestígio e destaque nos mapas escolares.</t>
+          <t>A frase de Acton, "O poder tende a corromper, poder absoluto corrompe absolutamente", tornou-se expressiva diante de líderes como Hitler e Stalin.</t>
         </is>
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>As populações europeias sempre viram as colônias com vergonha e desdém, protestando contra sua existência desde o início do século 20.</t>
+          <t>Acton ficou famoso pela frase "O poder purifica, e o poder absoluto purifica absolutamente", elogiando a liderança de grandes homens.</t>
         </is>
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>De acordo com o **primeiro parágrafo da Página 1**, a população "se orgulhava de suas colônias. Era algo que lhes conferia prestígio".</t>
+          <t>De acordo com o **terceiro parágrafo da Página 5**, ele escreveu: "O poder tende a corromper, poder absoluto corrompe absolutamente".</t>
         </is>
       </c>
       <c r="H301" t="inlineStr"/>
@@ -12188,32 +12188,32 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Pág 2</t>
+          <t>Pág 1</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Formação de Gandhi</t>
+          <t>Danos da Segunda Guerra Mundial</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Gandhi estudou em Londres e exerceu advocacia na África do Sul, onde foi preso por atividades em favor de seus compatriotas.</t>
+          <t>A destruição causada pela guerra em infraestrutura e propriedades rivalizava, em seu total, com a devastação de todos os desastres naturais do século anterior.</t>
         </is>
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>Gandhi viveu toda a sua vida na Índia rural, recusando-se a viajar para o Ocidente ou a exercer profissões ligadas às leis britânicas.</t>
+          <t>Os danos materiais da Segunda Guerra foram insignificantes comparados à Primeira Guerra, preservando-se a maior parte da infraestrutura agrícola e industrial.</t>
         </is>
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>Conforme o **segundo parágrafo da seção 'Uma Bússola para a Índia' (Página 2)**, Gandhi "foi estudar em Londres. Exerceu advocacia com sucesso... na África do Sul".</t>
+          <t>Conforme o **primeiro parágrafo da Página 1**, a destruição de casas, fábricas e outros "rivalizava... com a devastação causada por todos os desastres naturais ao longo do século anterior".</t>
         </is>
       </c>
       <c r="H302" t="inlineStr"/>
@@ -12227,32 +12227,32 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Pág 2</t>
+          <t>Pág 1</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Influências Intelectuais de Gandhi</t>
+          <t>As Novas Superpotências</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>O pensamento de Gandhi era uma mistura de ideologias do Oriente e do Ocidente, sendo influenciado por autores como Thoreau, Ruskin e Tolstoi.</t>
+          <t>Estados Unidos e União Soviética emergiram como superpotências de proporções continentais, não sendo vizinhas e possuindo quase nada no Hemisfério Sul.</t>
         </is>
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>A filosofia de Gandhi rejeitava qualquer influência ocidental, baseando-se exclusivamente nos textos sagrados hindus e no misticismo oriental.</t>
+          <t>Estados Unidos e União Soviética eram nações vizinhas que disputavam vastas colônias herdadas da Alemanha no Hemisfério Sul.</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>Segundo o **terceiro parágrafo da seção (Página 2)**, suas opiniões misturavam ideologias e ele admirava "Henry Thoreau... John Ruskin... e o romancista russo Leon Tolstoi".</t>
+          <t>Segundo o **terceiro parágrafo da Página 1**, elas "não 'possuíam', praticamente nada no Hemisfério Sul" e "não eram vizinhas".</t>
         </is>
       </c>
       <c r="H303" t="inlineStr"/>
@@ -12266,32 +12266,32 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Pág 2</t>
+          <t>Pág 1</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Atuação na Primeira Guerra Mundial</t>
+          <t>Conferência de São Francisco</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>Durante a Primeira Guerra Mundial, Gandhi agiu como "Filho do Império Britânico", oferecendo-se como chefe de recrutamento entre a população indiana.</t>
+          <t>A União Soviética condicionou sua satisfação com a nova ONU à possibilidade de suas repúblicas-satélite também se tornarem membros.</t>
         </is>
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>Desde o início da Primeira Guerra, Gandhi liderou sabotagens contra o exército britânico, recusando qualquer colaboração com o Império.</t>
+          <t>A União Soviética aceitou incondicionalmente a estrutura da ONU, recusando-se a permitir que suas repúblicas-satélite tivessem assento na organização.</t>
         </is>
       </c>
       <c r="G304" t="inlineStr">
         <is>
-          <t>De acordo com o **quarto parágrafo da seção (Página 2)**, Gandhi "ofereceu-se como chefe de recrutamento entre a população indiana" durante a guerra.</t>
+          <t>De acordo com o **quinto parágrafo da Página 1**, a URSS "não se daria por satisfeita... se suas repúblicas-satélite não pudessem igualmente se tornar membros".</t>
         </is>
       </c>
       <c r="H304" t="inlineStr"/>
@@ -12305,32 +12305,32 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Pág 3</t>
+          <t>Pág 2</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Estratégia da Marcha do Sal</t>
+          <t>Ocupação Soviética e Repressão</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>A Marcha do Sal foi planejada para gerar publicidade, com trechos percorridos nas horas de melhor luz para filmagens, visando expor um imposto injusto.</t>
+          <t>Nas repúblicas bálticas (Letônia, Estônia e Lituânia), não houve autonomia após a guerra, tornando-se elas parte da União Soviética em 1945.</t>
         </is>
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>A Marcha do Sal foi um movimento secreto e noturno, desenhado para evitar a atenção da mídia e das autoridades britânicas.</t>
+          <t>As repúblicas bálticas mantiveram sua independência total após a guerra, servindo como zona tampão neutra entre o Ocidente e a URSS.</t>
         </is>
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t>Conforme o **segundo parágrafo da Página 3**, ele "queria o máximo de publicidade... cuidou para que o trecho de cada dia fosse percorrido nas horas mais frescas".</t>
+          <t>Conforme o **primeiro parágrafo da seção 'Atrás da Cortina de Ferro' (Página 2)**, nessas repúblicas "não houve uma só semana de autonomia. Em 1945, tornaram-se parte da União Soviética".</t>
         </is>
       </c>
       <c r="H305" t="inlineStr"/>
@@ -12344,32 +12344,32 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Pág 3</t>
+          <t>Pág 2</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Limites da Resistência Passiva</t>
+          <t>Golpe na Tchecoslováquia</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>A resistência passiva de Gandhi dependia da tolerância do governo britânico; líderes como Stalin ou Hitler provavelmente o teriam executado.</t>
+          <t>Após eleições onde os comunistas não tiveram maioria, o líder Klement Gottwald formou uma coalizão que resultou, em 1948, em um governo apenas de comunistas.</t>
         </is>
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>A resistência passiva é uma tática infalível que teria funcionado com a mesma eficácia contra ditadores como Hitler e Stalin.</t>
+          <t>A Tchecoslováquia permaneceu uma democracia liberal multipartidária até o final da década de 1950, rejeitando qualquer influência de Klement Gottwald.</t>
         </is>
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>Segundo o **terceiro parágrafo da Página 3**, "Stalin e Hitler teriam ordenado sua prisão ou execução", pois a tática requer um governo com certa tolerância.</t>
+          <t>Segundo o **segundo parágrafo da seção 'Atrás da Cortina de Ferro' (Página 2)**, em 1948, "quando Gottwald rearticulou o ministério, havia nele apenas comunistas".</t>
         </is>
       </c>
       <c r="H306" t="inlineStr"/>
@@ -12383,32 +12383,32 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Pág 3</t>
+          <t>Pág 2</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Objetivo Político de Gandhi</t>
+          <t>Condições de Vida no Leste Europeu</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Ao contrário do Congresso Nacional Indiano, que buscava compromissos, Gandhi pedia aos britânicos que abandonassem a Índia de forma definitiva.</t>
+          <t>Apesar da opressão política, a vida cotidiana no Leste Europeu voltou ao normal, com acesso a moradia, médicos e férias remuneradas para a maioria.</t>
         </is>
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>Gandhi defendia a permanência dos britânicos na Índia, contentando-se apenas com uma reforma no sistema de impostos.</t>
+          <t>Sob o regime comunista, a população do Leste Europeu vivia em completa miséria, sem acesso a nenhum bem material, comida ou assistência médica básica.</t>
         </is>
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>De acordo com o **primeiro parágrafo da Página 3**, "Gandhi procurou estimular a saída definitiva dos colonizadores... pediu aos britânicos que abandonassem a Índia".</t>
+          <t>De acordo com o **último parágrafo da Página 2**, "a maior parte das pessoas conseguiu moradia... acesso a médicos e hospitais, férias remuneradas".</t>
         </is>
       </c>
       <c r="H307" t="inlineStr"/>
@@ -12422,32 +12422,32 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Pág 4</t>
+          <t>Pág 3</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>O Ato do Governo da Índia de 1935</t>
+          <t>Divisão Econômica da Alemanha</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Em 1935, a Grã-Bretanha dividiu a Índia em províncias autônomas com parlamentos próprios, mas manteve o controle da política externa.</t>
+          <t>A Alemanha Ocidental recuperou-se com financiamento do Plano Marshall, enquanto a Oriental sofreu com a apropriação de maquinário pelos russos.</t>
         </is>
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>O ato de 1935 concedeu independência total e irrestrita à Índia, retirando imediatamente todas as autoridades britânicas do país.</t>
+          <t>A Alemanha Oriental prosperou rapidamente graças à ajuda soviética, enquanto a Alemanha Ocidental estagnou por recusar o Plano Marshall.</t>
         </is>
       </c>
       <c r="G308" t="inlineStr">
         <is>
-          <t>Conforme o **primeiro parágrafo da Página 4**, houve divisão em províncias autônomas, mas "A política externa continuou em grande parte nas mãos dos britânicos".</t>
+          <t>Conforme o **primeiro parágrafo da Página 3**, os EUA "financiaram o restabelecimento da Alemanha Ocidental" e os russos "tomaram maquinário... em sua zona na Alemanha Oriental".</t>
         </is>
       </c>
       <c r="H308" t="inlineStr"/>
@@ -12461,32 +12461,32 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Pág 4</t>
+          <t>Pág 3</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>Posição dos Muçulmanos</t>
+          <t>Bloqueio de Berlim</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>A minoria muçulmana temia que seu futuro não estivesse em uma Índia unida (dominada por hindus), desejando a criação do Paquistão.</t>
+          <t>Em 1947, Moscou bloqueou as vias de acesso a Berlim, o que foi contornado pelos aliados através de um transporte aéreo de suprimentos por mais de um ano.</t>
         </is>
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>Os muçulmanos eram os maiores defensores de uma Índia unificada, rejeitando qualquer proposta de divisão territorial baseada em religião.</t>
+          <t>O bloqueio de Berlim em 1947 resultou na rendição imediata da parte ocidental da cidade aos soviéticos, pois o transporte aéreo foi ineficaz.</t>
         </is>
       </c>
       <c r="G309" t="inlineStr">
         <is>
-          <t>Segundo o **primeiro parágrafo da Página 4**, eles acreditavam que "seu futuro não estava em uma Índia unida, mas na nova nação do Paquistão".</t>
+          <t>Segundo o **segundo parágrafo da Página 3**, "Britânicos e americanos reagiram... enviar suprimentos por via aérea... Por mais de um ano".</t>
         </is>
       </c>
       <c r="H309" t="inlineStr"/>
@@ -12500,32 +12500,32 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Pág 4</t>
+          <t>Pág 3</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>Impacto da Entrada dos EUA na Guerra</t>
+          <t>Alianças Militares</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>A entrada dos EUA na guerra aumentou a pressão pela independência da Índia, pois os americanos eram hostis ao conceito de colônias europeias.</t>
+          <t>A Alemanha Ocidental dependia da Otan para sua defesa, enquanto a Alemanha Oriental dependia do Pacto de Varsóvia.</t>
         </is>
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>Os Estados Unidos entraram na guerra exigindo que a Grã-Bretanha mantivesse seu império intacto para garantir a segurança global.</t>
+          <t>A Alemanha Oriental uniu-se à Otan para garantir sua defesa contra a União Soviética, enquanto a Alemanha Ocidental manteve-se neutra.</t>
         </is>
       </c>
       <c r="G310" t="inlineStr">
         <is>
-          <t>De acordo com o **segundo parágrafo da Página 4**, a hostilidade dos EUA em relação às colônias "aumentava a probabilidade de a Índia se tornar independente".</t>
+          <t>De acordo com o **segundo parágrafo da Página 3**, uma dependia da "Otan... enquanto a outra... dependia da União Soviética... Pacto de Varsóvia".</t>
         </is>
       </c>
       <c r="H310" t="inlineStr"/>
@@ -12539,32 +12539,32 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Pág 5</t>
+          <t>Pág 4</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Violência na Partição</t>
+          <t>Origem do termo Cortina de Ferro</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>A partição da Índia foi marcada por extrema violência, como em Calcutá, onde milhares morreram em conflitos entre hindus e muçulmanos.</t>
+          <t>Embora popularizada por Churchill em 1946, a expressão "cortina de ferro" foi escrita originalmente por Ethel Snowden em 1920.</t>
         </is>
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>A separação entre Índia e Paquistão foi um processo pacífico e burocrático, sem registros de violência civil ou mortes.</t>
+          <t>Winston Churchill inventou a expressão "cortina de ferro" em 1946, sendo o primeiro autor a utilizar esse termo na história política.</t>
         </is>
       </c>
       <c r="G311" t="inlineStr">
         <is>
-          <t>Conforme o **primeiro parágrafo da Página 5**, em uma semana "cerca de 5 mil pessoas foram mortas... em lutas e tumultos envolvendo muçulmanos e hindus".</t>
+          <t>Conforme o **primeiro parágrafo da Página 4**, "Embora Winston Churchill não fosse o autor... Em 1920, Ethel Snowden... escreveu que eles finalmente estavam 'atrás da cortina de ferro'".</t>
         </is>
       </c>
       <c r="H311" t="inlineStr"/>
@@ -12578,32 +12578,32 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Pág 5</t>
+          <t>Pág 4</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Geografia do Paquistão</t>
+          <t>Definição de Guerra Fria</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>O novo Paquistão era uma nação dividida geograficamente em duas partes (Ocidental e Oriental), separadas pelo território indiano.</t>
+          <t>A expressão "guerra fria", cunhada por Bernard Baruch, descrevia uma relação que se assemelhava mais a uma "paz quente e tensa" entre as superpotências.</t>
         </is>
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>O Paquistão foi criado como um território contínuo e unificado no centro do subcontinente indiano.</t>
+          <t>A "guerra fria" foi assim chamada porque as batalhas ocorriam exclusivamente nas regiões árticas e polares da União Soviética e do Alasca.</t>
         </is>
       </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>Segundo o **segundo parágrafo da Página 5**, "A nova república muçulmana do Paquistão foi dividida em dois lados - o Ocidental e o Oriental".</t>
+          <t>Segundo o **segundo parágrafo da Página 4**, Baruch escreveu em 1947, e a relação "se assemelhavam mais a uma quente e tensa paz".</t>
         </is>
       </c>
       <c r="H312" t="inlineStr"/>
@@ -12617,32 +12617,32 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Pág 5</t>
+          <t>Pág 4</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Impacto Geopolítico da Divisão</t>
+          <t>Dissidências no Bloco Comunista</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>A divisão da Índia reduziu drasticamente a potencial influência do subcontinente, que unido teria hoje uma população maior que a da China.</t>
+          <t>A Iugoslávia, sob o comando de Tito, não seguia a cartilha de Stalin e foi expulsa do Cominform em 1948.</t>
         </is>
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>A divisão fortaleceu a influência global da região, pois criou duas potências militares aliadas que dominaram a política asiática.</t>
+          <t>A Iugoslávia foi o satélite mais fiel de Stalin, liderando o Cominform e jamais divergindo das ordens de Moscou.</t>
         </is>
       </c>
       <c r="G313" t="inlineStr">
         <is>
-          <t>De acordo com o **segundo parágrafo da seção (Página 5)**, "A potencial influência da Índia... foi drasticamente reduzida pela divisão".</t>
+          <t>De acordo com o **terceiro parágrafo da Página 4**, "A Iugoslávia não rezava pela cartilha de Stalin e foi expulsa da liga soviética... em 1948".</t>
         </is>
       </c>
       <c r="H313" t="inlineStr"/>
@@ -12656,32 +12656,32 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Pág 6</t>
+          <t>Pág 5</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Intenção Holandesa Pós-Guerra</t>
+          <t>Desenvolvimento Nuclear Soviético</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Terminada a guerra, o governo da Holanda pretendia resgatar as Índias Orientais (Indonésia), considerando-as vitais para sua economia.</t>
+          <t>A Rússia desenvolveu sua bomba atômica em 1949 com auxílio de espionagem e sua bomba de hidrogênio em 1953, com destaque para o físico Andrei Sakharov.</t>
         </is>
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>A Holanda decidiu conceder independência imediata à Indonésia após a guerra, reconhecendo que não precisava mais de seus recursos.</t>
+          <t>A União Soviética recusou-se a desenvolver armas nucleares, preferindo investir apenas em forças convencionais e diplomacia pacífica.</t>
         </is>
       </c>
       <c r="G314" t="inlineStr">
         <is>
-          <t>Conforme o **primeiro parágrafo da Página 6**, "o governo da Holanda pretendia seriamente resgatar aquele território assim que os japoneses se retirassem".</t>
+          <t>Conforme o **primeiro e segundo parágrafos da Página 5**, "Em 1949... conseguiu desenvolver a arma" e Sakharov ajudou na "bomba de hidrogênio" em 1953.</t>
         </is>
       </c>
       <c r="H314" t="inlineStr"/>
@@ -12695,32 +12695,32 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Pág 6</t>
+          <t>Pág 5</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Sukarno e a Ocupação Japonesa</t>
+          <t>Percepção de Conflito</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Durante a ocupação japonesa, Sukarno atuou como braço direito dos invasores, mas usou essa posição para preparar a independência, declarada em 1945.</t>
+          <t>A maioria das pessoas bem-informadas do Ocidente acreditava que veria outra grande guerra, possivelmente com armas atômicas.</t>
         </is>
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>Sukarno liderou uma resistência armada constante contra os japoneses, recusando-se a ter qualquer contato com os ocupantes durante a guerra.</t>
+          <t>Após 1945, reinava no Ocidente uma certeza absoluta de paz duradoura, sem qualquer temor de novos conflitos globais ou nucleares.</t>
         </is>
       </c>
       <c r="G315" t="inlineStr">
         <is>
-          <t>Segundo o **segundo parágrafo da Página 6**, ele "se tornou o braço direito dos invasores, mas não um servo obediente" e declarou o surgimento da nação em 1945.</t>
+          <t>Segundo o **terceiro parágrafo da Página 5**, "A maioria das pessoas bem-informadas do Ocidente achava que ainda veria outra grande guerra".</t>
         </is>
       </c>
       <c r="H315" t="inlineStr"/>
@@ -12734,32 +12734,32 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Pág 6</t>
+          <t>Pág 5</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>Estilo de Liderança de Sukarno</t>
+          <t>Otimismo Soviético</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Sukarno era visto como um "mágico" e mestre das palavras, capaz de unir, inicialmente, um país formado por diversos grupos étnicos.</t>
+          <t>A teoria marxista e a forte posição do comunismo na Europa e Ásia alimentavam o otimismo soviético quanto a uma vitória inevitável.</t>
         </is>
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>Sukarno era um líder burocrático e sem carisma, que governava exclusivamente através da força militar, sem apoio popular.</t>
+          <t>Os soviéticos estavam profundamente pessimistas sobre o futuro do comunismo, acreditando que seu sistema colapsaria em poucos anos.</t>
         </is>
       </c>
       <c r="G316" t="inlineStr">
         <is>
-          <t>De acordo com o **segundo parágrafo da Página 6**, "parecia um mágico... um mestre no uso das palavras... um discreto sentimento de patriotismo começou a unir o país".</t>
+          <t>De acordo com o **terceiro parágrafo da Página 5**, havia esperançosos "incentivados pela teoria marxista, a qual prometia uma inevitável vitória".</t>
         </is>
       </c>
       <c r="H316" t="inlineStr"/>
@@ -12773,32 +12773,32 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Pág 7</t>
+          <t>Pág 6</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Política Econômica de Sukarno</t>
+          <t>Origens de Mao Tsé-tung</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Sukarno resolveu problemas financeiros imprimindo dinheiro, o que resultou em hiperinflação e aumento drástico dos preços.</t>
+          <t>Mao Tsé-tung, filho de um proprietário de terras, foi um dos primeiros membros do Partido Comunista Chinês, criado em 1921.</t>
         </is>
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>Sukarno implementou uma política fiscal rigorosa e austera, controlando a inflação e fortalecendo a moeda indonésia.</t>
+          <t>Mao Tsé-tung era um operário urbano de Xangai que fundou o Partido Nacionalista antes de se converter ao comunismo.</t>
         </is>
       </c>
       <c r="G317" t="inlineStr">
         <is>
-          <t>Conforme o **primeiro parágrafo da Página 7**, ele "mandava imprimir mais [dinheiro]... os preços aumentavam semana após semana".</t>
+          <t>Conforme o **segundo parágrafo da Página 6**, ele era "Filho de um proprietário de terras... se tornou um de seus primeiros membros" do partido criado em 1921.</t>
         </is>
       </c>
       <c r="H317" t="inlineStr"/>
@@ -12812,32 +12812,32 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Pág 7</t>
+          <t>Pág 6</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Fim da Democracia na Indonésia</t>
+          <t>Relação URSS e China</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Sukarno dispensou a democracia após as eleições de 1955, percebendo que o resultado não favorecia o domínio de seu partido.</t>
+          <t>Inicialmente, a União Soviética interessava-se mais pelo Partido Nacionalista (Kuomintang) do que pelo Partido Comunista Chinês.</t>
         </is>
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>Sukarno fortaleceu as instituições democráticas após 1955, garantindo a alternância de poder e a liberdade dos partidos de oposição.</t>
+          <t>A União Soviética sempre apoiou exclusivamente os comunistas chineses, rejeitando qualquer contato com o Partido Nacionalista desde o início.</t>
         </is>
       </c>
       <c r="G318" t="inlineStr">
         <is>
-          <t>Segundo o **primeiro parágrafo da Página 7**, ele percebeu que a democracia não daria o resultado necessário, "Então, dispensou-a".</t>
+          <t>Segundo o **terceiro parágrafo da Página 6**, a URSS "estivera menos interessada no Partido Comunista Chinês do que no predominante Partido Nacionalista".</t>
         </is>
       </c>
       <c r="H318" t="inlineStr"/>
@@ -12851,32 +12851,32 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Pág 7</t>
+          <t>Pág 6</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Foco dos Líderes Africanos</t>
+          <t>O Massacre de Xangai</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Muitos líderes africanos da independência estavam tão obcecados pela libertação que pouco planejaram sobre como governar após conquistá-la.</t>
+          <t>Em 1927, Chiang Kai-shek rompeu a aliança com os comunistas e, com apoio de ricos de Xangai, promoveu o assassinato de muitos deles.</t>
         </is>
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>Os líderes africanos tinham planos de governo detalhados e priorizavam a gestão administrativa sobre a retórica da independência.</t>
+          <t>Em 1927, Chiang Kai-shek entregou o poder pacificamente aos comunistas em Xangai, solidificando uma aliança duradoura.</t>
         </is>
       </c>
       <c r="G319" t="inlineStr">
         <is>
-          <t>De acordo com o **terceiro parágrafo da Página 7**, "Muitos estavam de tal maneira obcecados pela conquista da independência... pouco pensavam no que fariam caso essa independência chegasse".</t>
+          <t>De acordo com o **terceiro parágrafo da Página 6**, "A aliança foi rompida em 1927... concordando em expulsar... muitos foram assassinados".</t>
         </is>
       </c>
       <c r="H319" t="inlineStr"/>
@@ -12890,32 +12890,32 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Pág 8</t>
+          <t>Pág 7</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Composição Demográfica da África do Sul</t>
+          <t>A Longa Marcha</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>A África do Sul recebeu mais imigrantes europeus do que qualquer outro país africano, mas a minoria branca compunha apenas um quinto da população.</t>
+          <t>Em 1935, Mao liderou seu exército em uma longa marcha para o noroeste (Shaanxi), salvando os comunistas do extermínio pelos nacionalistas.</t>
         </is>
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>A África do Sul era o único país africano onde a população branca superava numericamente a população negra nativa.</t>
+          <t>A Longa Marcha foi uma ofensiva fracassada em direção ao litoral, que resultou na captura de Mao Tsé-tung pelas forças nacionalistas.</t>
         </is>
       </c>
       <c r="G320" t="inlineStr">
         <is>
-          <t>Conforme o **segundo e terceiro parágrafos da Página 8**, nenhum país "recebeu mais imigrantes europeus" e a minoria branca compunha "um quinto da população".</t>
+          <t>Conforme o **segundo parágrafo da Página 7**, "Mao liderou seu exército... em uma longa e tortuosa marcha em direção ao noroeste... o que salvou os comunistas".</t>
         </is>
       </c>
       <c r="H320" t="inlineStr"/>
@@ -12929,32 +12929,32 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Pág 8</t>
+          <t>Pág 7</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Leis do Apartheid</t>
+          <t>Invasão Japonesa e Trégua</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Após 1948, novas leis restringiram direitos dos não brancos, proibindo casamentos mistos e segregando áreas residenciais e universidades.</t>
+          <t>Com a invasão japonesa em 1937, nacionalistas e comunistas uniram esforços, mas os nacionalistas pareceram indiferentes e fugiram para o oeste.</t>
         </is>
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>Após 1948, o governo sul-africano aboliu todas as leis raciais, promovendo a integração total nas escolas e bairros residenciais.</t>
+          <t>Durante a invasão japonesa, os nacionalistas lutaram com mais fervor que os comunistas, impedindo o avanço japonês sem recuar da capital.</t>
         </is>
       </c>
       <c r="G321" t="inlineStr">
         <is>
-          <t>Segundo o **segundo parágrafo da seção (Página 8)**, sob as novas leis, "brancos só podiam casar-se com outros brancos... residir em determinados bairros".</t>
+          <t>Segundo o **terceiro parágrafo da Página 7**, eles "concordaram em unir esforços... Os nacionalistas... pareceram um tanto indiferentes... fugiu para... o oeste".</t>
         </is>
       </c>
       <c r="H321" t="inlineStr"/>
@@ -12968,32 +12968,32 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Pág 8</t>
+          <t>Pág 7</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>Mudança na Tática de Mandela</t>
+          <t>Base de Mao</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Após o governo abolir o Congresso Nacional Africano, Nelson Mandela passou a responder por tentativa de sabotagem e ataque armado.</t>
+          <t>Em Paoan, Mao vivia em uma caverna e usava o local como campo de treinamento e planejamento, protegido por ser uma fortaleza isolada.</t>
         </is>
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>Nelson Mandela manteve-se estritamente fiel à resistência passiva e não violenta durante toda a sua luta contra o apartheid.</t>
+          <t>Mao comandava a revolução de luxuosos palácios nas cidades costeiras, longe das privações das montanhas do norte.</t>
         </is>
       </c>
       <c r="G322" t="inlineStr">
         <is>
-          <t>De acordo com o **terceiro parágrafo da seção (Página 8)**, Mandela "respondeu por tentativa de sabotagem e ataque armado... o braço militar... adquiria mais armamentos".</t>
+          <t>De acordo com o **segundo parágrafo da Página 7**, "Lá, Mao vivia em uma caverna... Paoan... era seu campo de treinamento".</t>
         </is>
       </c>
       <c r="H322" t="inlineStr"/>
@@ -13007,32 +13007,32 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Pág 9</t>
+          <t>Pág 8</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>Motivação Francesa nas Colônias</t>
+          <t>Vitória Comunista na China</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>O governo francês pós-guerra ansiava por manter as colônias para recuperar o prestígio nacional abalado pela derrota na Segunda Guerra.</t>
+          <t>Em outubro de 1949, Mao estabeleceu-se no poder em Pequim, enquanto Chiang Kai-shek instituiu uma república na ilha de Taiwan.</t>
         </is>
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>A França considerava suas colônias um fardo inútil e iniciou um processo voluntário de descolonização imediata em 1945.</t>
+          <t>Em 1949, os nacionalistas venceram a guerra civil, forçando Mao Tsé-tung a fugir para a União Soviética.</t>
         </is>
       </c>
       <c r="G323" t="inlineStr">
         <is>
-          <t>Conforme o **segundo parágrafo da Página 9**, o governo "estava ansioso por manter as colônias. Elas traziam prestígio, algo urgentemente necessário".</t>
+          <t>Conforme o **segundo parágrafo da Página 8**, "Em outubro de 1949... Mao finalmente se estabeleceu no poder... Chiang Kai-shek... na ilha de Taiwan".</t>
         </is>
       </c>
       <c r="H323" t="inlineStr"/>
@@ -13046,32 +13046,32 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Pág 9</t>
+          <t>Pág 8</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Guerra da Indochina</t>
+          <t>Tigre de Papel</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>A determinação da França em manter a Indochina resultou em uma guerra custosa onde morriam anualmente mais oficiais do que as academias formavam.</t>
+          <t>Mao usava a expressão "tigre de papel" para desdenhar da bomba atômica americana, embora tenha mudado o discurso quando a China fez sua bomba.</t>
         </is>
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>A França retirou-se pacificamente da Indochina em 1946, transferindo o poder para os líderes locais sem conflitos armados.</t>
+          <t>Mao cunhou a expressão "tigre de papel" para elogiar a força indestrutível do exército norte-americano e de suas armas nucleares.</t>
         </is>
       </c>
       <c r="G324" t="inlineStr">
         <is>
-          <t>Segundo o **terceiro parágrafo da Página 9**, o país abandonou a Indochina "após uma guerra em que morriam mais oficiais... do que o número de formados".</t>
+          <t>Segundo o **primeiro parágrafo da Página 8**, "declarou com desdém que a bomba atômica era um tigre de papel... embora tenha mudado um pouco esse discurso".</t>
         </is>
       </c>
       <c r="H324" t="inlineStr"/>
@@ -13085,32 +13085,32 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Pág 9</t>
+          <t>Pág 8</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Valor das Colônias Africanas</t>
+          <t>Extensão do Bloco Comunista</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>As colônias africanas eram valorizadas pela França também como locais para testes nucleares, como o realizado no deserto em 1960.</t>
+          <t>A vitória de Mao criou uma área vermelha que ia do Mediterrâneo ao Pacífico, abrangendo um terço da população mundial.</t>
         </is>
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>A França proibiu estritamente o uso de suas colônias africanas para fins militares ou testes de armas, preservando o meio ambiente local.</t>
+          <t>A vitória de Mao isolou a China do resto do mundo comunista, criando um bloco pequeno e irrelevante na geopolítica mundial.</t>
         </is>
       </c>
       <c r="G325" t="inlineStr">
         <is>
-          <t>De acordo com o **quarto parágrafo da Página 9**, "os franceses viriam a testar sua primeira bomba nuclear no deserto [africano], em 1960".</t>
+          <t>De acordo com o **terceiro parágrafo da Página 8**, a área se estendia "desde o Mediterrâneo... até as costas do Oceano Pacífico... vivia aproximadamente um terço da população mundial".</t>
         </is>
       </c>
       <c r="H325" t="inlineStr"/>
@@ -13124,32 +13124,32 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Pág 10</t>
+          <t>Pág 9</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Status da Argélia</t>
+          <t>Início da Guerra da Coreia</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>A Argélia era tratada como uma colônia especial, com parte dela sendo considerada por muitos políticos como uma extensão permanente da França.</t>
+          <t>A guerra começou em 25 de junho de 1950, quando soldados da Coreia do Norte e tanques soviéticos invadiram a Coreia do Sul.</t>
         </is>
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>A Argélia era tratada como uma colônia penal distante, sem presença significativa de cidadãos franceses ou infraestrutura europeia.</t>
+          <t>A Guerra da Coreia começou quando a Coreia do Sul, apoiada pelos EUA, invadiu o Norte para tentar unificar o país à força.</t>
         </is>
       </c>
       <c r="G326" t="inlineStr">
         <is>
-          <t>Conforme o **primeiro parágrafo da Página 10**, "A Argélia era tratada como uma colônia especial... que se tornasse parte permanente do país".</t>
+          <t>Conforme o **segundo parágrafo da Página 9**, "Ao amanhecer do dia 25 de junho... seus soldados [do Norte] e um grande contingente de tanques soviéticos invadiram a Coreia do Sul".</t>
         </is>
       </c>
       <c r="H326" t="inlineStr"/>
@@ -13163,32 +13163,32 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Pág 10</t>
+          <t>Pág 9</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Declínio Britânico</t>
+          <t>Intervenção da ONU</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>A perda do Canal de Suez em 1956 e a retirada naval de Cingapura em 1971 foram marcos devastadores no declínio do Império Britânico.</t>
+          <t>A ONU optou por uma operação militar na Coreia porque a União Soviética estava ausente do Conselho de Segurança e não pôde vetar a resolução.</t>
         </is>
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>O Império Britânico manteve sua hegemonia naval intacta até o final do século XX, controlando Suez e Cingapura sem desafios.</t>
+          <t>A ONU foi impedida de agir na Coreia devido ao veto imediato da União Soviética no Conselho de Segurança.</t>
         </is>
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>Segundo o **terceiro parágrafo da Página 10**, "A perda do Canal de Suez... foi devastadora. A decisão... de retirar as forças navais de Cingapura foi muito mais importante".</t>
+          <t>Segundo o **terceiro parágrafo da Página 9**, "a União Soviética não pôde exercer seu direito de veto... As Nações Unidas... acabaram optando por uma operação militar".</t>
         </is>
       </c>
       <c r="H327" t="inlineStr"/>
@@ -13202,32 +13202,32 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Pág 10</t>
+          <t>Pág 9</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Independência da Argélia</t>
+          <t>Intervenção Chinesa</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>A independência da Argélia foi decidida por um referendo em 1962, após uma luta que dividiu a nação francesa e trouxe De Gaulle de volta ao poder.</t>
+          <t>A chegada de tropas chinesas em auxílio aos norte-coreanos, com perdas de até 900 mil homens, tornou a situação da Coreia do Sul desesperadora.</t>
         </is>
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>A Argélia conquistou sua independência através de um acordo diplomático rápido e sem derramamento de sangue ou crises políticas na França.</t>
+          <t>A China manteve-se neutra no conflito coreano, recusando-se a enviar tropas para lutar contra as forças da ONU.</t>
         </is>
       </c>
       <c r="G328" t="inlineStr">
         <is>
-          <t>De acordo com o **segundo parágrafo da Página 10**, "A disputa dividiu a nação francesa... Em 1962, a questão... foi resolvida por um referendo".</t>
+          <t>De acordo com o **quarto parágrafo da Página 9**, "a participação de forças chinesas era tamanha... que a condição da Coreia do Sul se tornou desesperadora".</t>
         </is>
       </c>
       <c r="H328" t="inlineStr"/>
@@ -13241,32 +13241,32 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Pág 11</t>
+          <t>Pág 10</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Descolonização Portuguesa</t>
+          <t>Ásia como Centro de Poder</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Portugal manteve seus domínios africanos por muito mais tempo que outras potências, perdendo o império apenas após uma revolução democrática nos anos 70.</t>
+          <t>Nos dez anos pós-guerra, eventos cruciais como a bomba atômica, a revolução chinesa e a guerra da Coreia deslocaram o foco de poder para a Ásia e o Pacífico.</t>
         </is>
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>Portugal foi a primeira nação europeia a libertar todas as suas colônias africanas, logo após o fim da Segunda Guerra Mundial.</t>
+          <t>Nos anos seguintes à guerra, a Ásia permaneceu irrelevante politicamente, com todo o foco de poder mundial concentrado exclusivamente no Atlântico.</t>
         </is>
       </c>
       <c r="G329" t="inlineStr">
         <is>
-          <t>Conforme o **primeiro parágrafo da Página 11**, "Portugal... mantinha praticamente todos os domínios... experimentou uma revolução... perdeu seu império".</t>
+          <t>Conforme o **segundo parágrafo da Página 10**, o Pacífico "começava a desafiar o Atlântico como centro do poder internacional".</t>
         </is>
       </c>
       <c r="H329" t="inlineStr"/>
@@ -13280,32 +13280,32 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Pág 11</t>
+          <t>Pág 10</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>Desilusão Pós-Independência</t>
+          <t>Fim dos Impérios</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Em muitos casos, a alegria da independência durou pouco, e analistas concluíram que alguns povos foram mais maltratados pelos novos líderes do que pelos antigos.</t>
+          <t>A independência da Índia foi um evento que refletiu o renascimento da Ásia e sinalizou que o reinado dos impérios ultramarinos europeus estava perto do fim.</t>
         </is>
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>A independência trouxe prosperidade imediata e democracia estável para todas as ex-colônias asiáticas e africanas, superando as expectativas.</t>
+          <t>A independência da Índia fortaleceu o Império Britânico, garantindo a continuidade do domínio europeu na Ásia por mais um século.</t>
         </is>
       </c>
       <c r="G330" t="inlineStr">
         <is>
-          <t>Segundo o **segundo parágrafo da Página 11**, "tal alegria durou pouco... muitos povos africanos... eram mais maltratados por seus novos líderes".</t>
+          <t>Segundo o **segundo parágrafo da Página 10**, com a independência da Índia, "O longo reinado dos impérios ultramarinos... estava muito perto do fim".</t>
         </is>
       </c>
       <c r="H330" t="inlineStr"/>
@@ -13319,32 +13319,32 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Pág 11</t>
+          <t>Pág 10</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>Macau e Timor</t>
+          <t>Conflito de Potências</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Portugal mantinha o controle de Macau, no sul da China, e de metade do Timor, próximo à Austrália, até meados da década de 1970.</t>
+          <t>Na Coreia, pela última vez no século XX, duas grandes potências, China e Estados Unidos, se enfrentaram diretamente em combate.</t>
         </is>
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>Macau e Timor eram colônias britânicas que foram devolvidas à China e à Indonésia, respectivamente, em 1947.</t>
+          <t>A Guerra da Coreia foi marcada pela ausência de confronto direto entre grandes potências, sendo uma guerra civil restrita aos coreanos.</t>
         </is>
       </c>
       <c r="G331" t="inlineStr">
         <is>
-          <t>De acordo com o **primeiro parágrafo da Página 11**, Portugal "Tinha Macau... continuava a dominar metade do Timor".</t>
+          <t>De acordo com o **primeiro parágrafo da Página 10**, na Coreia, "pela última vez naquele século, duas grandes potências - China e Estados Unidos - se enfrentaram".</t>
         </is>
       </c>
       <c r="H331" t="inlineStr"/>
@@ -13363,27 +13363,27 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>Pioneirismo Russo em Foguetes</t>
+          <t>Valor Militar das Colônias na II Guerra</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Em 1903, Konstantin Tsiolkovsky escreveu um livro calculando que um foguete de combustível líquido poderia entrar em órbita.</t>
+          <t>Às vésperas da Segunda Guerra Mundial, a Alemanha obteve vantagem militar por não possuir colônias, evitando a dispersão de forças que prejudicou a França e a Grã-Bretanha.</t>
         </is>
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>Konstantin Tsiolkovsky provou matematicamente em 1903 que seria impossível para qualquer objeto sair da órbita da Terra.</t>
+          <t>O vasto império colonial da Grã-Bretanha e da França garantiu a essas nações uma vantagem militar decisiva no início da guerra, enquanto a Alemanha sofria por falta de recursos externos.</t>
         </is>
       </c>
       <c r="G332" t="inlineStr">
         <is>
-          <t>Conforme o **primeiro parágrafo da Página 1**, Tsiolkovsky escreveu "A Exploração do Espaço Cósmico" e calculou que "um foguete que usasse combustível líquido poderia subir alto o bastante".</t>
+          <t>Conforme o **segundo parágrafo da Página 1**, a Alemanha esteve "em vantagem militar por não possuir nenhuma colônia", enquanto os aliados ficaram imobilizados e dispersos.</t>
         </is>
       </c>
       <c r="H332" t="inlineStr"/>
@@ -13402,27 +13402,27 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>Testes Alemães em Peenemünde</t>
+          <t>Opinião das Superpotências sobre Impérios</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Sob o comando de Walter R. Dornberger, a Alemanha testava foguetes na aldeia costeira de Peenemünde, incentivada por Hitler.</t>
+          <t>Após 1945, tanto Washington quanto Moscou opunham-se aos impérios ultramarinos, embora os EUA hesitassem caso a independência levasse à influência soviética.</t>
         </is>
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>Hitler proibiu terminantemente o desenvolvimento de foguetes em Peenemünde, preferindo investir apenas em tanques convencionais.</t>
+          <t>Após a guerra, Washington e Moscou uniram-se para financiar a reconstrução dos impérios coloniais europeus, vendo-os como essenciais para a estabilidade global.</t>
         </is>
       </c>
       <c r="G333" t="inlineStr">
         <is>
-          <t>Segundo o **segundo parágrafo da Página 1**, "Hitler incentivava esse tipo de teste, sob o comando de Walter R. Dornberger, em Peenemünde".</t>
+          <t>Segundo o **terceiro parágrafo da Página 1**, "Moscou e Washington, opunham-se a esses impérios", apesar das ressalvas sobre a influência soviética.</t>
         </is>
       </c>
       <c r="H333" t="inlineStr"/>
@@ -13441,27 +13441,27 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>Velocidade dos Foguetes em 1942</t>
+          <t>Percepção Popular sobre Colônias</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Por volta de 1942, os veículos espaciais alemães já atingiam velocidades supersônicas de mais de 5 mil quilômetros por hora.</t>
+          <t>No início do século 20, a população dos grandes países europeus sentia orgulho de suas colônias, vendo-as como fonte de prestígio e destaque nos mapas escolares.</t>
         </is>
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>Em 1942, os foguetes alemães ainda eram muito lentos, não ultrapassando a velocidade dos aviões convencionais da época.</t>
+          <t>As populações europeias sempre viram as colônias com vergonha e desdém, protestando contra sua existência desde o início do século 20.</t>
         </is>
       </c>
       <c r="G334" t="inlineStr">
         <is>
-          <t>De acordo com o **segundo parágrafo da Página 1**, "os veículos espaciais mais avançados viajavam a mais de 5 mil quilômetros por hora, uma velocidade supersônica".</t>
+          <t>De acordo com o **primeiro parágrafo da Página 1**, a população "se orgulhava de suas colônias. Era algo que lhes conferia prestígio".</t>
         </is>
       </c>
       <c r="H334" t="inlineStr"/>
@@ -13480,27 +13480,27 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>Mudança para Fábricas Subterrâneas</t>
+          <t>Formação de Gandhi</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Após o bombardeio de Peenemünde em 1943, a produção de foguetes foi transferida para o subsolo das montanhas Hartz, usando trabalho escravo.</t>
+          <t>Gandhi estudou em Londres e exerceu advocacia na África do Sul, onde foi preso por atividades em favor de seus compatriotas.</t>
         </is>
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>Após o bombardeio aliado, a Alemanha desistiu da produção de foguetes e transferiu os recursos para a marinha.</t>
+          <t>Gandhi viveu toda a sua vida na Índia rural, recusando-se a viajar para o Ocidente ou a exercer profissões ligadas às leis britânicas.</t>
         </is>
       </c>
       <c r="G335" t="inlineStr">
         <is>
-          <t>Conforme o **segundo parágrafo da Página 2**, "uma fábrica mais segura foi construída no subsolo... empregados... submetidos a trabalho escravo".</t>
+          <t>Conforme o **segundo parágrafo da seção 'Uma Bússola para a Índia' (Página 2)**, Gandhi "foi estudar em Londres. Exerceu advocacia com sucesso... na África do Sul".</t>
         </is>
       </c>
       <c r="H335" t="inlineStr"/>
@@ -13519,27 +13519,27 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>Diferença entre V-1 e V-2</t>
+          <t>Influências Intelectuais de Gandhi</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>O V-1 era impelido por um mecanismo de pistão simples, enquanto o revolucionário V-2 levava uma ogiva de uma tonelada.</t>
+          <t>O pensamento de Gandhi era uma mistura de ideologias do Oriente e do Ocidente, sendo influenciado por autores como Thoreau, Ruskin e Tolstoi.</t>
         </is>
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>O V-1 era o foguete mais avançado e complexo, enquanto o V-2 era um planador simples feito de madeira.</t>
+          <t>A filosofia de Gandhi rejeitava qualquer influência ocidental, baseando-se exclusivamente nos textos sagrados hindus e no misticismo oriental.</t>
         </is>
       </c>
       <c r="G336" t="inlineStr">
         <is>
-          <t>Segundo o **terceiro parágrafo da Página 2**, os V-1 eram "impelidos por um mecanismo de pistão" e os revolucionários V-2 levavam "uma ogiva que pesava aproximadamente uma tonelada".</t>
+          <t>Segundo o **terceiro parágrafo da seção (Página 2)**, suas opiniões misturavam ideologias e ele admirava "Henry Thoreau... John Ruskin... e o romancista russo Leon Tolstoi".</t>
         </is>
       </c>
       <c r="H336" t="inlineStr"/>
@@ -13558,27 +13558,27 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>Visibilidade dos Ataques</t>
+          <t>Atuação na Primeira Guerra Mundial</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>Os foguetes V-1 eram barulhentos e visíveis do solo à noite, descritos por testemunhas como luminosos como barcos em uma regata.</t>
+          <t>Durante a Primeira Guerra Mundial, Gandhi agiu como "Filho do Império Britânico", oferecendo-se como chefe de recrutamento entre a população indiana.</t>
         </is>
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>Os foguetes alemães eram totalmente silenciosos e invisíveis, impossíveis de serem detectados a olho nu antes do impacto.</t>
+          <t>Desde o início da Primeira Guerra, Gandhi liderou sabotagens contra o exército britânico, recusando qualquer colaboração com o Império.</t>
         </is>
       </c>
       <c r="G337" t="inlineStr">
         <is>
-          <t>De acordo com o **terceiro parágrafo da Página 2**, um espectador escreveu: "são luminosos como pequenos barcos em uma regata".</t>
+          <t>De acordo com o **quarto parágrafo da seção (Página 2)**, Gandhi "ofereceu-se como chefe de recrutamento entre a população indiana" durante a guerra.</t>
         </is>
       </c>
       <c r="H337" t="inlineStr"/>
@@ -13597,27 +13597,27 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>Captura de Especialistas</t>
+          <t>Estratégia da Marcha do Sal</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Os norte-americanos capturaram Von Braun e sua equipe de 116 especialistas, considerados um dos principais troféus da vitória.</t>
+          <t>A Marcha do Sal foi planejada para gerar publicidade, com trechos percorridos nas horas de melhor luz para filmagens, visando expor um imposto injusto.</t>
         </is>
       </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t>Os soviéticos capturaram a equipe principal de Von Braun, deixando para os americanos apenas as instalações vazias e equipamentos quebrados.</t>
+          <t>A Marcha do Sal foi um movimento secreto e noturno, desenhado para evitar a atenção da mídia e das autoridades britânicas.</t>
         </is>
       </c>
       <c r="G338" t="inlineStr">
         <is>
-          <t>Conforme o **segundo parágrafo da Página 3**, "uma equipe de 116 especialistas alemães... caiu nas mãos dos norte-americanos".</t>
+          <t>Conforme o **segundo parágrafo da Página 3**, ele "queria o máximo de publicidade... cuidou para que o trecho de cada dia fosse percorrido nas horas mais frescas".</t>
         </is>
       </c>
       <c r="H338" t="inlineStr"/>
@@ -13636,27 +13636,27 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Expurgo de Cientistas Soviéticos</t>
+          <t>Limites da Resistência Passiva</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Antes da guerra, Stalin havia cancelado experimentos e enviado cientistas como Sergei Korolev para minas na Sibéria.</t>
+          <t>A resistência passiva de Gandhi dependia da tolerância do governo britânico; líderes como Stalin ou Hitler provavelmente o teriam executado.</t>
         </is>
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>O programa espacial soviético foi ininterrupto desde os anos 30, com Stalin protegendo seus cientistas de qualquer perseguição política.</t>
+          <t>A resistência passiva é uma tática infalível que teria funcionado com a mesma eficácia contra ditadores como Hitler e Stalin.</t>
         </is>
       </c>
       <c r="G339" t="inlineStr">
         <is>
-          <t>Segundo o **terceiro parágrafo da Página 3**, "o melhor projetista de foguetes da Rússia, Sergei P. Korolev, trabalhava nas minas de ouro... na Sibéria".</t>
+          <t>Segundo o **terceiro parágrafo da Página 3**, "Stalin e Hitler teriam ordenado sua prisão ou execução", pois a tática requer um governo com certa tolerância.</t>
         </is>
       </c>
       <c r="H339" t="inlineStr"/>
@@ -13675,27 +13675,27 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Retomada Soviética</t>
+          <t>Objetivo Político de Gandhi</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Após a guerra, os soviéticos aperfeiçoaram a engenharia sob coordenação de Korolev e testaram voos com cães e coelhos em 1949.</t>
+          <t>Ao contrário do Congresso Nacional Indiano, que buscava compromissos, Gandhi pedia aos britânicos que abandonassem a Índia de forma definitiva.</t>
         </is>
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>Os soviéticos desistiram de desenvolver foguetes próprios após a guerra, passando a comprar tecnologia diretamente dos Estados Unidos.</t>
+          <t>Gandhi defendia a permanência dos britânicos na Índia, contentando-se apenas com uma reforma no sistema de impostos.</t>
         </is>
       </c>
       <c r="G340" t="inlineStr">
         <is>
-          <t>De acordo com o **quarto parágrafo da Página 3**, "sob a coordenação de Korolev... em 1949, os russos realizavam testes de voo com uma tripulação de cães".</t>
+          <t>De acordo com o **primeiro parágrafo da Página 3**, "Gandhi procurou estimular a saída definitiva dos colonizadores... pediu aos britânicos que abandonassem a Índia".</t>
         </is>
       </c>
       <c r="H340" t="inlineStr"/>
@@ -13714,27 +13714,27 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>Lançamento do Sputnik I</t>
+          <t>O Ato do Governo da Índia de 1935</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>O Sputnik I, lançado em 4 de outubro de 1957, pesava como um homem adulto e completou a órbita da Terra em noventa e cinco minutos.</t>
+          <t>Em 1935, a Grã-Bretanha dividiu a Índia em províncias autônomas com parlamentos próprios, mas manteve o controle da política externa.</t>
         </is>
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>O Sputnik I foi uma enorme estação espacial tripulada lançada em 1960, que permaneceu em órbita por dez anos.</t>
+          <t>O ato de 1935 concedeu independência total e irrestrita à Índia, retirando imediatamente todas as autoridades britânicas do país.</t>
         </is>
       </c>
       <c r="G341" t="inlineStr">
         <is>
-          <t>Conforme o **primeiro parágrafo da Página 4**, "Em 4 de outubro de 1957... Sputnik I... pesando mais ou menos o mesmo que um homem adulto, completou a órbita".</t>
+          <t>Conforme o **primeiro parágrafo da Página 4**, houve divisão em províncias autônomas, mas "A política externa continuou em grande parte nas mãos dos britânicos".</t>
         </is>
       </c>
       <c r="H341" t="inlineStr"/>
@@ -13753,27 +13753,27 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Sputnik II e Laika</t>
+          <t>Posição dos Muçulmanos</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>O Sputnik II, lançado em novembro de 1957, carregava a cadela Laika, que não retornou à Terra.</t>
+          <t>A minoria muçulmana temia que seu futuro não estivesse em uma Índia unida (dominada por hindus), desejando a criação do Paquistão.</t>
         </is>
       </c>
       <c r="F342" t="inlineStr">
         <is>
-          <t>A cadela Laika foi enviada ao espaço e retornou viva e saudável, tornando-se um símbolo da segurança das viagens espaciais soviéticas.</t>
+          <t>Os muçulmanos eram os maiores defensores de uma Índia unificada, rejeitando qualquer proposta de divisão territorial baseada em religião.</t>
         </is>
       </c>
       <c r="G342" t="inlineStr">
         <is>
-          <t>Segundo o **segundo parágrafo da Página 4**, "Carregava Laika... Informações muito importantes foram obtidas... mas a passageira não voltou à Terra".</t>
+          <t>Segundo o **primeiro parágrafo da Página 4**, eles acreditavam que "seu futuro não estava em uma Índia unida, mas na nova nação do Paquistão".</t>
         </is>
       </c>
       <c r="H342" t="inlineStr"/>
@@ -13792,27 +13792,27 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>Reação dos Estados Unidos</t>
+          <t>Impacto da Entrada dos EUA na Guerra</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>O sucesso soviético foi uma humilhação para Washington, que só lançou o satélite Explorer I em 1958 com ajuda de Von Braun.</t>
+          <t>A entrada dos EUA na guerra aumentou a pressão pela independência da Índia, pois os americanos eram hostis ao conceito de colônias europeias.</t>
         </is>
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>Os Estados Unidos não se importaram com o Sputnik, pois já haviam lançado satélites secretos anos antes dos russos.</t>
+          <t>Os Estados Unidos entraram na guerra exigindo que a Grã-Bretanha mantivesse seu império intacto para garantir a segurança global.</t>
         </is>
       </c>
       <c r="G343" t="inlineStr">
         <is>
-          <t>De acordo com o **terceiro parágrafo da Página 4**, "Washington sofria uma humilhação... Em 1958... Von Braun ajudou a lançar o... Explorer I".</t>
+          <t>De acordo com o **segundo parágrafo da Página 4**, a hostilidade dos EUA em relação às colônias "aumentava a probabilidade de a Índia se tornar independente".</t>
         </is>
       </c>
       <c r="H343" t="inlineStr"/>
@@ -13831,27 +13831,27 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>Exploração Lunar Soviética</t>
+          <t>Violência na Partição</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Em 1959, a União Soviética conseguiu fazer o Luna II atingir a Lua e o Luna III fotografar o lado oculto do satélite.</t>
+          <t>A partição da Índia foi marcada por extrema violência, como em Calcutá, onde milhares morreram em conflitos entre hindus e muçulmanos.</t>
         </is>
       </c>
       <c r="F344" t="inlineStr">
         <is>
-          <t>Os Estados Unidos foram os primeiros a atingir a Lua com sondas não tripuladas em 1955, muito antes dos soviéticos.</t>
+          <t>A separação entre Índia e Paquistão foi um processo pacífico e burocrático, sem registros de violência civil ou mortes.</t>
         </is>
       </c>
       <c r="G344" t="inlineStr">
         <is>
-          <t>Conforme o **primeiro parágrafo da Página 5**, o Luna II "conseguiu atingir o satélite" e um terceiro "fotografou o lado que sempre estivera oculto".</t>
+          <t>Conforme o **primeiro parágrafo da Página 5**, em uma semana "cerca de 5 mil pessoas foram mortas... em lutas e tumultos envolvendo muçulmanos e hindus".</t>
         </is>
       </c>
       <c r="H344" t="inlineStr"/>
@@ -13870,27 +13870,27 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>Desafios da Alimentação Espacial</t>
+          <t>Geografia do Paquistão</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Devido à falta de peso, a comida espacial precisava ser preparada em pequenos cubos e coberta com gelatina para evitar migalhas flutuantes.</t>
+          <t>O novo Paquistão era uma nação dividida geograficamente em duas partes (Ocidental e Oriental), separadas pelo território indiano.</t>
         </is>
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>No espaço, os astronautas podiam comer refeições normais em pratos, pois a gravidade artificial das naves mantinha a comida no lugar.</t>
+          <t>O Paquistão foi criado como um território contínuo e unificado no centro do subcontinente indiano.</t>
         </is>
       </c>
       <c r="G345" t="inlineStr">
         <is>
-          <t>Segundo o **quarto parágrafo da Página 5 (continuação do texto)**, "preparar todos os alimentos em pequenos cubos e cobri-los com gelatina".</t>
+          <t>Segundo o **segundo parágrafo da Página 5**, "A nova república muçulmana do Paquistão foi dividida em dois lados - o Ocidental e o Oriental".</t>
         </is>
       </c>
       <c r="H345" t="inlineStr"/>
@@ -13909,27 +13909,27 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>Variação de Temperatura no Espaço</t>
+          <t>Impacto Geopolítico da Divisão</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>Uma nave espacial enfrenta temperaturas extremas, sendo aquecida pelo Sol até 120°C de um lado e resfriada muito abaixo de zero do outro.</t>
+          <t>A divisão da Índia reduziu drasticamente a potencial influência do subcontinente, que unido teria hoje uma população maior que a da China.</t>
         </is>
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>A temperatura no espaço é constante e agradável, não exigindo nenhum sistema de proteção térmica para a nave ou tripulação.</t>
+          <t>A divisão fortaleceu a influência global da região, pois criou duas potências militares aliadas que dominaram a política asiática.</t>
         </is>
       </c>
       <c r="G346" t="inlineStr">
         <is>
-          <t>De acordo com o **terceiro parágrafo da Página 5 (continuação do texto)**, "Um lado seria aquecido... até a temperatura de 120°C, enquanto o outro seria resfriado".</t>
+          <t>De acordo com o **segundo parágrafo da seção (Página 5)**, "A potencial influência da Índia... foi drasticamente reduzida pela divisão".</t>
         </is>
       </c>
       <c r="H346" t="inlineStr"/>
@@ -13948,27 +13948,27 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>Primeiro Homem no Espaço</t>
+          <t>Intenção Holandesa Pós-Guerra</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>Yury Gagarin, filho de um carpinteiro, orbitou a Terra a bordo da Vostok I em 12 de abril de 1961.</t>
+          <t>Terminada a guerra, o governo da Holanda pretendia resgatar as Índias Orientais (Indonésia), considerando-as vitais para sua economia.</t>
         </is>
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t>O primeiro homem no espaço foi um piloto norte-americano, que orbitou a Terra em segredo antes de 1960.</t>
+          <t>A Holanda decidiu conceder independência imediata à Indonésia após a guerra, reconhecendo que não precisava mais de seus recursos.</t>
         </is>
       </c>
       <c r="G347" t="inlineStr">
         <is>
-          <t>Conforme o **primeiro parágrafo da Página 6**, "Gagarin... Vostok I, foi lançado em 12 de abril de 1961".</t>
+          <t>Conforme o **primeiro parágrafo da Página 6**, "o governo da Holanda pretendia seriamente resgatar aquele território assim que os japoneses se retirassem".</t>
         </is>
       </c>
       <c r="H347" t="inlineStr"/>
@@ -13987,27 +13987,27 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>Promessa de Kennedy</t>
+          <t>Sukarno e a Ocupação Japonesa</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>Um mês após o voo de Gagarin, os EUA anunciaram a meta de enviar um homem à Lua e trazê-lo de volta até o fim da década.</t>
+          <t>Durante a ocupação japonesa, Sukarno atuou como braço direito dos invasores, mas usou essa posição para preparar a independência, declarada em 1945.</t>
         </is>
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>Após o voo de Gagarin, os EUA desistiram da corrida espacial, focando seus recursos exclusivamente em armas nucleares.</t>
+          <t>Sukarno liderou uma resistência armada constante contra os japoneses, recusando-se a ter qualquer contato com os ocupantes durante a guerra.</t>
         </is>
       </c>
       <c r="G348" t="inlineStr">
         <is>
-          <t>Segundo o **segundo parágrafo da Página 6**, "Um mês após... os Estados Unidos anunciaram que, até o fim da década, enviariam um homem à Lua".</t>
+          <t>Segundo o **segundo parágrafo da Página 6**, ele "se tornou o braço direito dos invasores, mas não um servo obediente" e declarou o surgimento da nação em 1945.</t>
         </is>
       </c>
       <c r="H348" t="inlineStr"/>
@@ -14026,27 +14026,27 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>Alcance dos Mísseis Soviéticos em 1960</t>
+          <t>Estilo de Liderança de Sukarno</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>Em 1960, a URSS ainda não podia lançar mísseis que chegassem aos EUA, tendo como alvos cidades europeias como Paris e Londres.</t>
+          <t>Sukarno era visto como um "mágico" e mestre das palavras, capaz de unir, inicialmente, um país formado por diversos grupos étnicos.</t>
         </is>
       </c>
       <c r="F349" t="inlineStr">
         <is>
-          <t>Em 1960, a União Soviética já possuía mísseis capazes de atingir qualquer cidade no interior dos Estados Unidos a partir de Moscou.</t>
+          <t>Sukarno era um líder burocrático e sem carisma, que governava exclusivamente através da força militar, sem apoio popular.</t>
         </is>
       </c>
       <c r="G349" t="inlineStr">
         <is>
-          <t>De acordo com o **terceiro parágrafo da Página 6**, "A União Soviética ainda não podia lançar um míssil que chegasse ao distante país norte-americano".</t>
+          <t>De acordo com o **segundo parágrafo da Página 6**, "parecia um mágico... um mestre no uso das palavras... um discreto sentimento de patriotismo começou a unir o país".</t>
         </is>
       </c>
       <c r="H349" t="inlineStr"/>
@@ -14065,27 +14065,27 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>Perfil de Nikita Khrushchov</t>
+          <t>Política Econômica de Sukarno</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>Khrushchov denunciava os expurgos de Stalin em público, apesar de ter participado deles, e mostrava uma cordialidade pessoal inédita.</t>
+          <t>Sukarno resolveu problemas financeiros imprimindo dinheiro, o que resultou em hiperinflação e aumento drástico dos preços.</t>
         </is>
       </c>
       <c r="F350" t="inlineStr">
         <is>
-          <t>Khrushchov era um líder recluso e silencioso que manteve intacta a política de culto à personalidade de Stalin e recusava contato com o público.</t>
+          <t>Sukarno implementou uma política fiscal rigorosa e austera, controlando a inflação e fortalecendo a moeda indonésia.</t>
         </is>
       </c>
       <c r="G350" t="inlineStr">
         <is>
-          <t>Conforme o **primeiro parágrafo da Página 7**, ele podia "denunciar em público os terríveis expurgos... O fato de que o próprio Khrushchov havia tomado parte... não era de conhecimento".</t>
+          <t>Conforme o **primeiro parágrafo da Página 7**, ele "mandava imprimir mais [dinheiro]... os preços aumentavam semana após semana".</t>
         </is>
       </c>
       <c r="H350" t="inlineStr"/>
@@ -14104,27 +14104,27 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>Espionagem e Diplomacia</t>
+          <t>Fim da Democracia na Indonésia</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>O primeiro-ministro britânico Harold Macmillan, ao visitar Moscou, precisou conversar em uma tenda dentro da embaixada para evitar escutas.</t>
+          <t>Sukarno dispensou a democracia após as eleições de 1955, percebendo que o resultado não favorecia o domínio de seu partido.</t>
         </is>
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>Os líderes ocidentais confiavam plenamente na segurança diplomática em Moscou, discutindo segredos de estado abertamente em seus hotéis.</t>
+          <t>Sukarno fortaleceu as instituições democráticas após 1955, garantindo a alternância de poder e a liberdade dos partidos de oposição.</t>
         </is>
       </c>
       <c r="G351" t="inlineStr">
         <is>
-          <t>Segundo o **segundo parágrafo da Página 7**, "Uma tenda de proteção foi erguida... na esperança de que pelo menos os microfones russos... fossem despistados".</t>
+          <t>Segundo o **primeiro parágrafo da Página 7**, ele percebeu que a democracia não daria o resultado necessário, "Então, dispensou-a".</t>
         </is>
       </c>
       <c r="H351" t="inlineStr"/>
@@ -14143,27 +14143,27 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>O Caso Gary Powers</t>
+          <t>Foco dos Líderes Africanos</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>O piloto da CIA Gary Powers foi abatido sobre os Urais em 1º de maio de 1960 e capturado vivo, desmentindo a versão de Washington.</t>
+          <t>Muitos líderes africanos da independência estavam tão obcecados pela libertação que pouco planejaram sobre como governar após conquistá-la.</t>
         </is>
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>Gary Powers conseguiu escapar da União Soviética com seu avião intacto, entregando fotos valiosas das bases soviéticas sem ser detectado.</t>
+          <t>Os líderes africanos tinham planos de governo detalhados e priorizavam a gestão administrativa sobre a retórica da independência.</t>
         </is>
       </c>
       <c r="G352" t="inlineStr">
         <is>
-          <t>De acordo com o **terceiro parágrafo da Página 7**, "Seu jato sobrevoava os Urais... quando foi detectado... e abatido. Ele saltou... e, ao ser capturado...".</t>
+          <t>De acordo com o **terceiro parágrafo da Página 7**, "Muitos estavam de tal maneira obcecados pela conquista da independência... pouco pensavam no que fariam caso essa independência chegasse".</t>
         </is>
       </c>
       <c r="H352" t="inlineStr"/>
@@ -14182,27 +14182,27 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>Ameaça Nuclear de Khrushchov</t>
+          <t>Composição Demográfica da África do Sul</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>Khrushchov ameaçou o embaixador britânico dizendo que seis bombas de hidrogênio destruiriam a Grã-Bretanha e nove a França.</t>
+          <t>A África do Sul recebeu mais imigrantes europeus do que qualquer outro país africano, mas a minoria branca compunha apenas um quinto da população.</t>
         </is>
       </c>
       <c r="F353" t="inlineStr">
         <is>
-          <t>Khrushchov garantiu aos embaixadores europeus que a União Soviética jamais usaria armas nucleares contra a Europa Ocidental.</t>
+          <t>A África do Sul era o único país africano onde a população branca superava numericamente a população negra nativa.</t>
         </is>
       </c>
       <c r="G353" t="inlineStr">
         <is>
-          <t>Conforme o **segundo parágrafo da Página 8**, ele "Especificou que seis bombas de hidrogênio soviéticas destruiriam a Grã-Bretanha e nove fariam o mesmo com a França".</t>
+          <t>Conforme o **segundo e terceiro parágrafos da Página 8**, nenhum país "recebeu mais imigrantes europeus" e a minoria branca compunha "um quinto da população".</t>
         </is>
       </c>
       <c r="H353" t="inlineStr"/>
@@ -14221,27 +14221,27 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>Fuga de Alemães Orientais</t>
+          <t>Leis do Apartheid</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>Antes do muro, cerca de 10 mil alemães orientais fugiam por mês para Berlim Ocidental em busca de liberdade e melhores condições.</t>
+          <t>Após 1948, novas leis restringiram direitos dos não brancos, proibindo casamentos mistos e segregando áreas residenciais e universidades.</t>
         </is>
       </c>
       <c r="F354" t="inlineStr">
         <is>
-          <t>A população da Alemanha Oriental estava satisfeita e não havia registro de fugas para o lado ocidental antes da construção do muro.</t>
+          <t>Após 1948, o governo sul-africano aboliu todas as leis raciais, promovendo a integração total nas escolas e bairros residenciais.</t>
         </is>
       </c>
       <c r="G354" t="inlineStr">
         <is>
-          <t>Segundo o **terceiro parágrafo da Página 8**, "O número de fugitivos chegava a 10 mil por mês".</t>
+          <t>Segundo o **segundo parágrafo da seção (Página 8)**, sob as novas leis, "brancos só podiam casar-se com outros brancos... residir em determinados bairros".</t>
         </is>
       </c>
       <c r="H354" t="inlineStr"/>
@@ -14260,27 +14260,27 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>Construção do Muro de Berlim</t>
+          <t>Mudança na Tática de Mandela</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>Na madrugada de 13 de agosto de 1961, os comunistas começaram a construir uma barreira de arame farpado, posteriormente substituída por concreto.</t>
+          <t>Após o governo abolir o Congresso Nacional Africano, Nelson Mandela passou a responder por tentativa de sabotagem e ataque armado.</t>
         </is>
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t>O Muro de Berlim foi construído pelos Estados Unidos para impedir a entrada de espiões comunistas em Berlim Ocidental.</t>
+          <t>Nelson Mandela manteve-se estritamente fiel à resistência passiva e não violenta durante toda a sua luta contra o apartheid.</t>
         </is>
       </c>
       <c r="G355" t="inlineStr">
         <is>
-          <t>De acordo com o **terceiro parágrafo da Página 8**, "Na madrugada do dia 13 de agosto de 1961... começaram a construir uma larga proteção de arame farpado".</t>
+          <t>De acordo com o **terceiro parágrafo da seção (Página 8)**, Mandela "respondeu por tentativa de sabotagem e ataque armado... o braço militar... adquiria mais armamentos".</t>
         </is>
       </c>
       <c r="H355" t="inlineStr"/>
@@ -14294,32 +14294,32 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Pág. 1</t>
+          <t>Pág 9</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>Segurança Geopolítica dos EUA</t>
+          <t>Motivação Francesa nas Colônias</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>Nenhuma outra grande nação era tão segura quanto os Estados Unidos, protegidos por dois oceanos e vizinhos de pouco peso militar ou econômico.</t>
+          <t>O governo francês pós-guerra ansiava por manter as colônias para recuperar o prestígio nacional abalado pela derrota na Segunda Guerra.</t>
         </is>
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>Os Estados Unidos enfrentavam graves ameaças territoriais de seus vizinhos Canadá e México, que possuíam poderio militar comparável.</t>
+          <t>A França considerava suas colônias um fardo inútil e iniciou um processo voluntário de descolonização imediata em 1945.</t>
         </is>
       </c>
       <c r="G356" t="inlineStr">
         <is>
-          <t>Conforme o **primeiro parágrafo da Página 1**, o país desfrutava da proteção dos oceanos e "tinha somente três vizinhos... que perdiam em qualquer comparação".</t>
+          <t>Conforme o **segundo parágrafo da Página 9**, o governo "estava ansioso por manter as colônias. Elas traziam prestígio, algo urgentemente necessário".</t>
         </is>
       </c>
       <c r="H356" t="inlineStr"/>
@@ -14333,32 +14333,32 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Pág. 1</t>
+          <t>Pág 9</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>Trajetória de Fulgêncio Batista</t>
+          <t>Guerra da Indochina</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>Fulgêncio Batista, que começou como taquígrafo no exército, tornou-se ditador em 1952 e utilizou o poder para enriquecimento pessoal.</t>
+          <t>A determinação da França em manter a Indochina resultou em uma guerra custosa onde morriam anualmente mais oficiais do que as academias formavam.</t>
         </is>
       </c>
       <c r="F357" t="inlineStr">
         <is>
-          <t>Fulgêncio Batista foi um líder que governou sempre de forma democrática e morreu pobre, recusando-se a enriquecer no cargo.</t>
+          <t>A França retirou-se pacificamente da Indochina em 1946, transferindo o poder para os líderes locais sem conflitos armados.</t>
         </is>
       </c>
       <c r="G357" t="inlineStr">
         <is>
-          <t>Segundo o **segundo parágrafo da Página 1**, Batista "ficou rico o bastante" e, ao retornar em 1952, tornou-se ditador "aumentando o próprio saldo bancário".</t>
+          <t>Segundo o **terceiro parágrafo da Página 9**, o país abandonou a Indochina "após uma guerra em que morriam mais oficiais... do que o número de formados".</t>
         </is>
       </c>
       <c r="H357" t="inlineStr"/>
@@ -14372,32 +14372,32 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Pág. 1</t>
+          <t>Pág 9</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>Ascensão de Fidel Castro</t>
+          <t>Valor das Colônias Africanas</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>Fidel Castro, filho ilegítimo de um imigrante espanhol, refugiou-se no México antes de retornar a Cuba e derrubar Batista em 1959.</t>
+          <t>As colônias africanas eram valorizadas pela França também como locais para testes nucleares, como o realizado no deserto em 1960.</t>
         </is>
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>Fidel Castro era um general de carreira do exército cubano que assumiu o poder através de eleições democráticas pacíficas em 1959.</t>
+          <t>A França proibiu estritamente o uso de suas colônias africanas para fins militares ou testes de armas, preservando o meio ambiente local.</t>
         </is>
       </c>
       <c r="G358" t="inlineStr">
         <is>
-          <t>De acordo com o **terceiro parágrafo da Página 1**, Fidel "refugiou-se no México. Chegando a Cuba... conseguiu derrubá-lo [Batista]" em 1º de janeiro de 1959.</t>
+          <t>De acordo com o **quarto parágrafo da Página 9**, "os franceses viriam a testar sua primeira bomba nuclear no deserto [africano], em 1960".</t>
         </is>
       </c>
       <c r="H358" t="inlineStr"/>
@@ -14411,32 +14411,32 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Pág. 2</t>
+          <t>Pág 10</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>Reformas e Nacionalização</t>
+          <t>Status da Argélia</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>Fidel Castro nacionalizou grandes engenhos de açúcar, bancos e propriedades norte-americanas, além de desbaratar a máfia.</t>
+          <t>A Argélia era tratada como uma colônia especial, com parte dela sendo considerada por muitos políticos como uma extensão permanente da França.</t>
         </is>
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t>Fidel Castro manteve intactas as propriedades norte-americanas e os grandes engenhos, focando apenas em reformas culturais.</t>
+          <t>A Argélia era tratada como uma colônia penal distante, sem presença significativa de cidadãos franceses ou infraestrutura europeia.</t>
         </is>
       </c>
       <c r="G359" t="inlineStr">
         <is>
-          <t>Conforme o **primeiro parágrafo da Página 2**, Castro "nacionalizou os grandes engenhos de açúcar... e muitas propriedades de norte-americanos".</t>
+          <t>Conforme o **primeiro parágrafo da Página 10**, "A Argélia era tratada como uma colônia especial... que se tornasse parte permanente do país".</t>
         </is>
       </c>
       <c r="H359" t="inlineStr"/>
@@ -14450,32 +14450,32 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Pág. 2</t>
+          <t>Pág 10</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>Reação Econômica dos EUA</t>
+          <t>Declínio Britânico</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>A reação dos EUA às nacionalizações foi cancelar a preferência de compra do açúcar cubano, jogando Cuba nos braços da União Soviética.</t>
+          <t>A perda do Canal de Suez em 1956 e a retirada naval de Cingapura em 1971 foram marcos devastadores no declínio do Império Britânico.</t>
         </is>
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>Os Estados Unidos reagiram às reformas de Castro aumentando a cota de compra de açúcar para tentar manter a influência sobre a ilha.</t>
+          <t>O Império Britânico manteve sua hegemonia naval intacta até o final do século XX, controlando Suez e Cingapura sem desafios.</t>
         </is>
       </c>
       <c r="G360" t="inlineStr">
         <is>
-          <t>Segundo o **primeiro parágrafo da Página 2**, os EUA cancelaram a preferência do açúcar e "Economicamente, essa decisão jogou Cuba nos braços da União Soviética".</t>
+          <t>Segundo o **terceiro parágrafo da Página 10**, "A perda do Canal de Suez... foi devastadora. A decisão... de retirar as forças navais de Cingapura foi muito mais importante".</t>
         </is>
       </c>
       <c r="H360" t="inlineStr"/>
@@ -14489,32 +14489,32 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Pág. 2</t>
+          <t>Pág 10</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>Propaganda e Controle</t>
+          <t>Independência da Argélia</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>Fidel Castro, um orador hipnotizante, utilizou o rádio e a TV para assegurar seu controle, aproveitando a alta densidade desses aparelhos em Cuba.</t>
+          <t>A independência da Argélia foi decidida por um referendo em 1962, após uma luta que dividiu a nação francesa e trouxe De Gaulle de volta ao poder.</t>
         </is>
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t>Fidel Castro proibiu o uso de rádio e televisão em Cuba para evitar que a população fosse influenciada por ideias estrangeiras.</t>
+          <t>A Argélia conquistou sua independência através de um acordo diplomático rápido e sem derramamento de sangue ou crises políticas na França.</t>
         </is>
       </c>
       <c r="G361" t="inlineStr">
         <is>
-          <t>De acordo com o **segundo parágrafo da Página 2**, Fidel "usou a palavra... para assegurar o controle" e sua propaganda tinha grande audiência pois havia "mais aparelhos de rádio e TV do que na maioria dos países europeus".</t>
+          <t>De acordo com o **segundo parágrafo da Página 10**, "A disputa dividiu a nação francesa... Em 1962, a questão... foi resolvida por um referendo".</t>
         </is>
       </c>
       <c r="H361" t="inlineStr"/>
@@ -14528,32 +14528,32 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Pág. 3</t>
+          <t>Pág 11</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>Importância dos Estreitos</t>
+          <t>Descolonização Portuguesa</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>Apesar do advento do poder aéreo, a posição de Cuba e o controle de estreitos marítimos continuaram tendo importância decisiva.</t>
+          <t>Portugal manteve seus domínios africanos por muito mais tempo que outras potências, perdendo o império apenas após uma revolução democrática nos anos 70.</t>
         </is>
       </c>
       <c r="F362" t="inlineStr">
         <is>
-          <t>Com o surgimento da aviação militar, o controle de estreitos marítimos e a posição geográfica de ilhas como Cuba tornaram-se irrelevantes.</t>
+          <t>Portugal foi a primeira nação europeia a libertar todas as suas colônias africanas, logo após o fim da Segunda Guerra Mundial.</t>
         </is>
       </c>
       <c r="G362" t="inlineStr">
         <is>
-          <t>Conforme o **primeiro parágrafo da Página 3 (seção Os Apertados Mares...)**, muitos argumentavam que perderiam relevância, "mas a posição de Cuba... continuou tendo importância decisiva".</t>
+          <t>Conforme o **primeiro parágrafo da Página 11**, "Portugal... mantinha praticamente todos os domínios... experimentou uma revolução... perdeu seu império".</t>
         </is>
       </c>
       <c r="H362" t="inlineStr"/>
@@ -14567,32 +14567,32 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Pág. 3</t>
+          <t>Pág 11</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>Invasão da Baía dos Porcos</t>
+          <t>Desilusão Pós-Independência</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>A CIA treinou exilados cubanos para invadir a ilha na Baía dos Porcos, mas a operação fracassou e os invasores foram capturados.</t>
+          <t>Em muitos casos, a alegria da independência durou pouco, e analistas concluíram que alguns povos foram mais maltratados pelos novos líderes do que pelos antigos.</t>
         </is>
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>A invasão da Baía dos Porcos foi realizada diretamente pelo exército regular dos EUA e resultou na derrubada imediata de Fidel Castro.</t>
+          <t>A independência trouxe prosperidade imediata e democracia estável para todas as ex-colônias asiáticas e africanas, superando as expectativas.</t>
         </is>
       </c>
       <c r="G363" t="inlineStr">
         <is>
-          <t>Segundo o **segundo parágrafo da Página 3**, a CIA deu treinamento a exilados, mas "Em dois dias, a maioria dos invasores havia sido capturada".</t>
+          <t>Segundo o **segundo parágrafo da Página 11**, "tal alegria durou pouco... muitos povos africanos... eram mais maltratados por seus novos líderes".</t>
         </is>
       </c>
       <c r="H363" t="inlineStr"/>
@@ -14606,32 +14606,32 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Pág. 3</t>
+          <t>Pág 11</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>Motivação dos Mísseis Soviéticos</t>
+          <t>Macau e Timor</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>Khrushchov decidiu instalar mísseis em Cuba em parte como resposta aos mísseis Júpiter que os EUA haviam instalado na Turquia.</t>
+          <t>Portugal mantinha o controle de Macau, no sul da China, e de metade do Timor, próximo à Austrália, até meados da década de 1970.</t>
         </is>
       </c>
       <c r="F364" t="inlineStr">
         <is>
-          <t>A instalação de mísseis em Cuba foi um ato isolado de agressão soviética, sem qualquer relação com bases de mísseis norte-americanas na Europa.</t>
+          <t>Macau e Timor eram colônias britânicas que foram devolvidas à China e à Indonésia, respectivamente, em 1947.</t>
         </is>
       </c>
       <c r="G364" t="inlineStr">
         <is>
-          <t>De acordo com o **segundo parágrafo da Página 3**, Washington o havia provocado "ao instalar mísseis Júpiter na Turquia... Tinha chegado a vez de Khrushchov responder".</t>
+          <t>De acordo com o **primeiro parágrafo da Página 11**, Portugal "Tinha Macau... continuava a dominar metade do Timor".</t>
         </is>
       </c>
       <c r="H364" t="inlineStr"/>
@@ -14645,32 +14645,32 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Pág. 4</t>
+          <t>Pág 1</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>Descoberta dos Mísseis</t>
+          <t>Pioneirismo Russo em Foguetes</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>Em outubro de 1962, um avião de espionagem detectou mísseis soviéticos em Cuba capazes de atingir Washington.</t>
+          <t>Em 1903, Konstantin Tsiolkovsky escreveu um livro calculando que um foguete de combustível líquido poderia entrar em órbita.</t>
         </is>
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t>Os mísseis em Cuba foram descobertos por turistas americanos que visitavam a ilha e tiraram fotos das bases.</t>
+          <t>Konstantin Tsiolkovsky provou matematicamente em 1903 que seria impossível para qualquer objeto sair da órbita da Terra.</t>
         </is>
       </c>
       <c r="G365" t="inlineStr">
         <is>
-          <t>Conforme o **segundo parágrafo da Página 4**, "Um avião de espionagem norte-americano detectou atividade... Kennedy soube que dez mísseis soviéticos... tinham sido instalados".</t>
+          <t>Conforme o **primeiro parágrafo da Página 1**, Tsiolkovsky escreveu "A Exploração do Espaço Cósmico" e calculou que "um foguete que usasse combustível líquido poderia subir alto o bastante".</t>
         </is>
       </c>
       <c r="H365" t="inlineStr"/>
@@ -14684,32 +14684,32 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Pág. 4</t>
+          <t>Pág 1</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>Bloqueio Naval (Quarentena)</t>
+          <t>Testes Alemães em Peenemünde</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>Kennedy decidiu cercar Cuba com uma força naval para deter e inspecionar carregamentos bélicos soviéticos.</t>
+          <t>Sob o comando de Walter R. Dornberger, a Alemanha testava foguetes na aldeia costeira de Peenemünde, incentivada por Hitler.</t>
         </is>
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t>Kennedy ordenou um ataque aéreo imediato e nuclear contra Moscou assim que soube da existência dos mísseis em Cuba.</t>
+          <t>Hitler proibiu terminantemente o desenvolvimento de foguetes em Peenemünde, preferindo investir apenas em tanques convencionais.</t>
         </is>
       </c>
       <c r="G366" t="inlineStr">
         <is>
-          <t>Segundo o **segundo parágrafo da Página 4**, o líder decidiu "cercar Cuba com uma grande força naval capaz de deter e inspecionar a chegada de carregamentos".</t>
+          <t>Segundo o **segundo parágrafo da Página 1**, "Hitler incentivava esse tipo de teste, sob o comando de Walter R. Dornberger, em Peenemünde".</t>
         </is>
       </c>
       <c r="H366" t="inlineStr"/>
@@ -14723,32 +14723,32 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Pág. 4</t>
+          <t>Pág 1</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>Risco de Guerra Nuclear</t>
+          <t>Velocidade dos Foguetes em 1942</t>
         </is>
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>Kennedy temia que forçar um submarino soviético a emergir pudesse desencadear uma guerra, ou levar a um ataque soviético contra Berlim Ocidental.</t>
+          <t>Por volta de 1942, os veículos espaciais alemães já atingiam velocidades supersônicas de mais de 5 mil quilômetros por hora.</t>
         </is>
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>Kennedy estava confiante de que os soviéticos jamais reagiriam militarmente, considerando o bloqueio uma manobra diplomática segura.</t>
+          <t>Em 1942, os foguetes alemães ainda eram muito lentos, não ultrapassando a velocidade dos aviões convencionais da época.</t>
         </is>
       </c>
       <c r="G367" t="inlineStr">
         <is>
-          <t>De acordo com o **terceiro parágrafo da Página 4**, Kennedy previa terríveis implicações e imaginava que a URSS "atacaria ou bloquearia Berlim Ocidental".</t>
+          <t>De acordo com o **segundo parágrafo da Página 1**, "os veículos espaciais mais avançados viajavam a mais de 5 mil quilômetros por hora, uma velocidade supersônica".</t>
         </is>
       </c>
       <c r="H367" t="inlineStr"/>
@@ -14762,32 +14762,32 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Pág. 5</t>
+          <t>Pág 2</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>Resolução da Crise</t>
+          <t>Mudança para Fábricas Subterrâneas</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>A crise foi resolvida com a promessa de retirada dos mísseis soviéticos em troca da garantia dos EUA de não invadir Cuba.</t>
+          <t>Após o bombardeio de Peenemünde em 1943, a produção de foguetes foi transferida para o subsolo das montanhas Hartz, usando trabalho escravo.</t>
         </is>
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>A crise terminou com a rendição incondicional de Cuba e a ocupação da ilha por tropas das Nações Unidas.</t>
+          <t>Após o bombardeio aliado, a Alemanha desistiu da produção de foguetes e transferiu os recursos para a marinha.</t>
         </is>
       </c>
       <c r="G368" t="inlineStr">
         <is>
-          <t>Conforme o **primeiro parágrafo da Página 5**, Kennedy propôs "dar garantias de não invadi-la, desde que todos os mísseis fossem retirados... Khrushchov prometeu fazer isso".</t>
+          <t>Conforme o **segundo parágrafo da Página 2**, "uma fábrica mais segura foi construída no subsolo... empregados... submetidos a trabalho escravo".</t>
         </is>
       </c>
       <c r="H368" t="inlineStr"/>
@@ -14801,32 +14801,32 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Pág. 5</t>
+          <t>Pág 2</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>Reflexão de Toynbee</t>
+          <t>Diferença entre V-1 e V-2</t>
         </is>
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>O historiador Arnold Toynbee afirmou que a sobrevivência humana era mais provável quando estávamos indefesos contra tigres do que indefesos contra nós mesmos.</t>
+          <t>O V-1 era impelido por um mecanismo de pistão simples, enquanto o revolucionário V-2 levava uma ogiva de uma tonelada.</t>
         </is>
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>Arnold Toynbee argumentou que a invenção da bomba atômica tornou a humanidade mais segura, eliminando a possibilidade de guerras.</t>
+          <t>O V-1 era o foguete mais avançado e complexo, enquanto o V-2 era um planador simples feito de madeira.</t>
         </is>
       </c>
       <c r="G369" t="inlineStr">
         <is>
-          <t>Segundo o **segundo parágrafo da Página 5**, Toynbee disse: "As perspectivas de sobrevivência... eram consideravelmente maiores quando estávamos indefesos contra tigres".</t>
+          <t>Segundo o **terceiro parágrafo da Página 2**, os V-1 eram "impelidos por um mecanismo de pistão" e os revolucionários V-2 levavam "uma ogiva que pesava aproximadamente uma tonelada".</t>
         </is>
       </c>
       <c r="H369" t="inlineStr"/>
@@ -14840,32 +14840,32 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Pág. 5</t>
+          <t>Pág 2</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>Proliferação Nuclear</t>
+          <t>Visibilidade dos Ataques</t>
         </is>
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>Após a crise cubana, a China desenvolveu sua bomba atômica em 1964, o que incentivou a Índia e posteriormente o Paquistão a fazerem o mesmo.</t>
+          <t>Os foguetes V-1 eram barulhentos e visíveis do solo à noite, descritos por testemunhas como luminosos como barcos em uma regata.</t>
         </is>
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>O medo gerado pela crise cubana fez com que todas as nações, exceto EUA e URSS, abandonassem permanentemente seus programas nucleares.</t>
+          <t>Os foguetes alemães eram totalmente silenciosos e invisíveis, impossíveis de serem detectados a olho nu antes do impacto.</t>
         </is>
       </c>
       <c r="G370" t="inlineStr">
         <is>
-          <t>De acordo com o **terceiro parágrafo da Página 5**, "A China desenvolveu sua primeira bomba... em 1964... aumentou as chances de a Índia fazer o mesmo... aumentando o risco de o Paquistão precisar".</t>
+          <t>De acordo com o **terceiro parágrafo da Página 2**, um espectador escreveu: "são luminosos como pequenos barcos em uma regata".</t>
         </is>
       </c>
       <c r="H370" t="inlineStr"/>
@@ -14879,32 +14879,32 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Pág. 6</t>
+          <t>Pág 3</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>Nasser e o Radicalismo</t>
+          <t>Captura de Especialistas</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>Em 1958, os discursos de Nasser tinham caráter mais secular do que religioso, diferindo do radicalismo islâmico de gerações futuras.</t>
+          <t>Os norte-americanos capturaram Von Braun e sua equipe de 116 especialistas, considerados um dos principais troféus da vitória.</t>
         </is>
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>Nasser sempre foi um líder fundamentalista islâmico, baseando todas as suas políticas na lei religiosa estrita desde a década de 1950.</t>
+          <t>Os soviéticos capturaram a equipe principal de Von Braun, deixando para os americanos apenas as instalações vazias e equipamentos quebrados.</t>
         </is>
       </c>
       <c r="G371" t="inlineStr">
         <is>
-          <t>Conforme o **segundo parágrafo da Página 6**, ele "não apresentou nenhum sinal do radicalismo islâmico... discursos de 1958 possuíam um caráter mais secular".</t>
+          <t>Conforme o **segundo parágrafo da Página 3**, "uma equipe de 116 especialistas alemães... caiu nas mãos dos norte-americanos".</t>
         </is>
       </c>
       <c r="H371" t="inlineStr"/>
@@ -14918,32 +14918,32 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Pág. 6</t>
+          <t>Pág 3</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>Retirada da ONU</t>
+          <t>Expurgo de Cientistas Soviéticos</t>
         </is>
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>Em maio de 1967, Nasser mandou embora os soldados das Nações Unidas que tentavam manter a paz na Faixa de Gaza.</t>
+          <t>Antes da guerra, Stalin havia cancelado experimentos e enviado cientistas como Sergei Korolev para minas na Sibéria.</t>
         </is>
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t>As Nações Unidas recusaram o pedido de Nasser e mantiveram suas tropas na Faixa de Gaza, impedindo o início da guerra em 1967.</t>
+          <t>O programa espacial soviético foi ininterrupto desde os anos 30, com Stalin protegendo seus cientistas de qualquer perseguição política.</t>
         </is>
       </c>
       <c r="G372" t="inlineStr">
         <is>
-          <t>Segundo o **terceiro parágrafo da Página 6**, soldados tentaram manter a paz "até maio de 1967, quando Nasser mandou-os embora".</t>
+          <t>Segundo o **terceiro parágrafo da Página 3**, "o melhor projetista de foguetes da Rússia, Sergei P. Korolev, trabalhava nas minas de ouro... na Sibéria".</t>
         </is>
       </c>
       <c r="H372" t="inlineStr"/>
@@ -14957,32 +14957,32 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Pág. 6</t>
+          <t>Pág 3</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>Bloqueio de Eilat</t>
+          <t>Retomada Soviética</t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>Nasser impediu cargueiros israelenses de usar o porto de Eilat, o único de Israel no Mar Vermelho, declarando que o objetivo era destruir Israel.</t>
+          <t>Após a guerra, os soviéticos aperfeiçoaram a engenharia sob coordenação de Korolev e testaram voos com cães e coelhos em 1949.</t>
         </is>
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>Nasser garantiu a livre navegação de navios israelenses no Mar Vermelho como um gesto de boa vontade para evitar a guerra.</t>
+          <t>Os soviéticos desistiram de desenvolver foguetes próprios após a guerra, passando a comprar tecnologia diretamente dos Estados Unidos.</t>
         </is>
       </c>
       <c r="G373" t="inlineStr">
         <is>
-          <t>De acordo com o **terceiro parágrafo da Página 6**, ele "impediu os cargueiros israelenses de entrar no porto de Eilat... o único porto de Israel no Mar Vermelho".</t>
+          <t>De acordo com o **quarto parágrafo da Página 3**, "sob a coordenação de Korolev... em 1949, os russos realizavam testes de voo com uma tripulação de cães".</t>
         </is>
       </c>
       <c r="H373" t="inlineStr"/>
@@ -14996,32 +14996,32 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Pág. 7</t>
+          <t>Pág 4</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>Guerra dos Seis Dias</t>
+          <t>Lançamento do Sputnik I</t>
         </is>
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>Em 5 de junho de 1967, Israel lançou um ataque aéreo preventivo devastador, destruindo boa parte da força aérea egípcia e vencendo em seis dias.</t>
+          <t>O Sputnik I, lançado em 4 de outubro de 1957, pesava como um homem adulto e completou a órbita da Terra em noventa e cinco minutos.</t>
         </is>
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t>O Egito atacou Israel de surpresa em 1967, destruindo a força aérea israelense no solo e ocupando Tel Aviv em seis dias.</t>
+          <t>O Sputnik I foi uma enorme estação espacial tripulada lançada em 1960, que permaneceu em órbita por dez anos.</t>
         </is>
       </c>
       <c r="G374" t="inlineStr">
         <is>
-          <t>Conforme o **primeiro parágrafo da Página 7**, a força aérea de Israel "se precipitou sobre numerosos campos... egípcios... esse ataque israelense durou somente seis dias".</t>
+          <t>Conforme o **primeiro parágrafo da Página 4**, "Em 4 de outubro de 1957... Sputnik I... pesando mais ou menos o mesmo que um homem adulto, completou a órbita".</t>
         </is>
       </c>
       <c r="H374" t="inlineStr"/>
@@ -15035,32 +15035,32 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Pág. 7</t>
+          <t>Pág 4</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>Linha Direta (Hotline)</t>
+          <t>Sputnik II e Laika</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>Durante a guerra de 1967, líderes dos EUA e da URSS usaram uma linha telefônica secreta para decidir não intervir no conflito.</t>
+          <t>O Sputnik II, lançado em novembro de 1957, carregava a cadela Laika, que não retornou à Terra.</t>
         </is>
       </c>
       <c r="F375" t="inlineStr">
         <is>
-          <t>Durante a guerra de 1967, EUA e URSS entraram em combate direto no Mediterrâneo, ignorando os canais diplomáticos.</t>
+          <t>A cadela Laika foi enviada ao espaço e retornou viva e saudável, tornando-se um símbolo da segurança das viagens espaciais soviéticas.</t>
         </is>
       </c>
       <c r="G375" t="inlineStr">
         <is>
-          <t>Segundo o **segundo parágrafo da Página 7**, os líderes "haviam conversado por meio de uma linha telefônica secreta... e decidido não intervir".</t>
+          <t>Segundo o **segundo parágrafo da Página 4**, "Carregava Laika... Informações muito importantes foram obtidas... mas a passageira não voltou à Terra".</t>
         </is>
       </c>
       <c r="H375" t="inlineStr"/>
@@ -15074,32 +15074,32 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Pág. 7</t>
+          <t>Pág 4</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>Fechamento do Canal de Suez</t>
+          <t>Reação dos Estados Unidos</t>
         </is>
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>O fechamento do Canal de Suez forçou a rota pelo Cabo da Boa Esperança, estimulando a construção de navios grandes demais para o canal original.</t>
+          <t>O sucesso soviético foi uma humilhação para Washington, que só lançou o satélite Explorer I em 1958 com ajuda de Von Braun.</t>
         </is>
       </c>
       <c r="F376" t="inlineStr">
         <is>
-          <t>O fechamento do Canal de Suez teve pouco impacto econômico, pois a maioria dos navios já utilizava a rota pelo Ártico.</t>
+          <t>Os Estados Unidos não se importaram com o Sputnik, pois já haviam lançado satélites secretos anos antes dos russos.</t>
         </is>
       </c>
       <c r="G376" t="inlineStr">
         <is>
-          <t>De acordo com o **terceiro parágrafo da Página 7**, a rota alternativa "exigiu a construção de navios grandes - grandes demais para o Canal de Suez".</t>
+          <t>De acordo com o **terceiro parágrafo da Página 4**, "Washington sofria uma humilhação... Em 1958... Von Braun ajudou a lançar o... Explorer I".</t>
         </is>
       </c>
       <c r="H376" t="inlineStr"/>
@@ -15113,32 +15113,32 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Pág. 8</t>
+          <t>Pág 5</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>Canais de Marte</t>
+          <t>Exploração Lunar Soviética</t>
         </is>
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>Giovanni Schiaparelli acreditou ter visto canais em Marte em 1877, sugerindo que seriam obra de seres inteligentes.</t>
+          <t>Em 1959, a União Soviética conseguiu fazer o Luna II atingir a Lua e o Luna III fotografar o lado oculto do satélite.</t>
         </is>
       </c>
       <c r="F377" t="inlineStr">
         <is>
-          <t>Giovanni Schiaparelli provou cientificamente em 1877 que Marte era um planeta morto e sem qualquer característica geológica interessante.</t>
+          <t>Os Estados Unidos foram os primeiros a atingir a Lua com sondas não tripuladas em 1955, muito antes dos soviéticos.</t>
         </is>
       </c>
       <c r="G377" t="inlineStr">
         <is>
-          <t>Conforme o **segundo parágrafo da Página 8**, Schiaparelli "acreditou ter avistado o contorno de 41 longos canais... deveriam ser 'obra de seres inteligentes'".</t>
+          <t>Conforme o **primeiro parágrafo da Página 5**, o Luna II "conseguiu atingir o satélite" e um terceiro "fotografou o lado que sempre estivera oculto".</t>
         </is>
       </c>
       <c r="H377" t="inlineStr"/>
@@ -15152,32 +15152,32 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Pág. 8</t>
+          <t>Pág 5</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>Realidade Marciana</t>
+          <t>Desafios da Alimentação Espacial</t>
         </is>
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>As missões Mariner 4 e os robôs subsequentes revelaram que Marte é um terreno frio, coberto de pedras e sem sinais de vida ou canais.</t>
+          <t>Devido à falta de peso, a comida espacial precisava ser preparada em pequenos cubos e coberta com gelatina para evitar migalhas flutuantes.</t>
         </is>
       </c>
       <c r="F378" t="inlineStr">
         <is>
-          <t>As sondas espaciais confirmaram a existência de canais de irrigação e vegetação em Marte, validando as teorias do século XIX.</t>
+          <t>No espaço, os astronautas podiam comer refeições normais em pratos, pois a gravidade artificial das naves mantinha a comida no lugar.</t>
         </is>
       </c>
       <c r="G378" t="inlineStr">
         <is>
-          <t>Segundo o **terceiro parágrafo da Página 8**, imagens revelaram "um terreno frio e avermelhado, coberto de pedras... Seus instrumentos não detectaram sinal de vida".</t>
+          <t>Segundo o **quarto parágrafo da Página 5 (continuação do texto)**, "preparar todos os alimentos em pequenos cubos e cobri-los com gelatina".</t>
         </is>
       </c>
       <c r="H378" t="inlineStr"/>
@@ -15191,32 +15191,32 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Pág. 8</t>
+          <t>Pág 5</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>Chegada à Lua</t>
+          <t>Variação de Temperatura no Espaço</t>
         </is>
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>Em julho de 1969, Neil Armstrong pisou na Lua, um evento assistido globalmente pela televisão, diferindo da solidão dos antigos exploradores.</t>
+          <t>Uma nave espacial enfrenta temperaturas extremas, sendo aquecida pelo Sol até 120°C de um lado e resfriada muito abaixo de zero do outro.</t>
         </is>
       </c>
       <c r="F379" t="inlineStr">
         <is>
-          <t>O pouso na Lua em 1969 foi mantido em segredo absoluto pelo governo americano, sendo revelado ao público apenas anos depois.</t>
+          <t>A temperatura no espaço é constante e agradável, não exigindo nenhum sistema de proteção térmica para a nave ou tripulação.</t>
         </is>
       </c>
       <c r="G379" t="inlineStr">
         <is>
-          <t>De acordo com o **quarto parágrafo da Página 8**, Armstrong pisou na Lua "tendo seus vagarosos passos observados por milhões de pessoas pela televisão".</t>
+          <t>De acordo com o **terceiro parágrafo da Página 5 (continuação do texto)**, "Um lado seria aquecido... até a temperatura de 120°C, enquanto o outro seria resfriado".</t>
         </is>
       </c>
       <c r="H379" t="inlineStr"/>
@@ -15230,32 +15230,32 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Pág 1</t>
+          <t>Pág 6</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>Custos da Guerra do Vietnã</t>
+          <t>Primeiro Homem no Espaço</t>
         </is>
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>Os custos da Guerra do Vietnã e as atividades espaciais deixaram os Estados Unidos operando além de seus limites, tornando um acordo de paz a única solução.</t>
+          <t>Yury Gagarin, filho de um carpinteiro, orbitou a Terra a bordo da Vostok I em 12 de abril de 1961.</t>
         </is>
       </c>
       <c r="F380" t="inlineStr">
         <is>
-          <t>A Guerra do Vietnã, apesar das baixas, foi financeiramente irrelevante para os Estados Unidos, permitindo a manutenção tranquila de suas atividades espaciais e militares globais.</t>
+          <t>O primeiro homem no espaço foi um piloto norte-americano, que orbitou a Terra em segredo antes de 1960.</t>
         </is>
       </c>
       <c r="G380" t="inlineStr">
         <is>
-          <t>Conforme o **primeiro parágrafo da Página 1**, os norte-americanos estavam "espalhados além dos limites... Os custos da Guerra do Vietnã eram altos demais".</t>
+          <t>Conforme o **primeiro parágrafo da Página 6**, "Gagarin... Vostok I, foi lançado em 12 de abril de 1961".</t>
         </is>
       </c>
       <c r="H380" t="inlineStr"/>
@@ -15269,32 +15269,32 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Pág 1</t>
+          <t>Pág 6</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>O Vietnã e a Guerra Fria</t>
+          <t>Promessa de Kennedy</t>
         </is>
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>A Guerra do Vietnã representou a última grande vitória dos comunistas ao longo da Guerra Fria.</t>
+          <t>Um mês após o voo de Gagarin, os EUA anunciaram a meta de enviar um homem à Lua e trazê-lo de volta até o fim da década.</t>
         </is>
       </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t>A Guerra do Vietnã foi a primeira de uma série ininterrupta de vitórias comunistas que culminou na invasão dos Estados Unidos.</t>
+          <t>Após o voo de Gagarin, os EUA desistiram da corrida espacial, focando seus recursos exclusivamente em armas nucleares.</t>
         </is>
       </c>
       <c r="G381" t="inlineStr">
         <is>
-          <t>Segundo o **segundo parágrafo da Página 1**, "O Vietnã foi a última grande vitória dos comunistas ao longo da Guerra Fria".</t>
+          <t>Segundo o **segundo parágrafo da Página 6**, "Um mês após... os Estados Unidos anunciaram que, até o fim da década, enviariam um homem à Lua".</t>
         </is>
       </c>
       <c r="H381" t="inlineStr"/>
@@ -15308,32 +15308,32 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Pág 1</t>
+          <t>Pág 6</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>Percepção dos Líderes Comunistas</t>
+          <t>Alcance dos Mísseis Soviéticos em 1960</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>Para os líderes soviéticos e dos países-satélites, a queda do comunismo era algo inimaginável, dada a exibição de força militar em datas comemorativas.</t>
+          <t>Em 1960, a URSS ainda não podia lançar mísseis que chegassem aos EUA, tendo como alvos cidades europeias como Paris e Londres.</t>
         </is>
       </c>
       <c r="F382" t="inlineStr">
         <is>
-          <t>Os líderes comunistas de Varsóvia e Moscou sabiam que o regime estava condenado e planejavam ativamente a transição para o capitalismo desde o início dos anos 70.</t>
+          <t>Em 1960, a União Soviética já possuía mísseis capazes de atingir qualquer cidade no interior dos Estados Unidos a partir de Moscou.</t>
         </is>
       </c>
       <c r="G382" t="inlineStr">
         <is>
-          <t>De acordo com o **segundo parágrafo da Página 1**, "A queda do comunismo era inimaginável para os líderes... os quais... perfilavam-se quando os tanques imponentes... desfilavam".</t>
+          <t>De acordo com o **terceiro parágrafo da Página 6**, "A União Soviética ainda não podia lançar um míssil que chegasse ao distante país norte-americano".</t>
         </is>
       </c>
       <c r="H382" t="inlineStr"/>
@@ -15347,32 +15347,32 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Pág 2</t>
+          <t>Pág 7</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>Desigualdade Social Soviética</t>
+          <t>Perfil de Nikita Khrushchov</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>Havia uma elite de funcionários instalada no topo da escada social, com acesso a limusines e casas de campo, contrastando com a suposta igualdade do regime.</t>
+          <t>Khrushchov denunciava os expurgos de Stalin em público, apesar de ter participado deles, e mostrava uma cordialidade pessoal inédita.</t>
         </is>
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t>Na União Soviética da década de 1970, todos os cidadãos, desde o líder do partido até o varredor de ruas, viviam exatamente com o mesmo padrão de conforto e acesso a bens.</t>
+          <t>Khrushchov era um líder recluso e silencioso que manteve intacta a política de culto à personalidade de Stalin e recusava contato com o público.</t>
         </is>
       </c>
       <c r="G383" t="inlineStr">
         <is>
-          <t>Conforme o **segundo parágrafo da Página 2**, "Algumas centenas de funcionários... estavam confortavelmente instalados bem no topo... privilégios pareciam estranhos em um país onde se supunha que todos fossem iguais".</t>
+          <t>Conforme o **primeiro parágrafo da Página 7**, ele podia "denunciar em público os terríveis expurgos... O fato de que o próprio Khrushchov havia tomado parte... não era de conhecimento".</t>
         </is>
       </c>
       <c r="H383" t="inlineStr"/>
@@ -15386,32 +15386,32 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Pág 2</t>
+          <t>Pág 7</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>Economia Paralela e Apatia</t>
+          <t>Espionagem e Diplomacia</t>
         </is>
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>A apatia estava em alta e existia uma economia paralela onde, por exemplo, de cada quatro goles de vodca consumidos, um vinha do mercado negro.</t>
+          <t>O primeiro-ministro britânico Harold Macmillan, ao visitar Moscou, precisou conversar em uma tenda dentro da embaixada para evitar escutas.</t>
         </is>
       </c>
       <c r="F384" t="inlineStr">
         <is>
-          <t>A economia soviética era extremamente eficiente e honesta, não havendo registros de mercado negro, roubo de gasolina ou faltas ao trabalho.</t>
+          <t>Os líderes ocidentais confiavam plenamente na segurança diplomática em Moscou, discutindo segredos de estado abertamente em seus hotéis.</t>
         </is>
       </c>
       <c r="G384" t="inlineStr">
         <is>
-          <t>Segundo o **terceiro parágrafo da Página 2**, "A apatia estava em alta... De cada quatro goles de vodca... um vinha do mercado negro".</t>
+          <t>Segundo o **segundo parágrafo da Página 7**, "Uma tenda de proteção foi erguida... na esperança de que pelo menos os microfones russos... fossem despistados".</t>
         </is>
       </c>
       <c r="H384" t="inlineStr"/>
@@ -15425,32 +15425,32 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Pág 2</t>
+          <t>Pág 7</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>Visão de Brejnev</t>
+          <t>O Caso Gary Powers</t>
         </is>
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>Leonid Brejnev acreditava que a União Soviética não estava estagnada, mas sim competindo vigorosamente com os EUA na corrida espacial e armamentista.</t>
+          <t>O piloto da CIA Gary Powers foi abatido sobre os Urais em 1º de maio de 1960 e capturado vivo, desmentindo a versão de Washington.</t>
         </is>
       </c>
       <c r="F385" t="inlineStr">
         <is>
-          <t>Leonid Brejnev admitia publicamente que a União Soviética era um fracasso econômico e militar, buscando render-se aos Estados Unidos.</t>
+          <t>Gary Powers conseguiu escapar da União Soviética com seu avião intacto, entregando fotos valiosas das bases soviéticas sem ser detectado.</t>
         </is>
       </c>
       <c r="G385" t="inlineStr">
         <is>
-          <t>De acordo com o **terceiro parágrafo da Página 2**, "Brejnev não acreditava que seu país estivesse estagnado. A União Soviética ainda disputava com os Estados Unidos".</t>
+          <t>De acordo com o **terceiro parágrafo da Página 7**, "Seu jato sobrevoava os Urais... quando foi detectado... e abatido. Ele saltou... e, ao ser capturado...".</t>
         </is>
       </c>
       <c r="H385" t="inlineStr"/>
@@ -15464,32 +15464,32 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Pág 3</t>
+          <t>Pág 8</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>Longevidade de Brejnev</t>
+          <t>Ameaça Nuclear de Khrushchov</t>
         </is>
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>Brejnev governou por cerca de dezoito anos, presenciando o mandato de cinco presidentes norte-americanos, o que lhe conferia grande experiência.</t>
+          <t>Khrushchov ameaçou o embaixador britânico dizendo que seis bombas de hidrogênio destruiriam a Grã-Bretanha e nove a França.</t>
         </is>
       </c>
       <c r="F386" t="inlineStr">
         <is>
-          <t>Brejnev foi um líder de transição que governou por apenas dois anos, sendo rapidamente substituído devido à sua inexperiência internacional.</t>
+          <t>Khrushchov garantiu aos embaixadores europeus que a União Soviética jamais usaria armas nucleares contra a Europa Ocidental.</t>
         </is>
       </c>
       <c r="G386" t="inlineStr">
         <is>
-          <t>Conforme o **primeiro parágrafo da Página 3**, ele esteve no comando por "algo em torno de dezoito anos... presenciou o mandato de cinco presidente norte-americanos".</t>
+          <t>Conforme o **segundo parágrafo da Página 8**, ele "Especificou que seis bombas de hidrogênio soviéticas destruiriam a Grã-Bretanha e nove fariam o mesmo com a França".</t>
         </is>
       </c>
       <c r="H386" t="inlineStr"/>
@@ -15503,32 +15503,32 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Pág 3</t>
+          <t>Pág 8</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>Alcance dos Mísseis</t>
+          <t>Fuga de Alemães Orientais</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>Na década de 1970, o alcance dos mísseis intercontinentais aumentou para mais de 8 mil quilômetros, deixando nenhuma cidade a salvo de ataques.</t>
+          <t>Antes do muro, cerca de 10 mil alemães orientais fugiam por mês para Berlim Ocidental em busca de liberdade e melhores condições.</t>
         </is>
       </c>
       <c r="F387" t="inlineStr">
         <is>
-          <t>Os mísseis soviéticos e americanos tinham alcance limitado a 500 quilômetros, garantindo a segurança das cidades no interior de ambos os países.</t>
+          <t>A população da Alemanha Oriental estava satisfeita e não havia registro de fugas para o lado ocidental antes da construção do muro.</t>
         </is>
       </c>
       <c r="G387" t="inlineStr">
         <is>
-          <t>Segundo o **segundo parágrafo da Página 3**, a distância aumentou "para mais de 8 mil quilômetros. Por fim, não haveria cidade... que tivesse a salvo".</t>
+          <t>Segundo o **terceiro parágrafo da Página 8**, "O número de fugitivos chegava a 10 mil por mês".</t>
         </is>
       </c>
       <c r="H387" t="inlineStr"/>
@@ -15542,32 +15542,32 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Pág 3</t>
+          <t>Pág 8</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>Percepção de Desvantagem dos EUA</t>
+          <t>Construção do Muro de Berlim</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>Negociações vigorosas de Brejnev causaram a impressão em Washington de que os EUA estavam perdendo vantagens militares, apesar dos enormes gastos.</t>
+          <t>Na madrugada de 13 de agosto de 1961, os comunistas começaram a construir uma barreira de arame farpado, posteriormente substituída por concreto.</t>
         </is>
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t>O governo dos EUA estava confiante de que possuía superioridade militar absoluta e que os tratados de 1972 e 1979 eram rendições soviéticas.</t>
+          <t>O Muro de Berlim foi construído pelos Estados Unidos para impedir a entrada de espiões comunistas em Berlim Ocidental.</t>
         </is>
       </c>
       <c r="G388" t="inlineStr">
         <is>
-          <t>De acordo com o **terceiro parágrafo da Página 3**, isso causou "forte impressão... de que os Estados Unidos estavam perdendo algumas vantagens militares".</t>
+          <t>De acordo com o **terceiro parágrafo da Página 8**, "Na madrugada do dia 13 de agosto de 1961... começaram a construir uma larga proteção de arame farpado".</t>
         </is>
       </c>
       <c r="H388" t="inlineStr"/>
@@ -15581,32 +15581,32 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Pág 4</t>
+          <t>Pág. 1</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>Expansão Soviética</t>
+          <t>Segurança Geopolítica dos EUA</t>
         </is>
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>A União Soviética aproveitou oportunidades de expansão no Mar Vermelho, Golfo Pérsico, Angola (com apoio cubano) e invadiu o Afeganistão em 1979.</t>
+          <t>Nenhuma outra grande nação era tão segura quanto os Estados Unidos, protegidos por dois oceanos e vizinhos de pouco peso militar ou econômico.</t>
         </is>
       </c>
       <c r="F389" t="inlineStr">
         <is>
-          <t>A União Soviética adotou uma política de isolacionismo total na década de 1970, retirando todas as suas tropas de territórios estrangeiros e focando apenas em questões domésticas.</t>
+          <t>Os Estados Unidos enfrentavam graves ameaças territoriais de seus vizinhos Canadá e México, que possuíam poderio militar comparável.</t>
         </is>
       </c>
       <c r="G389" t="inlineStr">
         <is>
-          <t>Conforme o **primeiro parágrafo da Página 4**, a URSS aumentava poder no "Mar Vermelho e o Golfo Pérsico... Angola... foi tomada... soldados soviéticos entraram no Afeganistão".</t>
+          <t>Conforme o **primeiro parágrafo da Página 1**, o país desfrutava da proteção dos oceanos e "tinha somente três vizinhos... que perdiam em qualquer comparação".</t>
         </is>
       </c>
       <c r="H389" t="inlineStr"/>
@@ -15620,32 +15620,32 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Pág 4</t>
+          <t>Pág. 1</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>O Regime do Camboja</t>
+          <t>Trajetória de Fulgêncio Batista</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>No Camboja, o regime comunista de Pol Pot foi responsável pela morte de cerca de 2 milhões de pessoas, ou 20% da população, por exaustão, fome e execuções.</t>
+          <t>Fulgêncio Batista, que começou como taquígrafo no exército, tornou-se ditador em 1952 e utilizou o poder para enriquecimento pessoal.</t>
         </is>
       </c>
       <c r="F390" t="inlineStr">
         <is>
-          <t>O regime comunista do Camboja foi um modelo de desenvolvimento humanitário, erradicando a fome e aumentando a expectativa de vida da população em tempo recorde.</t>
+          <t>Fulgêncio Batista foi um líder que governou sempre de forma democrática e morreu pobre, recusando-se a enriquecer no cargo.</t>
         </is>
       </c>
       <c r="G390" t="inlineStr">
         <is>
-          <t>Segundo o **segundo parágrafo da Página 4**, "liderados por Pol Pot... o número de mortos chegava perto dos 2 milhões, ou seja, 20% da população".</t>
+          <t>Segundo o **segundo parágrafo da Página 1**, Batista "ficou rico o bastante" e, ao retornar em 1952, tornou-se ditador "aumentando o próprio saldo bancário".</t>
         </is>
       </c>
       <c r="H390" t="inlineStr"/>
@@ -15659,32 +15659,32 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Pág 4</t>
+          <t>Pág. 1</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>Baluartes do Comunismo</t>
+          <t>Ascensão de Fidel Castro</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>Nos últimos anos de Brejnev, o comunismo parecia vigoroso em países como União Soviética, China, Cuba e Coreia do Norte.</t>
+          <t>Fidel Castro, filho ilegítimo de um imigrante espanhol, refugiou-se no México antes de retornar a Cuba e derrubar Batista em 1959.</t>
         </is>
       </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t>Nos últimos anos de Brejnev, o comunismo havia desaparecido de todos os países exceto a União Soviética, que estava isolada politicamente.</t>
+          <t>Fidel Castro era um general de carreira do exército cubano que assumiu o poder através de eleições democráticas pacíficas em 1959.</t>
         </is>
       </c>
       <c r="G391" t="inlineStr">
         <is>
-          <t>De acordo com o **segundo parágrafo da Página 4**, "o comunismo parecia vigoroso. A União Soviética e a China eram seus baluartes e o regime também era forte em Cuba".</t>
+          <t>De acordo com o **terceiro parágrafo da Página 1**, Fidel "refugiou-se no México. Chegando a Cuba... conseguiu derrubá-lo [Batista]" em 1º de janeiro de 1959.</t>
         </is>
       </c>
       <c r="H391" t="inlineStr"/>
@@ -15698,32 +15698,32 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Pág 5</t>
+          <t>Pág. 2</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>Exceção Polonesa</t>
+          <t>Reformas e Nacionalização</t>
         </is>
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>A Polônia diferenciava-se de outros satélites pois sua agricultura estava em grande parte na iniciativa privada e a Igreja Católica continuava forte.</t>
+          <t>Fidel Castro nacionalizou grandes engenhos de açúcar, bancos e propriedades norte-americanas, além de desbaratar a máfia.</t>
         </is>
       </c>
       <c r="F392" t="inlineStr">
         <is>
-          <t>A Polônia era o mais rígido dos satélites soviéticos, com 100% da agricultura coletivizada e a proibição total de qualquer prática religiosa.</t>
+          <t>Fidel Castro manteve intactas as propriedades norte-americanas e os grandes engenhos, focando apenas em reformas culturais.</t>
         </is>
       </c>
       <c r="G392" t="inlineStr">
         <is>
-          <t>Conforme o **primeiro parágrafo da Página 5**, "a agricultura estava... nas mãos da iniciativa privada... a Igreja Católica continuava forte".</t>
+          <t>Conforme o **primeiro parágrafo da Página 2**, Castro "nacionalizou os grandes engenhos de açúcar... e muitas propriedades de norte-americanos".</t>
         </is>
       </c>
       <c r="H392" t="inlineStr"/>
@@ -15737,32 +15737,32 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Pág 5</t>
+          <t>Pág. 2</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>Estratégia da Eleição Papal</t>
+          <t>Reação Econômica dos EUA</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>A eleição de um papa polonês foi vista como uma estratégia para enviar os "soldados de Cristo" para o coração do comunismo em um momento crucial.</t>
+          <t>A reação dos EUA às nacionalizações foi cancelar a preferência de compra do açúcar cubano, jogando Cuba nos braços da União Soviética.</t>
         </is>
       </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t>A eleição de João Paulo II foi um acidente burocrático, pois o Vaticano preferia manter a tradição de papas italianos para não provocar a União Soviética.</t>
+          <t>Os Estados Unidos reagiram às reformas de Castro aumentando a cota de compra de açúcar para tentar manter a influência sobre a ilha.</t>
         </is>
       </c>
       <c r="G393" t="inlineStr">
         <is>
-          <t>Segundo o **segundo parágrafo da Página 5**, o Colégio dos Cardeais acreditava que "elegendo um europeu do leste enviariam os soldados de Cristo para o coração do comunismo".</t>
+          <t>Segundo o **primeiro parágrafo da Página 2**, os EUA cancelaram a preferência do açúcar e "Economicamente, essa decisão jogou Cuba nos braços da União Soviética".</t>
         </is>
       </c>
       <c r="H393" t="inlineStr"/>
@@ -15776,32 +15776,32 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Pág 5</t>
+          <t>Pág. 2</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>Visita do Papa à Polônia</t>
+          <t>Propaganda e Controle</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>O papa João Paulo II foi recebido por uma multidão estimada em 2 milhões de pessoas na Polônia, demonstrando a força da dissidência religiosa.</t>
+          <t>Fidel Castro, um orador hipnotizante, utilizou o rádio e a TV para assegurar seu controle, aproveitando a alta densidade desses aparelhos em Cuba.</t>
         </is>
       </c>
       <c r="F394" t="inlineStr">
         <is>
-          <t>A visita do papa à Polônia foi ignorada pela população, que permaneceu fiel ao ateísmo pregado pelo regime comunista.</t>
+          <t>Fidel Castro proibiu o uso de rádio e televisão em Cuba para evitar que a população fosse influenciada por ideias estrangeiras.</t>
         </is>
       </c>
       <c r="G394" t="inlineStr">
         <is>
-          <t>De acordo com o **terceiro parágrafo da Página 5**, "Uma gigantesca multidão, estimada em 2 milhões de pessoas, reuniu-se ao longo da rota".</t>
+          <t>De acordo com o **segundo parágrafo da Página 2**, Fidel "usou a palavra... para assegurar o controle" e sua propaganda tinha grande audiência pois havia "mais aparelhos de rádio e TV do que na maioria dos países europeus".</t>
         </is>
       </c>
       <c r="H394" t="inlineStr"/>
@@ -15815,32 +15815,32 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Pág 6</t>
+          <t>Pág. 3</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>O Movimento Solidariedade</t>
+          <t>Importância dos Estreitos</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>O Movimento Solidariedade, liderado por Lech Walesa, recrutou milhares de membros e reivindicou o direito à greve, algo inédito em países comunistas.</t>
+          <t>Apesar do advento do poder aéreo, a posição de Cuba e o controle de estreitos marítimos continuaram tendo importância decisiva.</t>
         </is>
       </c>
       <c r="F395" t="inlineStr">
         <is>
-          <t>O Movimento Solidariedade era um sindicato estatal criado pelo governo polonês para controlar os trabalhadores e impedir greves.</t>
+          <t>Com o surgimento da aviação militar, o controle de estreitos marítimos e a posição geográfica de ilhas como Cuba tornaram-se irrelevantes.</t>
         </is>
       </c>
       <c r="G395" t="inlineStr">
         <is>
-          <t>Conforme o **primeiro parágrafo da Página 6**, "Surgiu assim... o Movimento Solidariedade... reivindicava o direito à greve - algo que não existia em países comunistas".</t>
+          <t>Conforme o **primeiro parágrafo da Página 3 (seção Os Apertados Mares...)**, muitos argumentavam que perderiam relevância, "mas a posição de Cuba... continuou tendo importância decisiva".</t>
         </is>
       </c>
       <c r="H395" t="inlineStr"/>
@@ -15854,32 +15854,32 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Pág 6</t>
+          <t>Pág. 3</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>Atentado ao Papa</t>
+          <t>Invasão da Baía dos Porcos</t>
         </is>
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>O atentado contra o papa em 1981 foi executado por um turco com cumplicidade de búlgaros, havendo suspeitas de apoio de agências soviéticas.</t>
+          <t>A CIA treinou exilados cubanos para invadir a ilha na Baía dos Porcos, mas a operação fracassou e os invasores foram capturados.</t>
         </is>
       </c>
       <c r="F396" t="inlineStr">
         <is>
-          <t>O atentado contra o papa foi realizado por um radical católico descontente com as reformas da igreja, sem qualquer ligação com o bloco comunista.</t>
+          <t>A invasão da Baía dos Porcos foi realizada diretamente pelo exército regular dos EUA e resultou na derrubada imediata de Fidel Castro.</t>
         </is>
       </c>
       <c r="G396" t="inlineStr">
         <is>
-          <t>Segundo o **segundo parágrafo da Página 6**, o criminoso contou com "cúmplices búlgaros... historiadores suspeitam que o ataque também foi apoiado por agências governamentais soviéticas".</t>
+          <t>Segundo o **segundo parágrafo da Página 3**, a CIA deu treinamento a exilados, mas "Em dois dias, a maioria dos invasores havia sido capturada".</t>
         </is>
       </c>
       <c r="H396" t="inlineStr"/>
@@ -15893,32 +15893,32 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Pág 6</t>
+          <t>Pág. 3</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>Lei Marcial na Polônia</t>
+          <t>Motivação dos Mísseis Soviéticos</t>
         </is>
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>No fim de 1981, o exército polonês prendeu líderes do Solidariedade e impôs a lei marcial, controlando a dissidência mas não a eliminando.</t>
+          <t>Khrushchov decidiu instalar mísseis em Cuba em parte como resposta aos mísseis Júpiter que os EUA haviam instalado na Turquia.</t>
         </is>
       </c>
       <c r="F397" t="inlineStr">
         <is>
-          <t>O governo polonês aceitou pacificamente as demandas do Solidariedade em 1981, estabelecendo uma democracia plena e dissolvendo o exército.</t>
+          <t>A instalação de mísseis em Cuba foi um ato isolado de agressão soviética, sem qualquer relação com bases de mísseis norte-americanas na Europa.</t>
         </is>
       </c>
       <c r="G397" t="inlineStr">
         <is>
-          <t>De acordo com o **terceiro parágrafo da Página 6**, "milhares... foram presos... A lei marcial foi promulgada... A dissidência no país foi controlada, mas não eliminada".</t>
+          <t>De acordo com o **segundo parágrafo da Página 3**, Washington o havia provocado "ao instalar mísseis Júpiter na Turquia... Tinha chegado a vez de Khrushchov responder".</t>
         </is>
       </c>
       <c r="H397" t="inlineStr"/>
@@ -15932,32 +15932,32 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Pág 7</t>
+          <t>Pág. 4</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>Política de Reagan</t>
+          <t>Descoberta dos Mísseis</t>
         </is>
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>A política de Ronald Reagan combinava impostos mais baixos com maiores investimentos na defesa, incluindo a Iniciativa Estratégica de Defesa.</t>
+          <t>Em outubro de 1962, um avião de espionagem detectou mísseis soviéticos em Cuba capazes de atingir Washington.</t>
         </is>
       </c>
       <c r="F398" t="inlineStr">
         <is>
-          <t>Ronald Reagan implementou uma política de aumento drástico de impostos para financiar programas sociais, cortando o orçamento militar pela metade.</t>
+          <t>Os mísseis em Cuba foram descobertos por turistas americanos que visitavam a ilha e tiraram fotos das bases.</t>
         </is>
       </c>
       <c r="G398" t="inlineStr">
         <is>
-          <t>Conforme o **primeiro parágrafo da Página 7**, "Sua política combinava... impostos mais baixos e maiores investimentos na defesa... Iniciativa Estratégica de Defesa".</t>
+          <t>Conforme o **segundo parágrafo da Página 4**, "Um avião de espionagem norte-americano detectou atividade... Kennedy soube que dez mísseis soviéticos... tinham sido instalados".</t>
         </is>
       </c>
       <c r="H398" t="inlineStr"/>
@@ -15971,32 +15971,32 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Pág 7</t>
+          <t>Pág. 4</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>Guerra nas Estrelas</t>
+          <t>Bloqueio Naval (Quarentena)</t>
         </is>
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>O plano de Reagan, apelidado de Guerra nas Estrelas, visava interceptar ataques de mísseis russos com armas em solo, mar e espaço.</t>
+          <t>Kennedy decidiu cercar Cuba com uma força naval para deter e inspecionar carregamentos bélicos soviéticos.</t>
         </is>
       </c>
       <c r="F399" t="inlineStr">
         <is>
-          <t>O projeto Guerra nas Estrelas era um plano para colonizar Marte em parceria com a União Soviética, desviando o foco da corrida armamentista.</t>
+          <t>Kennedy ordenou um ataque aéreo imediato e nuclear contra Moscou assim que soube da existência dos mísseis em Cuba.</t>
         </is>
       </c>
       <c r="G399" t="inlineStr">
         <is>
-          <t>Segundo o **primeiro parágrafo da Página 7**, "armas norte-americanas... poderiam interceptar qualquer ataque de mísseis russos".</t>
+          <t>Segundo o **segundo parágrafo da Página 4**, o líder decidiu "cercar Cuba com uma grande força naval capaz de deter e inspecionar a chegada de carregamentos".</t>
         </is>
       </c>
       <c r="H399" t="inlineStr"/>
@@ -16010,32 +16010,32 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Pág 7</t>
+          <t>Pág. 4</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>Sucessão Soviética</t>
+          <t>Risco de Guerra Nuclear</t>
         </is>
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>A morte de Brejnev em 1982 e a curta duração de seus sucessores permitiram que a iniciativa e o senso de comando passassem para os Estados Unidos.</t>
+          <t>Kennedy temia que forçar um submarino soviético a emergir pudesse desencadear uma guerra, ou levar a um ataque soviético contra Berlim Ocidental.</t>
         </is>
       </c>
       <c r="F400" t="inlineStr">
         <is>
-          <t>A sucessão de Brejnev foi marcada pelo surgimento imediato de líderes jovens e fortes que recuperaram a iniciativa global para a União Soviética.</t>
+          <t>Kennedy estava confiante de que os soviéticos jamais reagiriam militarmente, considerando o bloqueio uma manobra diplomática segura.</t>
         </is>
       </c>
       <c r="G400" t="inlineStr">
         <is>
-          <t>De acordo com o **último parágrafo da Página 7**, "seus sucessores imediatos não duraram, permitindo que a iniciativa... passassem para os Estados Unidos".</t>
+          <t>De acordo com o **terceiro parágrafo da Página 4**, Kennedy previa terríveis implicações e imaginava que a URSS "atacaria ou bloquearia Berlim Ocidental".</t>
         </is>
       </c>
       <c r="H400" t="inlineStr"/>
@@ -16049,32 +16049,32 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Pág 8</t>
+          <t>Pág. 5</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>Perfil de Gorbachev</t>
+          <t>Resolução da Crise</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>Mikhail Gorbachev destacou-se pelo raciocínio rápido e chegou ao poder em 1985 após a morte de três predecessores.</t>
+          <t>A crise foi resolvida com a promessa de retirada dos mísseis soviéticos em troca da garantia dos EUA de não invadir Cuba.</t>
         </is>
       </c>
       <c r="F401" t="inlineStr">
         <is>
-          <t>Mikhail Gorbachev era um líder idoso e lento, escolhido por sua lealdade cega às políticas estalinistas de seus antecessores.</t>
+          <t>A crise terminou com a rendição incondicional de Cuba e a ocupação da ilha por tropas das Nações Unidas.</t>
         </is>
       </c>
       <c r="G401" t="inlineStr">
         <is>
-          <t>Conforme o **primeiro parágrafo da Página 8**, "Gorbachev se destacava pelo raciocínio rápido... chegou ao poder em março de 1985".</t>
+          <t>Conforme o **primeiro parágrafo da Página 5**, Kennedy propôs "dar garantias de não invadi-la, desde que todos os mísseis fossem retirados... Khrushchov prometeu fazer isso".</t>
         </is>
       </c>
       <c r="H401" t="inlineStr"/>
@@ -16088,32 +16088,32 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Pág 8</t>
+          <t>Pág. 5</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>Estilo de Raisa Gorbachev</t>
+          <t>Reflexão de Toynbee</t>
         </is>
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>Raisa Gorbachev rompeu tabus ao aparecer em palanques e demonstrar estilo e intelectualidade, diferente das esposas dos líderes anteriores.</t>
+          <t>O historiador Arnold Toynbee afirmou que a sobrevivência humana era mais provável quando estávamos indefesos contra tigres do que indefesos contra nós mesmos.</t>
         </is>
       </c>
       <c r="F402" t="inlineStr">
         <is>
-          <t>Raisa Gorbachev manteve-se estritamente nos bastidores, seguindo a tradição soviética de que as esposas dos líderes não deveriam ser vistas.</t>
+          <t>Arnold Toynbee argumentou que a invenção da bomba atômica tornou a humanidade mais segura, eliminando a possibilidade de guerras.</t>
         </is>
       </c>
       <c r="G402" t="inlineStr">
         <is>
-          <t>Segundo o **segundo parágrafo da Página 8**, "a senhora Gorbachev rompeu esse tabu... primava pela delicadeza e pelo estilo".</t>
+          <t>Segundo o **segundo parágrafo da Página 5**, Toynbee disse: "As perspectivas de sobrevivência... eram consideravelmente maiores quando estávamos indefesos contra tigres".</t>
         </is>
       </c>
       <c r="H402" t="inlineStr"/>
@@ -16127,32 +16127,32 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Pág 8</t>
+          <t>Pág. 5</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>Perestroika e Economia</t>
+          <t>Proliferação Nuclear</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>Gorbachev percebeu que a economia soviética morosa não podia financiar as gigantescas empreitadas militares, propondo a reestruturação (perestroika).</t>
+          <t>Após a crise cubana, a China desenvolveu sua bomba atômica em 1964, o que incentivou a Índia e posteriormente o Paquistão a fazerem o mesmo.</t>
         </is>
       </c>
       <c r="F403" t="inlineStr">
         <is>
-          <t>Gorbachev acreditava que a economia soviética estava em perfeito estado e que os gastos militares deveriam ser dobrados para vencer os EUA.</t>
+          <t>O medo gerado pela crise cubana fez com que todas as nações, exceto EUA e URSS, abandonassem permanentemente seus programas nucleares.</t>
         </is>
       </c>
       <c r="G403" t="inlineStr">
         <is>
-          <t>De acordo com o **terceiro parágrafo da Página 8**, "Gorbachev percebeu que uma economia tão morosa dificilmente poderia financiar uma grande empreitada militar... anunciou... a perestroika".</t>
+          <t>De acordo com o **terceiro parágrafo da Página 5**, "A China desenvolveu sua primeira bomba... em 1964... aumentou as chances de a Índia fazer o mesmo... aumentando o risco de o Paquistão precisar".</t>
         </is>
       </c>
       <c r="H403" t="inlineStr"/>
@@ -16166,32 +16166,32 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Pág 9</t>
+          <t>Pág. 6</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>Motivação para Encontro</t>
+          <t>Nasser e o Radicalismo</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>Gorbachev estava ansioso para diminuir gastos com armamentos e via vantagens em reunir-se com Reagan, consciente do perigo nuclear.</t>
+          <t>Em 1958, os discursos de Nasser tinham caráter mais secular do que religioso, diferindo do radicalismo islâmico de gerações futuras.</t>
         </is>
       </c>
       <c r="F404" t="inlineStr">
         <is>
-          <t>Gorbachev recusava-se a encontrar Reagan, pois acreditava que a única solução para a Guerra Fria era um ataque nuclear preventivo.</t>
+          <t>Nasser sempre foi um líder fundamentalista islâmico, baseando todas as suas políticas na lei religiosa estrita desde a década de 1950.</t>
         </is>
       </c>
       <c r="G404" t="inlineStr">
         <is>
-          <t>Conforme o **primeiro parágrafo da Página 9**, ele estava "ansioso para diminuir os gastos com armamentos, consciente de que o arsenal nuclear... tem o poder de 'erradicar toda a vida'".</t>
+          <t>Conforme o **segundo parágrafo da Página 6**, ele "não apresentou nenhum sinal do radicalismo islâmico... discursos de 1958 possuíam um caráter mais secular".</t>
         </is>
       </c>
       <c r="H404" t="inlineStr"/>
@@ -16205,32 +16205,32 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Pág 9</t>
+          <t>Pág. 6</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>Encontro de Genebra</t>
+          <t>Retirada da ONU</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>No encontro de 1985 em Genebra, apesar das diferenças ideológicas, Reagan e Gorbachev chegaram a uma harmonia cautelosa e apertaram as mãos como amigos.</t>
+          <t>Em maio de 1967, Nasser mandou embora os soldados das Nações Unidas que tentavam manter a paz na Faixa de Gaza.</t>
         </is>
       </c>
       <c r="F405" t="inlineStr">
         <is>
-          <t>O encontro de Genebra em 1985 terminou em desastre, com os dois líderes trocando insultos e declarando o fim das relações diplomáticas.</t>
+          <t>As Nações Unidas recusaram o pedido de Nasser e mantiveram suas tropas na Faixa de Gaza, impedindo o início da guerra em 1967.</t>
         </is>
       </c>
       <c r="G405" t="inlineStr">
         <is>
-          <t>Segundo o **primeiro parágrafo da Página 9**, "Ao longo do dia, chegaram a uma harmonia cautelosa. Gorbachev declarou: 'Apertamos as mãos como amigos'".</t>
+          <t>Segundo o **terceiro parágrafo da Página 6**, soldados tentaram manter a paz "até maio de 1967, quando Nasser mandou-os embora".</t>
         </is>
       </c>
       <c r="H405" t="inlineStr"/>
@@ -16244,32 +16244,32 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Pág 9</t>
+          <t>Pág. 6</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>Fatores do Fim da Guerra Fria</t>
+          <t>Bloqueio de Eilat</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>O fim da Guerra Fria deveu-se não apenas a Reagan e Gorbachev, mas também a uma sucessão de eventos e mudanças de Riga a Cabul.</t>
+          <t>Nasser impediu cargueiros israelenses de usar o porto de Eilat, o único de Israel no Mar Vermelho, declarando que o objetivo era destruir Israel.</t>
         </is>
       </c>
       <c r="F406" t="inlineStr">
         <is>
-          <t>O fim da Guerra Fria foi resultado exclusivo da genialidade de Ronald Reagan, sem qualquer influência das ações de Gorbachev ou eventos locais.</t>
+          <t>Nasser garantiu a livre navegação de navios israelenses no Mar Vermelho como um gesto de boa vontade para evitar a guerra.</t>
         </is>
       </c>
       <c r="G406" t="inlineStr">
         <is>
-          <t>De acordo com o **segundo parágrafo da Página 9**, "Igualmente importantes foram a sucessão de eventos e as mudanças quase imperceptíveis que aconteciam de Riga a Cabul".</t>
+          <t>De acordo com o **terceiro parágrafo da Página 6**, ele "impediu os cargueiros israelenses de entrar no porto de Eilat... o único porto de Israel no Mar Vermelho".</t>
         </is>
       </c>
       <c r="H406" t="inlineStr"/>
@@ -16283,32 +16283,32 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Pág 1</t>
+          <t>Pág. 7</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>O Acordo de Helsinque</t>
+          <t>Guerra dos Seis Dias</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>Assinado em 1975, o Acordo de Helsinque pareceu um passo em direção aos direitos humanos e enfraqueceu a crença comunista na soberania absoluta sobre suas fronteiras.</t>
+          <t>Em 5 de junho de 1967, Israel lançou um ataque aéreo preventivo devastador, destruindo boa parte da força aérea egípcia e vencendo em seis dias.</t>
         </is>
       </c>
       <c r="F407" t="inlineStr">
         <is>
-          <t>O Acordo de Helsinque, assinado em 1975, fortaleceu o controle soviético, validando a tese de que os comunistas podiam fazer o que quisessem dentro de suas fronteiras sem críticas externas.</t>
+          <t>O Egito atacou Israel de surpresa em 1967, destruindo a força aérea israelense no solo e ocupando Tel Aviv em seis dias.</t>
         </is>
       </c>
       <c r="G407" t="inlineStr">
         <is>
-          <t>Conforme o **primeiro parágrafo da Página 1**, o gesto enfraqueceu a crença de que "tinham o direito de fazer o que bem entendessem dentro de suas fronteiras".</t>
+          <t>Conforme o **primeiro parágrafo da Página 7**, a força aérea de Israel "se precipitou sobre numerosos campos... egípcios... esse ataque israelense durou somente seis dias".</t>
         </is>
       </c>
       <c r="H407" t="inlineStr"/>
@@ -16322,32 +16322,32 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Pág 1</t>
+          <t>Pág. 7</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>Desgaste do Ideal Comunista</t>
+          <t>Linha Direta (Hotline)</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>Nos primeiros anos de Gorbachev, o zelo religioso pelo comunismo diminuía, e líderes corruptos minavam a retórica de abnegação pelo bem da comunidade.</t>
+          <t>Durante a guerra de 1967, líderes dos EUA e da URSS usaram uma linha telefônica secreta para decidir não intervir no conflito.</t>
         </is>
       </c>
       <c r="F408" t="inlineStr">
         <is>
-          <t>Nos primeiros anos de Gorbachev, o fervor ideológico pelo comunismo atingiu seu auge, com líderes locais dando exemplos estritos de honestidade e abnegação.</t>
+          <t>Durante a guerra de 1967, EUA e URSS entraram em combate direto no Mediterrâneo, ignorando os canais diplomáticos.</t>
         </is>
       </c>
       <c r="G408" t="inlineStr">
         <is>
-          <t>Segundo o **segundo parágrafo da Página 1**, "O zelo quase religioso pelo comunismo já não era mais o mesmo... líderes políticos locais eram corruptos".</t>
+          <t>Segundo o **segundo parágrafo da Página 7**, os líderes "haviam conversado por meio de uma linha telefônica secreta... e decidido não intervir".</t>
         </is>
       </c>
       <c r="H408" t="inlineStr"/>
@@ -16361,32 +16361,32 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Pág 1</t>
+          <t>Pág. 7</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>Opinião dos Intelectuais</t>
+          <t>Fechamento do Canal de Suez</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>Intelectuais como o poeta Yevtushenko criticavam o sistema de passaportes internos e filas, considerando a URSS um fracasso em muitos aspectos.</t>
+          <t>O fechamento do Canal de Suez forçou a rota pelo Cabo da Boa Esperança, estimulando a construção de navios grandes demais para o canal original.</t>
         </is>
       </c>
       <c r="F409" t="inlineStr">
         <is>
-          <t>Intelectuais russos defendiam vigorosamente o sistema de passaportes internos como uma medida necessária de segurança, elogiando a qualidade de vida soviética.</t>
+          <t>O fechamento do Canal de Suez teve pouco impacto econômico, pois a maioria dos navios já utilizava a rota pelo Ártico.</t>
         </is>
       </c>
       <c r="G409" t="inlineStr">
         <is>
-          <t>De acordo com o **terceiro parágrafo da Página 1**, Yevtushenko dizia que o país era um fracasso e que passaportes eram "indícios vergonhosos de escravidão".</t>
+          <t>De acordo com o **terceiro parágrafo da Página 7**, a rota alternativa "exigiu a construção de navios grandes - grandes demais para o Canal de Suez".</t>
         </is>
       </c>
       <c r="H409" t="inlineStr"/>
@@ -16400,32 +16400,32 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Pág 2</t>
+          <t>Pág. 8</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>Poluição por Petróleo</t>
+          <t>Canais de Marte</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>Constatou-se que a quantidade de petróleo lançada em terras russas em alguns dias superava a perda do desastre do Exxon Valdez no Alasca.</t>
+          <t>Giovanni Schiaparelli acreditou ter visto canais em Marte em 1877, sugerindo que seriam obra de seres inteligentes.</t>
         </is>
       </c>
       <c r="F410" t="inlineStr">
         <is>
-          <t>A União Soviética possuía um sistema de oleodutos impecável, não registrando vazamentos significativos em comparação aos desastres ocidentais como o Exxon Valdez.</t>
+          <t>Giovanni Schiaparelli provou cientificamente em 1877 que Marte era um planeta morto e sem qualquer característica geológica interessante.</t>
         </is>
       </c>
       <c r="G410" t="inlineStr">
         <is>
-          <t>Conforme o **primeiro parágrafo da Página 2**, "mais petróleo era lançado em terras russas em alguns dias do que a quantidade perdida pelo... Exxon Valdez".</t>
+          <t>Conforme o **segundo parágrafo da Página 8**, Schiaparelli "acreditou ter avistado o contorno de 41 longos canais... deveriam ser 'obra de seres inteligentes'".</t>
         </is>
       </c>
       <c r="H410" t="inlineStr"/>
@@ -16439,32 +16439,32 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Pág 2</t>
+          <t>Pág. 8</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>Degradação dos Corpos Hídricos</t>
+          <t>Realidade Marciana</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>O esturjão quase desapareceu do Rio Volga e o Lago Baikal estava ameaçado por resíduos de fábricas de papel.</t>
+          <t>As missões Mariner 4 e os robôs subsequentes revelaram que Marte é um terreno frio, coberto de pedras e sem sinais de vida ou canais.</t>
         </is>
       </c>
       <c r="F411" t="inlineStr">
         <is>
-          <t>O Rio Volga e o Lago Baikal eram exemplos de preservação ambiental, com populações de esturjão em crescimento e águas livres de resíduos industriais.</t>
+          <t>As sondas espaciais confirmaram a existência de canais de irrigação e vegetação em Marte, validando as teorias do século XIX.</t>
         </is>
       </c>
       <c r="G411" t="inlineStr">
         <is>
-          <t>Segundo o **segundo parágrafo da Página 2**, "O esturjão... quase desapareceu... O Baikal... estava ameaçado pelos resíduos".</t>
+          <t>Segundo o **terceiro parágrafo da Página 8**, imagens revelaram "um terreno frio e avermelhado, coberto de pedras... Seus instrumentos não detectaram sinal de vida".</t>
         </is>
       </c>
       <c r="H411" t="inlineStr"/>
@@ -16478,32 +16478,32 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Pág 2</t>
+          <t>Pág. 8</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>O Desastre de Chernobyl</t>
+          <t>Chegada à Lua</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>O acidente de Chernobyl (1986) foi agravado pela evacuação tardia, iniciada trinta e sete horas depois, expondo milhões de pessoas à radiação.</t>
+          <t>Em julho de 1969, Neil Armstrong pisou na Lua, um evento assistido globalmente pela televisão, diferindo da solidão dos antigos exploradores.</t>
         </is>
       </c>
       <c r="F412" t="inlineStr">
         <is>
-          <t>O acidente de Chernobyl foi contido tão rapidamente quanto o de Three Mile Island, com a população sendo evacuada imediatamente após a explosão.</t>
+          <t>O pouso na Lua em 1969 foi mantido em segredo absoluto pelo governo americano, sendo revelado ao público apenas anos depois.</t>
         </is>
       </c>
       <c r="G412" t="inlineStr">
         <is>
-          <t>De acordo com o **terceiro parágrafo da Página 2**, "a evacuação começou tarde demais, trinta e sete horas depois do acidente".</t>
+          <t>De acordo com o **quarto parágrafo da Página 8**, Armstrong pisou na Lua "tendo seus vagarosos passos observados por milhões de pessoas pela televisão".</t>
         </is>
       </c>
       <c r="H412" t="inlineStr"/>
@@ -16517,32 +16517,32 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Pág 3</t>
+          <t>Pág 1</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>O "Vietnã" Soviético</t>
+          <t>Custos da Guerra do Vietnã</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>A guerra no Afeganistão foi para Moscou o que o Vietnã foi para Washington, solapando o moral do país e gerando ressentimento entre minorias étnicas.</t>
+          <t>Os custos da Guerra do Vietnã e as atividades espaciais deixaram os Estados Unidos operando além de seus limites, tornando um acordo de paz a única solução.</t>
         </is>
       </c>
       <c r="F413" t="inlineStr">
         <is>
-          <t>A guerra no Afeganistão foi um rápido sucesso militar para a União Soviética, fortalecendo o moral do exército e a unidade entre as etnias.</t>
+          <t>A Guerra do Vietnã, apesar das baixas, foi financeiramente irrelevante para os Estados Unidos, permitindo a manutenção tranquila de suas atividades espaciais e militares globais.</t>
         </is>
       </c>
       <c r="G413" t="inlineStr">
         <is>
-          <t>Conforme o **primeiro parágrafo da Página 3**, "Aquela guerra era para Moscou o que o Vietnã havia sido para Washington".</t>
+          <t>Conforme o **primeiro parágrafo da Página 1**, os norte-americanos estavam "espalhados além dos limites... Os custos da Guerra do Vietnã eram altos demais".</t>
         </is>
       </c>
       <c r="H413" t="inlineStr"/>
@@ -16556,32 +16556,32 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Pág 3</t>
+          <t>Pág 1</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>Reformas Econômicas de 1987</t>
+          <t>O Vietnã e a Guerra Fria</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>Em 1987, uma nova lei permitiu que pessoas abrissem empresas privadas, desde que não contratassem empregados.</t>
+          <t>A Guerra do Vietnã representou a última grande vitória dos comunistas ao longo da Guerra Fria.</t>
         </is>
       </c>
       <c r="F414" t="inlineStr">
         <is>
-          <t>A lei de 1987 proibiu terminantemente qualquer forma de empresa privada, reforçando o controle estatal total sobre a economia.</t>
+          <t>A Guerra do Vietnã foi a primeira de uma série ininterrupta de vitórias comunistas que culminou na invasão dos Estados Unidos.</t>
         </is>
       </c>
       <c r="G414" t="inlineStr">
         <is>
-          <t>Segundo o **segundo parágrafo da Página 3**, a lei entrou em vigor "autorizando as pessoas a abrirem empresas privadas, embora sem contratar empregados".</t>
+          <t>Segundo o **segundo parágrafo da Página 1**, "O Vietnã foi a última grande vitória dos comunistas ao longo da Guerra Fria".</t>
         </is>
       </c>
       <c r="H414" t="inlineStr"/>
@@ -16595,32 +16595,32 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Pág 3</t>
+          <t>Pág 1</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>Paradoxos da Crise</t>
+          <t>Percepção dos Líderes Comunistas</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Apesar da crise iminente, os consumidores soviéticos podiam comprar e viajar mais do que no passado, enquanto os EUA sofriam com déficits do programa Guerra nas Estrelas.</t>
+          <t>Para os líderes soviéticos e dos países-satélites, a queda do comunismo era algo inimaginável, dada a exibição de força militar em datas comemorativas.</t>
         </is>
       </c>
       <c r="F415" t="inlineStr">
         <is>
-          <t>A crise soviética impediu qualquer consumo ou viagem, enquanto os Estados Unidos viviam um período de superávit financeiro devido ao cancelamento de programas militares.</t>
+          <t>Os líderes comunistas de Varsóvia e Moscou sabiam que o regime estava condenado e planejavam ativamente a transição para o capitalismo desde o início dos anos 70.</t>
         </is>
       </c>
       <c r="G415" t="inlineStr">
         <is>
-          <t>De acordo com o **quarto parágrafo da Página 3**, "Consumidores podiam comprar mais do que nunca... O governo norte-americano... acumulava déficits anuais".</t>
+          <t>De acordo com o **segundo parágrafo da Página 1**, "A queda do comunismo era inimaginável para os líderes... os quais... perfilavam-se quando os tanques imponentes... desfilavam".</t>
         </is>
       </c>
       <c r="H415" t="inlineStr"/>
@@ -16634,32 +16634,32 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Pág 4</t>
+          <t>Pág 2</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>Origem do Colapso</t>
+          <t>Desigualdade Social Soviética</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>O colapso do comunismo na Europa iniciou-se menos na Rússia do que nos países-satélite, impulsionado por nacionalismo e descontentamento.</t>
+          <t>Havia uma elite de funcionários instalada no topo da escada social, com acesso a limusines e casas de campo, contrastando com a suposta igualdade do regime.</t>
         </is>
       </c>
       <c r="F416" t="inlineStr">
         <is>
-          <t>O colapso do comunismo começou exclusivamente dentro de Moscou, com os países-satélite permanecendo leais e estáveis até o fim da URSS.</t>
+          <t>Na União Soviética da década de 1970, todos os cidadãos, desde o líder do partido até o varredor de ruas, viviam exatamente com o mesmo padrão de conforto e acesso a bens.</t>
         </is>
       </c>
       <c r="G416" t="inlineStr">
         <is>
-          <t>Conforme o **primeiro parágrafo da Página 4**, "O colapso... iniciou-se menos na Rússia do que nos países-satélite".</t>
+          <t>Conforme o **segundo parágrafo da Página 2**, "Algumas centenas de funcionários... estavam confortavelmente instalados bem no topo... privilégios pareciam estranhos em um país onde se supunha que todos fossem iguais".</t>
         </is>
       </c>
       <c r="H416" t="inlineStr"/>
@@ -16673,32 +16673,32 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Pág 4</t>
+          <t>Pág 2</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>Desigualdade no Bloco</t>
+          <t>Economia Paralela e Apatia</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>A Alemanha Oriental tinha o padrão de vida mais alto do bloco, contrastando com a Polônia, onde carne era racionada.</t>
+          <t>A apatia estava em alta e existia uma economia paralela onde, por exemplo, de cada quatro goles de vodca consumidos, um vinha do mercado negro.</t>
         </is>
       </c>
       <c r="F417" t="inlineStr">
         <is>
-          <t>A Polônia era o país mais rico do bloco comunista, enquanto a Alemanha Oriental sofria com racionamento severo de alimentos.</t>
+          <t>A economia soviética era extremamente eficiente e honesta, não havendo registros de mercado negro, roubo de gasolina ou faltas ao trabalho.</t>
         </is>
       </c>
       <c r="G417" t="inlineStr">
         <is>
-          <t>Segundo o **segundo parágrafo da Página 4**, "A Alemanha Oriental dispunha do padrão de vida mais alto... se comparada à Polônia".</t>
+          <t>Segundo o **terceiro parágrafo da Página 2**, "A apatia estava em alta... De cada quatro goles de vodca... um vinha do mercado negro".</t>
         </is>
       </c>
       <c r="H417" t="inlineStr"/>
@@ -16712,32 +16712,32 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Pág 4</t>
+          <t>Pág 2</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>Viagens à Alemanha Ocidental</t>
+          <t>Visão de Brejnev</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>O governo oriental permitiu visitas breves à Alemanha Ocidental, confiando que os viajantes voltariam porque seus familiares ficavam como "reféns".</t>
+          <t>Leonid Brejnev acreditava que a União Soviética não estava estagnada, mas sim competindo vigorosamente com os EUA na corrida espacial e armamentista.</t>
         </is>
       </c>
       <c r="F418" t="inlineStr">
         <is>
-          <t>O governo da Alemanha Oriental abriu as fronteiras sem restrições em 1987, permitindo que famílias inteiras emigrassem sem deixar parentes para trás.</t>
+          <t>Leonid Brejnev admitia publicamente que a União Soviética era um fracasso econômico e militar, buscando render-se aos Estados Unidos.</t>
         </is>
       </c>
       <c r="G418" t="inlineStr">
         <is>
-          <t>De acordo com o **terceiro parágrafo da Página 4**, eles retornavam "porque sabiam que os membros da família que tinham ficado eram praticamente reféns".</t>
+          <t>De acordo com o **terceiro parágrafo da Página 2**, "Brejnev não acreditava que seu país estivesse estagnado. A União Soviética ainda disputava com os Estados Unidos".</t>
         </is>
       </c>
       <c r="H418" t="inlineStr"/>
@@ -16751,32 +16751,32 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Pág 5</t>
+          <t>Pág 3</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>Vitória do Solidariedade</t>
+          <t>Longevidade de Brejnev</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Na Polônia, o sindicato Solidariedade venceu eleições e foi convidado pelo partido comunista a participar do governo em agosto de 1989.</t>
+          <t>Brejnev governou por cerca de dezoito anos, presenciando o mandato de cinco presidentes norte-americanos, o que lhe conferia grande experiência.</t>
         </is>
       </c>
       <c r="F419" t="inlineStr">
         <is>
-          <t>O sindicato Solidariedade foi banido das eleições polonesas de 1989 e seus líderes foram presos pelo partido comunista.</t>
+          <t>Brejnev foi um líder de transição que governou por apenas dois anos, sendo rapidamente substituído devido à sua inexperiência internacional.</t>
         </is>
       </c>
       <c r="G419" t="inlineStr">
         <is>
-          <t>Conforme o **primeiro parágrafo da Página 5**, "Em agosto de 1989, o Solidariedade foi convidado pelo partido comunista a tomar parte no governo".</t>
+          <t>Conforme o **primeiro parágrafo da Página 3**, ele esteve no comando por "algo em torno de dezoito anos... presenciou o mandato de cinco presidente norte-americanos".</t>
         </is>
       </c>
       <c r="H419" t="inlineStr"/>
@@ -16790,32 +16790,32 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Pág 5</t>
+          <t>Pág 3</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>Forças Desagregadoras</t>
+          <t>Alcance dos Mísseis</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Leningrado e Moscou disputavam poder com Gorbachev, e líderes do Cazaquistão e Ucrânia resistiam às suas reformas.</t>
+          <t>Na década de 1970, o alcance dos mísseis intercontinentais aumentou para mais de 8 mil quilômetros, deixando nenhuma cidade a salvo de ataques.</t>
         </is>
       </c>
       <c r="F420" t="inlineStr">
         <is>
-          <t>Todas as repúblicas soviéticas e grandes cidades estavam unidas em apoio total às reformas centralizadoras de Gorbachev.</t>
+          <t>Os mísseis soviéticos e americanos tinham alcance limitado a 500 quilômetros, garantindo a segurança das cidades no interior de ambos os países.</t>
         </is>
       </c>
       <c r="G420" t="inlineStr">
         <is>
-          <t>Segundo o **segundo parágrafo da Página 5**, "chefes de estado... Cazaquistão e Ucrânia - resistiam... Leningrado e Moscou, disputavam um cabo de guerra".</t>
+          <t>Segundo o **segundo parágrafo da Página 3**, a distância aumentou "para mais de 8 mil quilômetros. Por fim, não haveria cidade... que tivesse a salvo".</t>
         </is>
       </c>
       <c r="H420" t="inlineStr"/>
@@ -16829,32 +16829,32 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Pág 5</t>
+          <t>Pág 3</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>Influência de Tiananmen</t>
+          <t>Percepção de Desvantagem dos EUA</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>A repressão na Praça da Paz Celestial gerou temor na Europa Oriental de que tanques pudessem esmagar a revolução contra o comunismo.</t>
+          <t>Negociações vigorosas de Brejnev causaram a impressão em Washington de que os EUA estavam perdendo vantagens militares, apesar dos enormes gastos.</t>
         </is>
       </c>
       <c r="F421" t="inlineStr">
         <is>
-          <t>Os protestos na Praça da Paz Celestial inspiraram os governos comunistas europeus a dialogar pacificamente com os manifestantes.</t>
+          <t>O governo dos EUA estava confiante de que possuía superioridade militar absoluta e que os tratados de 1972 e 1979 eram rendições soviéticas.</t>
         </is>
       </c>
       <c r="G421" t="inlineStr">
         <is>
-          <t>De acordo com o **terceiro parágrafo da Página 5**, muitos "temiam que tanques... pudessem repentinamente surgir... e esmagar a silenciosa revolução".</t>
+          <t>De acordo com o **terceiro parágrafo da Página 3**, isso causou "forte impressão... de que os Estados Unidos estavam perdendo algumas vantagens militares".</t>
         </is>
       </c>
       <c r="H421" t="inlineStr"/>
@@ -16868,32 +16868,32 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Pág 6</t>
+          <t>Pág 4</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Queda do Muro</t>
+          <t>Expansão Soviética</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Em 9 de novembro de 1989, começou-se a abrir buracos no Muro de Berlim, após o governo anunciar a liberdade de saída.</t>
+          <t>A União Soviética aproveitou oportunidades de expansão no Mar Vermelho, Golfo Pérsico, Angola (com apoio cubano) e invadiu o Afeganistão em 1979.</t>
         </is>
       </c>
       <c r="F422" t="inlineStr">
         <is>
-          <t>O Muro de Berlim permaneceu intacto até 1991, quando foi derrubado por forças da OTAN.</t>
+          <t>A União Soviética adotou uma política de isolacionismo total na década de 1970, retirando todas as suas tropas de territórios estrangeiros e focando apenas em questões domésticas.</t>
         </is>
       </c>
       <c r="G422" t="inlineStr">
         <is>
-          <t>Conforme o **primeiro parágrafo da Página 6**, "Na manhã seguinte [ao dia 8 de nov], às 9 horas, escutou-se uma escavadeira abrindo um buraco no muro".</t>
+          <t>Conforme o **primeiro parágrafo da Página 4**, a URSS aumentava poder no "Mar Vermelho e o Golfo Pérsico... Angola... foi tomada... soldados soviéticos entraram no Afeganistão".</t>
         </is>
       </c>
       <c r="H422" t="inlineStr"/>
@@ -16907,32 +16907,32 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Pág 6</t>
+          <t>Pág 4</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Reunificação Alemã</t>
+          <t>O Regime do Camboja</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>As duas Alemanhas uniram-se em 3 de outubro de 1990, com o apoio dos grandes países que antes insistiam na divisão.</t>
+          <t>No Camboja, o regime comunista de Pol Pot foi responsável pela morte de cerca de 2 milhões de pessoas, ou 20% da população, por exaustão, fome e execuções.</t>
         </is>
       </c>
       <c r="F423" t="inlineStr">
         <is>
-          <t>A reunificação da Alemanha foi vetada pelas potências aliadas e só ocorreu de fato no século XXI.</t>
+          <t>O regime comunista do Camboja foi um modelo de desenvolvimento humanitário, erradicando a fome e aumentando a expectativa de vida da população em tempo recorde.</t>
         </is>
       </c>
       <c r="G423" t="inlineStr">
         <is>
-          <t>Segundo o **segundo parágrafo da Página 6**, "As duas Alemanhas finalmente se uniram em 3 de outubro de 1990, tendo o apoio de todos os grandes países".</t>
+          <t>Segundo o **segundo parágrafo da Página 4**, "liderados por Pol Pot... o número de mortos chegava perto dos 2 milhões, ou seja, 20% da população".</t>
         </is>
       </c>
       <c r="H423" t="inlineStr"/>
@@ -16946,32 +16946,32 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Pág 6</t>
+          <t>Pág 4</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>Dissolução da URSS</t>
+          <t>Baluartes do Comunismo</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>A União Soviética deixou de existir em 1991, sendo substituída pela Rússia e novas repúblicas independentes como a Ucrânia.</t>
+          <t>Nos últimos anos de Brejnev, o comunismo parecia vigoroso em países como União Soviética, China, Cuba e Coreia do Norte.</t>
         </is>
       </c>
       <c r="F424" t="inlineStr">
         <is>
-          <t>A União Soviética sobreviveu às crises dos anos 90 e continua a existir como uma federação unificada sob o comando de Gorbachev.</t>
+          <t>Nos últimos anos de Brejnev, o comunismo havia desaparecido de todos os países exceto a União Soviética, que estava isolada politicamente.</t>
         </is>
       </c>
       <c r="G424" t="inlineStr">
         <is>
-          <t>De acordo com o **terceiro parágrafo da Página 6**, "A União Soviética... deixou de existir em 1991. Seu lugar foi tomado pela Rússia... e por uma longa lista de novas repúblicas".</t>
+          <t>De acordo com o **segundo parágrafo da Página 4**, "o comunismo parecia vigoroso. A União Soviética e a China eram seus baluartes e o regime também era forte em Cuba".</t>
         </is>
       </c>
       <c r="H424" t="inlineStr"/>
@@ -16985,32 +16985,32 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Pág 7</t>
+          <t>Pág 5</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>Ruptura Sino-Soviética</t>
+          <t>Exceção Polonesa</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>Por volta de 1960, a divisão entre China e URSS era nítida, evidenciada pelo recuo da Albânia da tutela de Moscou para a de Pequim.</t>
+          <t>A Polônia diferenciava-se de outros satélites pois sua agricultura estava em grande parte na iniciativa privada e a Igreja Católica continuava forte.</t>
         </is>
       </c>
       <c r="F425" t="inlineStr">
         <is>
-          <t>China e União Soviética mantiveram uma aliança inabalável durante toda a Guerra Fria, compartilhando tecnologia nuclear livremente.</t>
+          <t>A Polônia era o mais rígido dos satélites soviéticos, com 100% da agricultura coletivizada e a proibição total de qualquer prática religiosa.</t>
         </is>
       </c>
       <c r="G425" t="inlineStr">
         <is>
-          <t>Conforme o **primeiro parágrafo da Página 7**, "Por volta de 1960, a divisão era nítida... recuo da Albânia, que deixou a tutela de Moscou".</t>
+          <t>Conforme o **primeiro parágrafo da Página 5**, "a agricultura estava... nas mãos da iniciativa privada... a Igreja Católica continuava forte".</t>
         </is>
       </c>
       <c r="H425" t="inlineStr"/>
@@ -17024,32 +17024,32 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Pág 7</t>
+          <t>Pág 5</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>O Grande Salto à Frente</t>
+          <t>Estratégia da Eleição Papal</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>O Grande Salto à Frente de Mao foi um fracasso econômico que resultou em um período de fome com cerca de 30 milhões de mortos.</t>
+          <t>A eleição de um papa polonês foi vista como uma estratégia para enviar os "soldados de Cristo" para o coração do comunismo em um momento crucial.</t>
         </is>
       </c>
       <c r="F426" t="inlineStr">
         <is>
-          <t>O Grande Salto à Frente foi um sucesso estrondoso que modernizou a agricultura chinesa e eliminou a fome no país.</t>
+          <t>A eleição de João Paulo II foi um acidente burocrático, pois o Vaticano preferia manter a tradição de papas italianos para não provocar a União Soviética.</t>
         </is>
       </c>
       <c r="G426" t="inlineStr">
         <is>
-          <t>Segundo o **segundo parágrafo da Página 7**, "seu Grande Salto à Frente foi um salto para trás... fome entre 1959 e 1961 tenha matado em torno de 30 milhões".</t>
+          <t>Segundo o **segundo parágrafo da Página 5**, o Colégio dos Cardeais acreditava que "elegendo um europeu do leste enviariam os soldados de Cristo para o coração do comunismo".</t>
         </is>
       </c>
       <c r="H426" t="inlineStr"/>
@@ -17063,32 +17063,32 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Pág 7</t>
+          <t>Pág 5</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>A Revolução Cultural</t>
+          <t>Visita do Papa à Polônia</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>Em 1966, Mao iniciou a Revolução Cultural, onde Guardas Vermelhos perseguiam autoridades e intelectuais considerados traidores ideológicos.</t>
+          <t>O papa João Paulo II foi recebido por uma multidão estimada em 2 milhões de pessoas na Polônia, demonstrando a força da dissidência religiosa.</t>
         </is>
       </c>
       <c r="F427" t="inlineStr">
         <is>
-          <t>A Revolução Cultural foi um período de renascimento artístico pacífico, onde Mao incentivou o estudo da música ocidental e teorias liberais.</t>
+          <t>A visita do papa à Polônia foi ignorada pela população, que permaneceu fiel ao ateísmo pregado pelo regime comunista.</t>
         </is>
       </c>
       <c r="G427" t="inlineStr">
         <is>
-          <t>De acordo com o **quarto parágrafo da Página 7**, "Mao, em 1966, colocou em prática a turbulenta Revolução Cultural... Grupos de jovens, chamados de guardas vermelhos... perseguição".</t>
+          <t>De acordo com o **terceiro parágrafo da Página 5**, "Uma gigantesca multidão, estimada em 2 milhões de pessoas, reuniu-se ao longo da rota".</t>
         </is>
       </c>
       <c r="H427" t="inlineStr"/>
@@ -17102,32 +17102,32 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Pág 8</t>
+          <t>Pág 6</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>Tensão na Fronteira</t>
+          <t>O Movimento Solidariedade</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>Em 1972, a tensão era tamanha que os russos dispuseram mais divisões de soldados na fronteira com a China do que no Leste Europeu.</t>
+          <t>O Movimento Solidariedade, liderado por Lech Walesa, recrutou milhares de membros e reivindicou o direito à greve, algo inédito em países comunistas.</t>
         </is>
       </c>
       <c r="F428" t="inlineStr">
         <is>
-          <t>A fronteira entre China e Rússia foi desmilitarizada em 1972 como sinal de boa vizinhança e cooperação mútua.</t>
+          <t>O Movimento Solidariedade era um sindicato estatal criado pelo governo polonês para controlar os trabalhadores e impedir greves.</t>
         </is>
       </c>
       <c r="G428" t="inlineStr">
         <is>
-          <t>Conforme o **primeiro parágrafo da Página 8**, "os russos organizaram... 46 divisões... ao longo da fronteira com a China - mais do que haviam colocado no Leste Europeu".</t>
+          <t>Conforme o **primeiro parágrafo da Página 6**, "Surgiu assim... o Movimento Solidariedade... reivindicava o direito à greve - algo que não existia em países comunistas".</t>
         </is>
       </c>
       <c r="H428" t="inlineStr"/>
@@ -17141,32 +17141,32 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Pág 8</t>
+          <t>Pág 6</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>Era Deng Xiaoping</t>
+          <t>Atentado ao Papa</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>Deng Xiaoping buscou modernizar a China e impôs a política do filho único para reduzir o crescimento populacional.</t>
+          <t>O atentado contra o papa em 1981 foi executado por um turco com cumplicidade de búlgaros, havendo suspeitas de apoio de agências soviéticas.</t>
         </is>
       </c>
       <c r="F429" t="inlineStr">
         <is>
-          <t>Deng Xiaoping buscou restaurar o maoísmo ortodoxo, proibindo tecnologias modernas e incentivando grandes famílias rurais.</t>
+          <t>O atentado contra o papa foi realizado por um radical católico descontente com as reformas da igreja, sem qualquer ligação com o bloco comunista.</t>
         </is>
       </c>
       <c r="G429" t="inlineStr">
         <is>
-          <t>Segundo o **segundo parágrafo da Página 8**, Deng "fez o possível para modernizar... Reduziu a taxa de crescimento populacional ao determinar que cada família deveria ter apenas um filho".</t>
+          <t>Segundo o **segundo parágrafo da Página 6**, o criminoso contou com "cúmplices búlgaros... historiadores suspeitam que o ataque também foi apoiado por agências governamentais soviéticas".</t>
         </is>
       </c>
       <c r="H429" t="inlineStr"/>
@@ -17180,32 +17180,32 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Pág 8</t>
+          <t>Pág 6</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>Massacre da Praça da Paz Celestial</t>
+          <t>Lei Marcial na Polônia</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>Em 1989, as forças armadas esmagaram uma revolta na Praça da Paz Celestial, evento amplamente divulgado pela mídia internacional.</t>
+          <t>No fim de 1981, o exército polonês prendeu líderes do Solidariedade e impôs a lei marcial, controlando a dissidência mas não a eliminando.</t>
         </is>
       </c>
       <c r="F430" t="inlineStr">
         <is>
-          <t>A revolta na Praça da Paz Celestial em 1989 resultou em uma transição pacífica de poder, celebrada pela mídia ocidental.</t>
+          <t>O governo polonês aceitou pacificamente as demandas do Solidariedade em 1981, estabelecendo uma democracia plena e dissolvendo o exército.</t>
         </is>
       </c>
       <c r="G430" t="inlineStr">
         <is>
-          <t>De acordo com o **terceiro parágrafo da Página 8**, "forças armadas esmagaram uma pequena revolta... em 4 de junho de 1989... as notícias corriam mundo afora".</t>
+          <t>De acordo com o **terceiro parágrafo da Página 6**, "milhares... foram presos... A lei marcial foi promulgada... A dissidência no país foi controlada, mas não eliminada".</t>
         </is>
       </c>
       <c r="H430" t="inlineStr"/>
@@ -17219,32 +17219,32 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Pág 9</t>
+          <t>Pág 7</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>Investimento da Diáspora</t>
+          <t>Política de Reagan</t>
         </is>
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>A China atraiu capital com facilidade graças aos milhões de chineses no exterior (exceto no Japão e Coreias) que reinvestiram no país.</t>
+          <t>A política de Ronald Reagan combinava impostos mais baixos com maiores investimentos na defesa, incluindo a Iniciativa Estratégica de Defesa.</t>
         </is>
       </c>
       <c r="F431" t="inlineStr">
         <is>
-          <t>A China proibiu qualquer investimento vindo de chineses que viviam no exterior, considerando-os traidores do regime.</t>
+          <t>Ronald Reagan implementou uma política de aumento drástico de impostos para financiar programas sociais, cortando o orçamento militar pela metade.</t>
         </is>
       </c>
       <c r="G431" t="inlineStr">
         <is>
-          <t>Conforme o **primeiro parágrafo da Página 9**, "conseguiu ambos... por conta dos milhões de chineses que viviam no exterior... reinvestiram no país".</t>
+          <t>Conforme o **primeiro parágrafo da Página 7**, "Sua política combinava... impostos mais baixos e maiores investimentos na defesa... Iniciativa Estratégica de Defesa".</t>
         </is>
       </c>
       <c r="H431" t="inlineStr"/>
@@ -17258,32 +17258,32 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Pág 9</t>
+          <t>Pág 7</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>Devolução de Hong Kong</t>
+          <t>Guerra nas Estrelas</t>
         </is>
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>Deng Xiaoping convenceu Margaret Thatcher a devolver Hong Kong, o que se concretizou em 1997.</t>
+          <t>O plano de Reagan, apelidado de Guerra nas Estrelas, visava interceptar ataques de mísseis russos com armas em solo, mar e espaço.</t>
         </is>
       </c>
       <c r="F432" t="inlineStr">
         <is>
-          <t>Margaret Thatcher recusou-se a devolver Hong Kong, que permanece como território britânico até os dias de hoje.</t>
+          <t>O projeto Guerra nas Estrelas era um plano para colonizar Marte em parceria com a União Soviética, desviando o foco da corrida armamentista.</t>
         </is>
       </c>
       <c r="G432" t="inlineStr">
         <is>
-          <t>Segundo o **segundo parágrafo da Página 9**, "convenceu Margaret Thatcher a renunciar a Hong Kong... Em 1997... o retrato da rainha... deixou de ser reproduzido".</t>
+          <t>Segundo o **primeiro parágrafo da Página 7**, "armas norte-americanas... poderiam interceptar qualquer ataque de mísseis russos".</t>
         </is>
       </c>
       <c r="H432" t="inlineStr"/>
@@ -17297,32 +17297,32 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Pág 9</t>
+          <t>Pág 7</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>Isolamento da Coreia do Norte</t>
+          <t>Sucessão Soviética</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>Em 2001, a Coreia do Norte permanecia firmemente comunista e isolada, assemelhando-se a uma "gigantesca gaiola".</t>
+          <t>A morte de Brejnev em 1982 e a curta duração de seus sucessores permitiram que a iniciativa e o senso de comando passassem para os Estados Unidos.</t>
         </is>
       </c>
       <c r="F433" t="inlineStr">
         <is>
-          <t>Em 2001, a Coreia do Norte abriu suas fronteiras e adotou o capitalismo, seguindo o modelo chinês de desenvolvimento.</t>
+          <t>A sucessão de Brejnev foi marcada pelo surgimento imediato de líderes jovens e fortes que recuperaram a iniciativa global para a União Soviética.</t>
         </is>
       </c>
       <c r="G433" t="inlineStr">
         <is>
-          <t>De acordo com o **terceiro parágrafo da Página 9**, "a única nação... firmemente comunista era a Coreia do Norte... O país mais parecia uma gigantesca gaiola".</t>
+          <t>De acordo com o **último parágrafo da Página 7**, "seus sucessores imediatos não duraram, permitindo que a iniciativa... passassem para os Estados Unidos".</t>
         </is>
       </c>
       <c r="H433" t="inlineStr"/>
@@ -17336,32 +17336,32 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Pág 10</t>
+          <t>Pág 8</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>Otimismo dos Anos 90</t>
+          <t>Perfil de Gorbachev</t>
         </is>
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>O fim da Guerra Fria gerou uma crença generalizada de que a democracia e o livre-comércio haviam obtido um triunfo permanente.</t>
+          <t>Mikhail Gorbachev destacou-se pelo raciocínio rápido e chegou ao poder em 1985 após a morte de três predecessores.</t>
         </is>
       </c>
       <c r="F434" t="inlineStr">
         <is>
-          <t>O fim da Guerra Fria gerou pessimismo global, com a certeza de que novas guerras mundiais eram iminentes e inevitáveis.</t>
+          <t>Mikhail Gorbachev era um líder idoso e lento, escolhido por sua lealdade cega às políticas estalinistas de seus antecessores.</t>
         </is>
       </c>
       <c r="G434" t="inlineStr">
         <is>
-          <t>Conforme o **terceiro parágrafo da Página 10**, "Surgiu a crença... Acreditava-se piamente que a democracia e o individualismo... haviam obtido um triunfo permanente".</t>
+          <t>Conforme o **primeiro parágrafo da Página 8**, "Gorbachev se destacava pelo raciocínio rápido... chegou ao poder em março de 1985".</t>
         </is>
       </c>
       <c r="H434" t="inlineStr"/>
@@ -17375,32 +17375,32 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Pág 10</t>
+          <t>Pág 8</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>Internet e Terrorismo</t>
+          <t>Estilo de Raisa Gorbachev</t>
         </is>
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>A expansão da internet aumentou a esperança de entendimento humano, mas ninguém imaginava inicialmente que ela serviria também aos terroristas.</t>
+          <t>Raisa Gorbachev rompeu tabus ao aparecer em palanques e demonstrar estilo e intelectualidade, diferente das esposas dos líderes anteriores.</t>
         </is>
       </c>
       <c r="F435" t="inlineStr">
         <is>
-          <t>A internet foi criada e vista desde o início principalmente como uma ferramenta perigosa de uso exclusivo de grupos terroristas.</t>
+          <t>Raisa Gorbachev manteve-se estritamente nos bastidores, seguindo a tradição soviética de que as esposas dos líderes não deveriam ser vistas.</t>
         </is>
       </c>
       <c r="G435" t="inlineStr">
         <is>
-          <t>Segundo o **quarto parágrafo da Página 10**, "Ninguém imaginava que a internet poderia servir também aos terroristas".</t>
+          <t>Segundo o **segundo parágrafo da Página 8**, "a senhora Gorbachev rompeu esse tabu... primava pela delicadeza e pelo estilo".</t>
         </is>
       </c>
       <c r="H435" t="inlineStr"/>
@@ -17414,32 +17414,32 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Pág 10</t>
+          <t>Pág 8</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>Comparação com 1918</t>
+          <t>Perestroika e Economia</t>
         </is>
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>A paz de 1918 teve impacto limitado geograficamente, enquanto a extinção da Guerra Fria inundou o mundo inteiro de esperanças.</t>
+          <t>Gorbachev percebeu que a economia soviética morosa não podia financiar as gigantescas empreitadas militares, propondo a reestruturação (perestroika).</t>
         </is>
       </c>
       <c r="F436" t="inlineStr">
         <is>
-          <t>A paz de 1918 foi global e duradoura, enquanto o fim da Guerra Fria teve impacto apenas na Europa e América do Norte.</t>
+          <t>Gorbachev acreditava que a economia soviética estava em perfeito estado e que os gastos militares deveriam ser dobrados para vencer os EUA.</t>
         </is>
       </c>
       <c r="G436" t="inlineStr">
         <is>
-          <t>De acordo com o **segundo parágrafo da Página 10**, "A paz surgida em 1918 levou alegria a apenas uma parte do mundo... A extinção da Guerra Fria... inundou o mundo de esperanças".</t>
+          <t>De acordo com o **terceiro parágrafo da Página 8**, "Gorbachev percebeu que uma economia tão morosa dificilmente poderia financiar uma grande empreitada militar... anunciou... a perestroika".</t>
         </is>
       </c>
       <c r="H436" t="inlineStr"/>
@@ -17453,32 +17453,32 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Pág 11</t>
+          <t>Pág 9</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>Origem da União Europeia</t>
+          <t>Motivação para Encontro</t>
         </is>
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>O movimento por uma Europa unida nasceu dos desastres das guerras mundiais e do desejo de evitar novos conflitos.</t>
+          <t>Gorbachev estava ansioso para diminuir gastos com armamentos e via vantagens em reunir-se com Reagan, consciente do perigo nuclear.</t>
         </is>
       </c>
       <c r="F437" t="inlineStr">
         <is>
-          <t>A União Europeia foi criada exclusivamente para competir economicamente com a China, sem relação com as guerras passadas.</t>
+          <t>Gorbachev recusava-se a encontrar Reagan, pois acreditava que a única solução para a Guerra Fria era um ataque nuclear preventivo.</t>
         </is>
       </c>
       <c r="G437" t="inlineStr">
         <is>
-          <t>Conforme o **primeiro parágrafo da Página 11**, "O poder conquistado pelo comunismo russo deveu-se... às guerras... Outro poderoso movimento... nasceu desses conflitos: o sonho de uma Europa unida".</t>
+          <t>Conforme o **primeiro parágrafo da Página 9**, ele estava "ansioso para diminuir os gastos com armamentos, consciente de que o arsenal nuclear... tem o poder de 'erradicar toda a vida'".</t>
         </is>
       </c>
       <c r="H437" t="inlineStr"/>
@@ -17492,32 +17492,32 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Pág 11</t>
+          <t>Pág 9</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>Proposta de Churchill</t>
+          <t>Encontro de Genebra</t>
         </is>
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>Em 1946, Winston Churchill pediu a criação de "uma espécie de Estados Unidos da Europa" em um discurso em Zurique.</t>
+          <t>No encontro de 1985 em Genebra, apesar das diferenças ideológicas, Reagan e Gorbachev chegaram a uma harmonia cautelosa e apertaram as mãos como amigos.</t>
         </is>
       </c>
       <c r="F438" t="inlineStr">
         <is>
-          <t>Winston Churchill foi o maior opositor da união europeia, discursando em 1946 contra qualquer perda de soberania britânica.</t>
+          <t>O encontro de Genebra em 1985 terminou em desastre, com os dois líderes trocando insultos e declarando o fim das relações diplomáticas.</t>
         </is>
       </c>
       <c r="G438" t="inlineStr">
         <is>
-          <t>Segundo o **segundo parágrafo da Página 11**, "Em 1946, em Zurique, pediu a criação de 'uma espécie de Estados Unidos da Europa'".</t>
+          <t>Segundo o **primeiro parágrafo da Página 9**, "Ao longo do dia, chegaram a uma harmonia cautelosa. Gorbachev declarou: 'Apertamos as mãos como amigos'".</t>
         </is>
       </c>
       <c r="H438" t="inlineStr"/>
@@ -17531,32 +17531,32 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Pág 11</t>
+          <t>Pág 9</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>Congresso de Haia</t>
+          <t>Fatores do Fim da Guerra Fria</t>
         </is>
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>O Congresso de Haia reuniu líderes como Jean Monnet e Robert Schuman, vindos de regiões de fronteira marcadas por litígios históricos.</t>
+          <t>O fim da Guerra Fria deveu-se não apenas a Reagan e Gorbachev, mas também a uma sucessão de eventos e mudanças de Riga a Cabul.</t>
         </is>
       </c>
       <c r="F439" t="inlineStr">
         <is>
-          <t>O Congresso de Haia foi um fracasso, pois nenhum líder influente da França ou Alemanha aceitou comparecer.</t>
+          <t>O fim da Guerra Fria foi resultado exclusivo da genialidade de Ronald Reagan, sem qualquer influência das ações de Gorbachev ou eventos locais.</t>
         </is>
       </c>
       <c r="G439" t="inlineStr">
         <is>
-          <t>De acordo com o **segundo parágrafo da Página 11**, "presidiu o Congresso da Europa... Monnet... Schuman... Era significativo que três deles viessem de regiões fronteiriças".</t>
+          <t>De acordo com o **segundo parágrafo da Página 9**, "Igualmente importantes foram a sucessão de eventos e as mudanças quase imperceptíveis que aconteciam de Riga a Cabul".</t>
         </is>
       </c>
       <c r="H439" t="inlineStr"/>
@@ -17570,7 +17570,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Pág 12</t>
+          <t>Pág 1</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -17580,22 +17580,22 @@
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>Expansão da CEE</t>
+          <t>O Acordo de Helsinque</t>
         </is>
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>Na década de 1980, a entrada de Grécia, Portugal e Espanha significou que mais da metade das nações a oeste da cortina de ferro pertencia ao grupo.</t>
+          <t>Assinado em 1975, o Acordo de Helsinque pareceu um passo em direção aos direitos humanos e enfraqueceu a crença comunista na soberania absoluta sobre suas fronteiras.</t>
         </is>
       </c>
       <c r="F440" t="inlineStr">
         <is>
-          <t>Grécia, Portugal e Espanha foram impedidos de entrar na Comunidade Econômica Europeia por serem considerados pobres demais.</t>
+          <t>O Acordo de Helsinque, assinado em 1975, fortaleceu o controle soviético, validando a tese de que os comunistas podiam fazer o que quisessem dentro de suas fronteiras sem críticas externas.</t>
         </is>
       </c>
       <c r="G440" t="inlineStr">
         <is>
-          <t>Conforme o **segundo parágrafo da Página 12**, "com a entrada de três países mais pobres - Grécia, Portugal e Espanha -, mais da metade das nações... pertencia ao grupo".</t>
+          <t>Conforme o **primeiro parágrafo da Página 1**, o gesto enfraqueceu a crença de que "tinham o direito de fazer o que bem entendessem dentro de suas fronteiras".</t>
         </is>
       </c>
       <c r="H440" t="inlineStr"/>
@@ -17609,7 +17609,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Pág 12</t>
+          <t>Pág 1</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -17619,22 +17619,22 @@
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>Política Agrícola</t>
+          <t>Desgaste do Ideal Comunista</t>
         </is>
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>A política agrícola europeia gerou excedentes, acumulando estoques de manteiga, grãos e vinho e eliminando a necessidade de importação.</t>
+          <t>Nos primeiros anos de Gorbachev, o zelo religioso pelo comunismo diminuía, e líderes corruptos minavam a retórica de abnegação pelo bem da comunidade.</t>
         </is>
       </c>
       <c r="F441" t="inlineStr">
         <is>
-          <t>A política agrícola europeia falhou em garantir a autossuficiência, obrigando o bloco a importar a maior parte de seus alimentos.</t>
+          <t>Nos primeiros anos de Gorbachev, o fervor ideológico pelo comunismo atingiu seu auge, com líderes locais dando exemplos estritos de honestidade e abnegação.</t>
         </is>
       </c>
       <c r="G441" t="inlineStr">
         <is>
-          <t>Segundo o **segundo parágrafo da Página 12**, "acumulava... incríveis estoques de excedentes de manteiga, grãos e vinho, eliminando, assim, a necessidade de importação".</t>
+          <t>Segundo o **segundo parágrafo da Página 1**, "O zelo quase religioso pelo comunismo já não era mais o mesmo... líderes políticos locais eram corruptos".</t>
         </is>
       </c>
       <c r="H441" t="inlineStr"/>
@@ -17648,7 +17648,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>Pág 12</t>
+          <t>Pág 1</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -17658,22 +17658,22 @@
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>Estrutura da União</t>
+          <t>Opinião dos Intelectuais</t>
         </is>
       </c>
       <c r="E442" t="inlineStr">
         <is>
-          <t>A união europeia funcionava como uma "meia federação", com mercado comum e parlamento, mas sem exército ou política externa comum.</t>
+          <t>Intelectuais como o poeta Yevtushenko criticavam o sistema de passaportes internos e filas, considerando a URSS um fracasso em muitos aspectos.</t>
         </is>
       </c>
       <c r="F442" t="inlineStr">
         <is>
-          <t>A União Europeia tornou-se uma federação completa no século XX, com um exército único substituindo as forças nacionais.</t>
+          <t>Intelectuais russos defendiam vigorosamente o sistema de passaportes internos como uma medida necessária de segurança, elogiando a qualidade de vida soviética.</t>
         </is>
       </c>
       <c r="G442" t="inlineStr">
         <is>
-          <t>De acordo com o **terceiro parágrafo da Página 12**, "não tinha exército nem uma política externa comum... funcionava com uma espécie de meia federação".</t>
+          <t>De acordo com o **terceiro parágrafo da Página 1**, Yevtushenko dizia que o país era um fracasso e que passaportes eram "indícios vergonhosos de escravidão".</t>
         </is>
       </c>
       <c r="H442" t="inlineStr"/>
@@ -17687,32 +17687,32 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>Pág. 1</t>
+          <t>Pág 2</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>Geopolítica do Petróleo</t>
+          <t>Poluição por Petróleo</t>
         </is>
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t>O Oriente Médio, a África do Norte, a Nigéria e a Indonésia possuíam, ao todo, mais da metade das reservas mundiais de petróleo.</t>
+          <t>Constatou-se que a quantidade de petróleo lançada em terras russas em alguns dias superava a perda do desastre do Exxon Valdez no Alasca.</t>
         </is>
       </c>
       <c r="F443" t="inlineStr">
         <is>
-          <t>As nações islâmicas possuíam poucas reservas de petróleo, sendo que a maioria dos campos conhecidos estava localizada na Europa Ocidental e nos Estados Unidos.</t>
+          <t>A União Soviética possuía um sistema de oleodutos impecável, não registrando vazamentos significativos em comparação aos desastres ocidentais como o Exxon Valdez.</t>
         </is>
       </c>
       <c r="G443" t="inlineStr">
         <is>
-          <t>Conforme o **segundo parágrafo da Página 1**, essas regiões "possuíam, ao todo, mais da metade das reservas mundiais de petróleo".</t>
+          <t>Conforme o **primeiro parágrafo da Página 2**, "mais petróleo era lançado em terras russas em alguns dias do que a quantidade perdida pelo... Exxon Valdez".</t>
         </is>
       </c>
       <c r="H443" t="inlineStr"/>
@@ -17726,32 +17726,32 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Pág. 1</t>
+          <t>Pág 2</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>Ressurgimento Político do Islã</t>
+          <t>Degradação dos Corpos Hídricos</t>
         </is>
       </c>
       <c r="E444" t="inlineStr">
         <is>
-          <t>Na década de 1960, nações que pouco tempo antes haviam se tornado independentes, como Paquistão e Indonésia, desfraldavam a bandeira do Islã.</t>
+          <t>O esturjão quase desapareceu do Rio Volga e o Lago Baikal estava ameaçado por resíduos de fábricas de papel.</t>
         </is>
       </c>
       <c r="F444" t="inlineStr">
         <is>
-          <t>Na década de 1960, os países islâmicos abandonaram sua identidade religiosa para adotar modelos puramente seculares europeus, rejeitando símbolos como a Lua crescente.</t>
+          <t>O Rio Volga e o Lago Baikal eram exemplos de preservação ambiental, com populações de esturjão em crescimento e águas livres de resíduos industriais.</t>
         </is>
       </c>
       <c r="G444" t="inlineStr">
         <is>
-          <t>Segundo o **primeiro parágrafo da Página 1**, na década de 1960, nações independentes "desfraldavam cada vez mais a bandeira na qual se via a Lua crescente".</t>
+          <t>Segundo o **segundo parágrafo da Página 2**, "O esturjão... quase desapareceu... O Baikal... estava ameaçado pelos resíduos".</t>
         </is>
       </c>
       <c r="H444" t="inlineStr"/>
@@ -17765,32 +17765,32 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>Pág. 1</t>
+          <t>Pág 2</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>Choque do Petróleo de 1973</t>
+          <t>O Desastre de Chernobyl</t>
         </is>
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>Em 1973, liderados pelos árabes, os produtores aumentaram o preço do petróleo e impediram o envio para nações que apoiavam Israel.</t>
+          <t>O acidente de Chernobyl (1986) foi agravado pela evacuação tardia, iniciada trinta e sete horas depois, expondo milhões de pessoas à radiação.</t>
         </is>
       </c>
       <c r="F445" t="inlineStr">
         <is>
-          <t>Em 1973, os produtores árabes decidiram baixar o preço do petróleo para apoiar as economias ocidentais e fortalecer os laços com Israel.</t>
+          <t>O acidente de Chernobyl foi contido tão rapidamente quanto o de Three Mile Island, com a população sendo evacuada imediatamente após a explosão.</t>
         </is>
       </c>
       <c r="G445" t="inlineStr">
         <is>
-          <t>De acordo com o **terceiro parágrafo da Página 1**, "Em 1973... aumentaram vertiginosamente o preço... além de impedirem que fosse levado para nações que apoiavam Israel".</t>
+          <t>De acordo com o **terceiro parágrafo da Página 2**, "a evacuação começou tarde demais, trinta e sete horas depois do acidente".</t>
         </is>
       </c>
       <c r="H445" t="inlineStr"/>
@@ -17804,32 +17804,32 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Pág. 2</t>
+          <t>Pág 3</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>Divergências Culturais</t>
+          <t>O "Vietnã" Soviético</t>
         </is>
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>O Islã deplorava as rápidas mudanças e a moral frouxa do Ocidente, enquanto o Ocidente deplorava a lentidão das mudanças e a falta de liberdades no Islã.</t>
+          <t>A guerra no Afeganistão foi para Moscou o que o Vietnã foi para Washington, solapando o moral do país e gerando ressentimento entre minorias étnicas.</t>
         </is>
       </c>
       <c r="F446" t="inlineStr">
         <is>
-          <t>O Islã adotou entusiasticamente o consumismo e a moral sexual do Ocidente, enquanto as nações cristãs se tornaram mais rígidas e conservadoras no século XX.</t>
+          <t>A guerra no Afeganistão foi um rápido sucesso militar para a União Soviética, fortalecendo o moral do exército e a unidade entre as etnias.</t>
         </is>
       </c>
       <c r="G446" t="inlineStr">
         <is>
-          <t>Conforme o **segundo parágrafo da Página 2**, "O Islã deplorava as rápidas mudanças do Ocidente, e o Ocidente deplorava a lentidão das mudanças no Islã".</t>
+          <t>Conforme o **primeiro parágrafo da Página 3**, "Aquela guerra era para Moscou o que o Vietnã havia sido para Washington".</t>
         </is>
       </c>
       <c r="H446" t="inlineStr"/>
@@ -17843,32 +17843,32 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Pág. 2</t>
+          <t>Pág 3</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>Revolução Iraniana</t>
+          <t>Reformas Econômicas de 1987</t>
         </is>
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>O aiatolá Khomeini criou uma república teocrática no Irã onde a pena de morte era largamente empregada contra dissidência política e religiosa.</t>
+          <t>Em 1987, uma nova lei permitiu que pessoas abrissem empresas privadas, desde que não contratassem empregados.</t>
         </is>
       </c>
       <c r="F447" t="inlineStr">
         <is>
-          <t>O aiatolá Khomeini estabeleceu uma democracia secular no Irã, abolindo a pena de morte e promovendo a total separação entre religião e estado.</t>
+          <t>A lei de 1987 proibiu terminantemente qualquer forma de empresa privada, reforçando o controle estatal total sobre a economia.</t>
         </is>
       </c>
       <c r="G447" t="inlineStr">
         <is>
-          <t>Segundo o **quinto parágrafo da Página 2**, Khomeini criou "uma república teocrática na qual a pena de morte era largamente empregada".</t>
+          <t>Segundo o **segundo parágrafo da Página 3**, a lei entrou em vigor "autorizando as pessoas a abrirem empresas privadas, embora sem contratar empregados".</t>
         </is>
       </c>
       <c r="H447" t="inlineStr"/>
@@ -17882,32 +17882,32 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Pág. 2</t>
+          <t>Pág 3</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>Crescimento Demográfico Islâmico</t>
+          <t>Paradoxos da Crise</t>
         </is>
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>Em um século, a população muçulmana cresceu de 12% para 18% do total global, superando a soma de hinduístas e budistas.</t>
+          <t>Apesar da crise iminente, os consumidores soviéticos podiam comprar e viajar mais do que no passado, enquanto os EUA sofriam com déficits do programa Guerra nas Estrelas.</t>
         </is>
       </c>
       <c r="F448" t="inlineStr">
         <is>
-          <t>O número de fiéis muçulmanos diminuiu drasticamente ao longo do século XX, tornando-se uma minoria insignificante em comparação aos budistas.</t>
+          <t>A crise soviética impediu qualquer consumo ou viagem, enquanto os Estados Unidos viviam um período de superávit financeiro devido ao cancelamento de programas militares.</t>
         </is>
       </c>
       <c r="G448" t="inlineStr">
         <is>
-          <t>De acordo com o **terceiro parágrafo da Página 2**, "Em 1893, os muçulmanos representavam cerca de 12%... um século mais tarde, esse índice havia chegado aos 18%".</t>
+          <t>De acordo com o **quarto parágrafo da Página 3**, "Consumidores podiam comprar mais do que nunca... O governo norte-americano... acumulava déficits anuais".</t>
         </is>
       </c>
       <c r="H448" t="inlineStr"/>
@@ -17921,32 +17921,32 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Pág. 2 (seq.)</t>
+          <t>Pág 4</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>Aliança EUA-Arábia Saudita</t>
+          <t>Origem do Colapso</t>
         </is>
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>Os Estados Unidos e a Arábia Saudita mantinham uma relação onde um fornecia petróleo e o outro proteção militar, apesar das diferenças culturais.</t>
+          <t>O colapso do comunismo na Europa iniciou-se menos na Rússia do que nos países-satélite, impulsionado por nacionalismo e descontentamento.</t>
         </is>
       </c>
       <c r="F449" t="inlineStr">
         <is>
-          <t>Os Estados Unidos recusaram qualquer aliança com a Arábia Saudita devido às diferenças religiosas, proibindo a importação de petróleo saudita.</t>
+          <t>O colapso do comunismo começou exclusivamente dentro de Moscou, com os países-satélite permanecendo leais e estáveis até o fim da URSS.</t>
         </is>
       </c>
       <c r="G449" t="inlineStr">
         <is>
-          <t>Conforme o **terceiro parágrafo da seção Fervor e Petróleo**, "Os dois países trabalhavam harmoniosamente, um fornecendo o petróleo, e o outro, proteção militar".</t>
+          <t>Conforme o **primeiro parágrafo da Página 4**, "O colapso... iniciou-se menos na Rússia do que nos países-satélite".</t>
         </is>
       </c>
       <c r="H449" t="inlineStr"/>
@@ -17960,32 +17960,32 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Pág. 2 (seq.)</t>
+          <t>Pág 4</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t>Origens de Bin Laden</t>
+          <t>Desigualdade no Bloco</t>
         </is>
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>Osama Bin Laden era membro de uma rica família saudita do ramo da construção civil e lutou contra os soviéticos no Afeganistão.</t>
+          <t>A Alemanha Oriental tinha o padrão de vida mais alto do bloco, contrastando com a Polônia, onde carne era racionada.</t>
         </is>
       </c>
       <c r="F450" t="inlineStr">
         <is>
-          <t>Osama Bin Laden era um camponês pobre do Afeganistão que nunca teve contato com a riqueza ou com a família real saudita.</t>
+          <t>A Polônia era o país mais rico do bloco comunista, enquanto a Alemanha Oriental sofria com racionamento severo de alimentos.</t>
         </is>
       </c>
       <c r="G450" t="inlineStr">
         <is>
-          <t>Segundo o **segundo parágrafo da seção Mais e Mais Terroristas**, ele era "Uma das 57 crianças de uma rica família saudita... membro ativo no combate contra as tropas soviéticas".</t>
+          <t>Segundo o **segundo parágrafo da Página 4**, "A Alemanha Oriental dispunha do padrão de vida mais alto... se comparada à Polônia".</t>
         </is>
       </c>
       <c r="H450" t="inlineStr"/>
@@ -17999,32 +17999,32 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Pág. 2 (seq.)</t>
+          <t>Pág 4</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>Ataques de 11 de Setembro</t>
+          <t>Viagens à Alemanha Ocidental</t>
         </is>
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>Os ataques de 11 de setembro foram executados por 19 sequestradores, utilizando quatro aviões comerciais para atingir Nova York, o Pentágono e um campo na Pensilvânia.</t>
+          <t>O governo oriental permitiu visitas breves à Alemanha Ocidental, confiando que os viajantes voltariam porque seus familiares ficavam como "reféns".</t>
         </is>
       </c>
       <c r="F451" t="inlineStr">
         <is>
-          <t>O ataque de 11 de setembro foi realizado por mísseis disparados de navios no oceano, sem o uso de aviões ou sequestradores suicidas.</t>
+          <t>O governo da Alemanha Oriental abriu as fronteiras sem restrições em 1987, permitindo que famílias inteiras emigrassem sem deixar parentes para trás.</t>
         </is>
       </c>
       <c r="G451" t="inlineStr">
         <is>
-          <t>De acordo com o **texto da seção Nova York, 11 de Setembro**, "19 passageiros incomuns... Os quatro aviões iriam voar... atingindo a segunda torre... colidiu contra o Pentágono".</t>
+          <t>De acordo com o **terceiro parágrafo da Página 4**, eles retornavam "porque sabiam que os membros da família que tinham ficado eram praticamente reféns".</t>
         </is>
       </c>
       <c r="H451" t="inlineStr"/>
@@ -18038,32 +18038,32 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>Pág. 2 (seq.)</t>
+          <t>Pág 5</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>Impacto Simbólico dos Ataques</t>
+          <t>Vitória do Solidariedade</t>
         </is>
       </c>
       <c r="E452" t="inlineStr">
         <is>
-          <t>O aspecto teatral do ataque ao World Trade Center foi tão impactante que fez a conquista da Lua parecer um evento de menor importância.</t>
+          <t>Na Polônia, o sindicato Solidariedade venceu eleições e foi convidado pelo partido comunista a participar do governo em agosto de 1989.</t>
         </is>
       </c>
       <c r="F452" t="inlineStr">
         <is>
-          <t>O ataque ao World Trade Center teve pouca repercussão visual, sendo considerado um evento midiático menor comparado à conquista da Lua.</t>
+          <t>O sindicato Solidariedade foi banido das eleições polonesas de 1989 e seus líderes foram presos pelo partido comunista.</t>
         </is>
       </c>
       <c r="G452" t="inlineStr">
         <is>
-          <t>Conforme o **segundo parágrafo da seção final (após o relato do ataque)**, "O aspecto completamente teatral do ataque... fez a conquista da lua parecer um acontecimento quase sem importância".</t>
+          <t>Conforme o **primeiro parágrafo da Página 5**, "Em agosto de 1989, o Solidariedade foi convidado pelo partido comunista a tomar parte no governo".</t>
         </is>
       </c>
       <c r="H452" t="inlineStr"/>
@@ -18077,36 +18077,1323 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Pág. 2 (seq.)</t>
+          <t>Pág 5</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>Destruição Cultural pelo Talibã</t>
+          <t>Forças Desagregadoras</t>
         </is>
       </c>
       <c r="E453" t="inlineStr">
         <is>
-          <t>Em 2001, o Talibã destruiu com canhões e foguetes duas enormes estátuas de Buda em Bamiyan, considerando-as um sacrilégio.</t>
+          <t>Leningrado e Moscou disputavam poder com Gorbachev, e líderes do Cazaquistão e Ucrânia resistiam às suas reformas.</t>
         </is>
       </c>
       <c r="F453" t="inlineStr">
         <is>
-          <t>O Talibã preservou e restaurou as estátuas de Buda em Bamiyan em 2001, buscando promover o turismo e a tolerância religiosa no Afeganistão.</t>
+          <t>Todas as repúblicas soviéticas e grandes cidades estavam unidas em apoio total às reformas centralizadoras de Gorbachev.</t>
         </is>
       </c>
       <c r="G453" t="inlineStr">
         <is>
-          <t>Segundo o **terceiro parágrafo da seção final**, "membros do Talibã decidiram que as estátuas eram um sacrilégio... e destruíram suas faces... com canhões e foguetes".</t>
+          <t>Segundo o **segundo parágrafo da Página 5**, "chefes de estado... Cazaquistão e Ucrânia - resistiam... Leningrado e Moscou, disputavam um cabo de guerra".</t>
         </is>
       </c>
       <c r="H453" t="inlineStr"/>
       <c r="I453" t="inlineStr"/>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>Pág 5</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>Influência de Tiananmen</t>
+        </is>
+      </c>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>A repressão na Praça da Paz Celestial gerou temor na Europa Oriental de que tanques pudessem esmagar a revolução contra o comunismo.</t>
+        </is>
+      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>Os protestos na Praça da Paz Celestial inspiraram os governos comunistas europeus a dialogar pacificamente com os manifestantes.</t>
+        </is>
+      </c>
+      <c r="G454" t="inlineStr">
+        <is>
+          <t>De acordo com o **terceiro parágrafo da Página 5**, muitos "temiam que tanques... pudessem repentinamente surgir... e esmagar a silenciosa revolução".</t>
+        </is>
+      </c>
+      <c r="H454" t="inlineStr"/>
+      <c r="I454" t="inlineStr"/>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>Pág 6</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>Queda do Muro</t>
+        </is>
+      </c>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>Em 9 de novembro de 1989, começou-se a abrir buracos no Muro de Berlim, após o governo anunciar a liberdade de saída.</t>
+        </is>
+      </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>O Muro de Berlim permaneceu intacto até 1991, quando foi derrubado por forças da OTAN.</t>
+        </is>
+      </c>
+      <c r="G455" t="inlineStr">
+        <is>
+          <t>Conforme o **primeiro parágrafo da Página 6**, "Na manhã seguinte [ao dia 8 de nov], às 9 horas, escutou-se uma escavadeira abrindo um buraco no muro".</t>
+        </is>
+      </c>
+      <c r="H455" t="inlineStr"/>
+      <c r="I455" t="inlineStr"/>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>Pág 6</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>Reunificação Alemã</t>
+        </is>
+      </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>As duas Alemanhas uniram-se em 3 de outubro de 1990, com o apoio dos grandes países que antes insistiam na divisão.</t>
+        </is>
+      </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>A reunificação da Alemanha foi vetada pelas potências aliadas e só ocorreu de fato no século XXI.</t>
+        </is>
+      </c>
+      <c r="G456" t="inlineStr">
+        <is>
+          <t>Segundo o **segundo parágrafo da Página 6**, "As duas Alemanhas finalmente se uniram em 3 de outubro de 1990, tendo o apoio de todos os grandes países".</t>
+        </is>
+      </c>
+      <c r="H456" t="inlineStr"/>
+      <c r="I456" t="inlineStr"/>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>Pág 6</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>Dissolução da URSS</t>
+        </is>
+      </c>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>A União Soviética deixou de existir em 1991, sendo substituída pela Rússia e novas repúblicas independentes como a Ucrânia.</t>
+        </is>
+      </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>A União Soviética sobreviveu às crises dos anos 90 e continua a existir como uma federação unificada sob o comando de Gorbachev.</t>
+        </is>
+      </c>
+      <c r="G457" t="inlineStr">
+        <is>
+          <t>De acordo com o **terceiro parágrafo da Página 6**, "A União Soviética... deixou de existir em 1991. Seu lugar foi tomado pela Rússia... e por uma longa lista de novas repúblicas".</t>
+        </is>
+      </c>
+      <c r="H457" t="inlineStr"/>
+      <c r="I457" t="inlineStr"/>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>Pág 7</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>Ruptura Sino-Soviética</t>
+        </is>
+      </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>Por volta de 1960, a divisão entre China e URSS era nítida, evidenciada pelo recuo da Albânia da tutela de Moscou para a de Pequim.</t>
+        </is>
+      </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>China e União Soviética mantiveram uma aliança inabalável durante toda a Guerra Fria, compartilhando tecnologia nuclear livremente.</t>
+        </is>
+      </c>
+      <c r="G458" t="inlineStr">
+        <is>
+          <t>Conforme o **primeiro parágrafo da Página 7**, "Por volta de 1960, a divisão era nítida... recuo da Albânia, que deixou a tutela de Moscou".</t>
+        </is>
+      </c>
+      <c r="H458" t="inlineStr"/>
+      <c r="I458" t="inlineStr"/>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>Pág 7</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>O Grande Salto à Frente</t>
+        </is>
+      </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>O Grande Salto à Frente de Mao foi um fracasso econômico que resultou em um período de fome com cerca de 30 milhões de mortos.</t>
+        </is>
+      </c>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>O Grande Salto à Frente foi um sucesso estrondoso que modernizou a agricultura chinesa e eliminou a fome no país.</t>
+        </is>
+      </c>
+      <c r="G459" t="inlineStr">
+        <is>
+          <t>Segundo o **segundo parágrafo da Página 7**, "seu Grande Salto à Frente foi um salto para trás... fome entre 1959 e 1961 tenha matado em torno de 30 milhões".</t>
+        </is>
+      </c>
+      <c r="H459" t="inlineStr"/>
+      <c r="I459" t="inlineStr"/>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>Pág 7</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>A Revolução Cultural</t>
+        </is>
+      </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>Em 1966, Mao iniciou a Revolução Cultural, onde Guardas Vermelhos perseguiam autoridades e intelectuais considerados traidores ideológicos.</t>
+        </is>
+      </c>
+      <c r="F460" t="inlineStr">
+        <is>
+          <t>A Revolução Cultural foi um período de renascimento artístico pacífico, onde Mao incentivou o estudo da música ocidental e teorias liberais.</t>
+        </is>
+      </c>
+      <c r="G460" t="inlineStr">
+        <is>
+          <t>De acordo com o **quarto parágrafo da Página 7**, "Mao, em 1966, colocou em prática a turbulenta Revolução Cultural... Grupos de jovens, chamados de guardas vermelhos... perseguição".</t>
+        </is>
+      </c>
+      <c r="H460" t="inlineStr"/>
+      <c r="I460" t="inlineStr"/>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>Pág 8</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>Tensão na Fronteira</t>
+        </is>
+      </c>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>Em 1972, a tensão era tamanha que os russos dispuseram mais divisões de soldados na fronteira com a China do que no Leste Europeu.</t>
+        </is>
+      </c>
+      <c r="F461" t="inlineStr">
+        <is>
+          <t>A fronteira entre China e Rússia foi desmilitarizada em 1972 como sinal de boa vizinhança e cooperação mútua.</t>
+        </is>
+      </c>
+      <c r="G461" t="inlineStr">
+        <is>
+          <t>Conforme o **primeiro parágrafo da Página 8**, "os russos organizaram... 46 divisões... ao longo da fronteira com a China - mais do que haviam colocado no Leste Europeu".</t>
+        </is>
+      </c>
+      <c r="H461" t="inlineStr"/>
+      <c r="I461" t="inlineStr"/>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>Pág 8</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>Era Deng Xiaoping</t>
+        </is>
+      </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>Deng Xiaoping buscou modernizar a China e impôs a política do filho único para reduzir o crescimento populacional.</t>
+        </is>
+      </c>
+      <c r="F462" t="inlineStr">
+        <is>
+          <t>Deng Xiaoping buscou restaurar o maoísmo ortodoxo, proibindo tecnologias modernas e incentivando grandes famílias rurais.</t>
+        </is>
+      </c>
+      <c r="G462" t="inlineStr">
+        <is>
+          <t>Segundo o **segundo parágrafo da Página 8**, Deng "fez o possível para modernizar... Reduziu a taxa de crescimento populacional ao determinar que cada família deveria ter apenas um filho".</t>
+        </is>
+      </c>
+      <c r="H462" t="inlineStr"/>
+      <c r="I462" t="inlineStr"/>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>Pág 8</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>Massacre da Praça da Paz Celestial</t>
+        </is>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>Em 1989, as forças armadas esmagaram uma revolta na Praça da Paz Celestial, evento amplamente divulgado pela mídia internacional.</t>
+        </is>
+      </c>
+      <c r="F463" t="inlineStr">
+        <is>
+          <t>A revolta na Praça da Paz Celestial em 1989 resultou em uma transição pacífica de poder, celebrada pela mídia ocidental.</t>
+        </is>
+      </c>
+      <c r="G463" t="inlineStr">
+        <is>
+          <t>De acordo com o **terceiro parágrafo da Página 8**, "forças armadas esmagaram uma pequena revolta... em 4 de junho de 1989... as notícias corriam mundo afora".</t>
+        </is>
+      </c>
+      <c r="H463" t="inlineStr"/>
+      <c r="I463" t="inlineStr"/>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>Pág 9</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>Investimento da Diáspora</t>
+        </is>
+      </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>A China atraiu capital com facilidade graças aos milhões de chineses no exterior (exceto no Japão e Coreias) que reinvestiram no país.</t>
+        </is>
+      </c>
+      <c r="F464" t="inlineStr">
+        <is>
+          <t>A China proibiu qualquer investimento vindo de chineses que viviam no exterior, considerando-os traidores do regime.</t>
+        </is>
+      </c>
+      <c r="G464" t="inlineStr">
+        <is>
+          <t>Conforme o **primeiro parágrafo da Página 9**, "conseguiu ambos... por conta dos milhões de chineses que viviam no exterior... reinvestiram no país".</t>
+        </is>
+      </c>
+      <c r="H464" t="inlineStr"/>
+      <c r="I464" t="inlineStr"/>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>Pág 9</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>Devolução de Hong Kong</t>
+        </is>
+      </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>Deng Xiaoping convenceu Margaret Thatcher a devolver Hong Kong, o que se concretizou em 1997.</t>
+        </is>
+      </c>
+      <c r="F465" t="inlineStr">
+        <is>
+          <t>Margaret Thatcher recusou-se a devolver Hong Kong, que permanece como território britânico até os dias de hoje.</t>
+        </is>
+      </c>
+      <c r="G465" t="inlineStr">
+        <is>
+          <t>Segundo o **segundo parágrafo da Página 9**, "convenceu Margaret Thatcher a renunciar a Hong Kong... Em 1997... o retrato da rainha... deixou de ser reproduzido".</t>
+        </is>
+      </c>
+      <c r="H465" t="inlineStr"/>
+      <c r="I465" t="inlineStr"/>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>Pág 9</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>Isolamento da Coreia do Norte</t>
+        </is>
+      </c>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>Em 2001, a Coreia do Norte permanecia firmemente comunista e isolada, assemelhando-se a uma "gigantesca gaiola".</t>
+        </is>
+      </c>
+      <c r="F466" t="inlineStr">
+        <is>
+          <t>Em 2001, a Coreia do Norte abriu suas fronteiras e adotou o capitalismo, seguindo o modelo chinês de desenvolvimento.</t>
+        </is>
+      </c>
+      <c r="G466" t="inlineStr">
+        <is>
+          <t>De acordo com o **terceiro parágrafo da Página 9**, "a única nação... firmemente comunista era a Coreia do Norte... O país mais parecia uma gigantesca gaiola".</t>
+        </is>
+      </c>
+      <c r="H466" t="inlineStr"/>
+      <c r="I466" t="inlineStr"/>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>Pág 10</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>Otimismo dos Anos 90</t>
+        </is>
+      </c>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>O fim da Guerra Fria gerou uma crença generalizada de que a democracia e o livre-comércio haviam obtido um triunfo permanente.</t>
+        </is>
+      </c>
+      <c r="F467" t="inlineStr">
+        <is>
+          <t>O fim da Guerra Fria gerou pessimismo global, com a certeza de que novas guerras mundiais eram iminentes e inevitáveis.</t>
+        </is>
+      </c>
+      <c r="G467" t="inlineStr">
+        <is>
+          <t>Conforme o **terceiro parágrafo da Página 10**, "Surgiu a crença... Acreditava-se piamente que a democracia e o individualismo... haviam obtido um triunfo permanente".</t>
+        </is>
+      </c>
+      <c r="H467" t="inlineStr"/>
+      <c r="I467" t="inlineStr"/>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>Pág 10</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>Internet e Terrorismo</t>
+        </is>
+      </c>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>A expansão da internet aumentou a esperança de entendimento humano, mas ninguém imaginava inicialmente que ela serviria também aos terroristas.</t>
+        </is>
+      </c>
+      <c r="F468" t="inlineStr">
+        <is>
+          <t>A internet foi criada e vista desde o início principalmente como uma ferramenta perigosa de uso exclusivo de grupos terroristas.</t>
+        </is>
+      </c>
+      <c r="G468" t="inlineStr">
+        <is>
+          <t>Segundo o **quarto parágrafo da Página 10**, "Ninguém imaginava que a internet poderia servir também aos terroristas".</t>
+        </is>
+      </c>
+      <c r="H468" t="inlineStr"/>
+      <c r="I468" t="inlineStr"/>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>Pág 10</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>Comparação com 1918</t>
+        </is>
+      </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>A paz de 1918 teve impacto limitado geograficamente, enquanto a extinção da Guerra Fria inundou o mundo inteiro de esperanças.</t>
+        </is>
+      </c>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t>A paz de 1918 foi global e duradoura, enquanto o fim da Guerra Fria teve impacto apenas na Europa e América do Norte.</t>
+        </is>
+      </c>
+      <c r="G469" t="inlineStr">
+        <is>
+          <t>De acordo com o **segundo parágrafo da Página 10**, "A paz surgida em 1918 levou alegria a apenas uma parte do mundo... A extinção da Guerra Fria... inundou o mundo de esperanças".</t>
+        </is>
+      </c>
+      <c r="H469" t="inlineStr"/>
+      <c r="I469" t="inlineStr"/>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>Pág 11</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>Origem da União Europeia</t>
+        </is>
+      </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>O movimento por uma Europa unida nasceu dos desastres das guerras mundiais e do desejo de evitar novos conflitos.</t>
+        </is>
+      </c>
+      <c r="F470" t="inlineStr">
+        <is>
+          <t>A União Europeia foi criada exclusivamente para competir economicamente com a China, sem relação com as guerras passadas.</t>
+        </is>
+      </c>
+      <c r="G470" t="inlineStr">
+        <is>
+          <t>Conforme o **primeiro parágrafo da Página 11**, "O poder conquistado pelo comunismo russo deveu-se... às guerras... Outro poderoso movimento... nasceu desses conflitos: o sonho de uma Europa unida".</t>
+        </is>
+      </c>
+      <c r="H470" t="inlineStr"/>
+      <c r="I470" t="inlineStr"/>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>Pág 11</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>Proposta de Churchill</t>
+        </is>
+      </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>Em 1946, Winston Churchill pediu a criação de "uma espécie de Estados Unidos da Europa" em um discurso em Zurique.</t>
+        </is>
+      </c>
+      <c r="F471" t="inlineStr">
+        <is>
+          <t>Winston Churchill foi o maior opositor da união europeia, discursando em 1946 contra qualquer perda de soberania britânica.</t>
+        </is>
+      </c>
+      <c r="G471" t="inlineStr">
+        <is>
+          <t>Segundo o **segundo parágrafo da Página 11**, "Em 1946, em Zurique, pediu a criação de 'uma espécie de Estados Unidos da Europa'".</t>
+        </is>
+      </c>
+      <c r="H471" t="inlineStr"/>
+      <c r="I471" t="inlineStr"/>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>Pág 11</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>Congresso de Haia</t>
+        </is>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>O Congresso de Haia reuniu líderes como Jean Monnet e Robert Schuman, vindos de regiões de fronteira marcadas por litígios históricos.</t>
+        </is>
+      </c>
+      <c r="F472" t="inlineStr">
+        <is>
+          <t>O Congresso de Haia foi um fracasso, pois nenhum líder influente da França ou Alemanha aceitou comparecer.</t>
+        </is>
+      </c>
+      <c r="G472" t="inlineStr">
+        <is>
+          <t>De acordo com o **segundo parágrafo da Página 11**, "presidiu o Congresso da Europa... Monnet... Schuman... Era significativo que três deles viessem de regiões fronteiriças".</t>
+        </is>
+      </c>
+      <c r="H472" t="inlineStr"/>
+      <c r="I472" t="inlineStr"/>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>Pág 12</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>Expansão da CEE</t>
+        </is>
+      </c>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>Na década de 1980, a entrada de Grécia, Portugal e Espanha significou que mais da metade das nações a oeste da cortina de ferro pertencia ao grupo.</t>
+        </is>
+      </c>
+      <c r="F473" t="inlineStr">
+        <is>
+          <t>Grécia, Portugal e Espanha foram impedidos de entrar na Comunidade Econômica Europeia por serem considerados pobres demais.</t>
+        </is>
+      </c>
+      <c r="G473" t="inlineStr">
+        <is>
+          <t>Conforme o **segundo parágrafo da Página 12**, "com a entrada de três países mais pobres - Grécia, Portugal e Espanha -, mais da metade das nações... pertencia ao grupo".</t>
+        </is>
+      </c>
+      <c r="H473" t="inlineStr"/>
+      <c r="I473" t="inlineStr"/>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>Pág 12</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>Política Agrícola</t>
+        </is>
+      </c>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>A política agrícola europeia gerou excedentes, acumulando estoques de manteiga, grãos e vinho e eliminando a necessidade de importação.</t>
+        </is>
+      </c>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t>A política agrícola europeia falhou em garantir a autossuficiência, obrigando o bloco a importar a maior parte de seus alimentos.</t>
+        </is>
+      </c>
+      <c r="G474" t="inlineStr">
+        <is>
+          <t>Segundo o **segundo parágrafo da Página 12**, "acumulava... incríveis estoques de excedentes de manteiga, grãos e vinho, eliminando, assim, a necessidade de importação".</t>
+        </is>
+      </c>
+      <c r="H474" t="inlineStr"/>
+      <c r="I474" t="inlineStr"/>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>Pág 12</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>Estrutura da União</t>
+        </is>
+      </c>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>A união europeia funcionava como uma "meia federação", com mercado comum e parlamento, mas sem exército ou política externa comum.</t>
+        </is>
+      </c>
+      <c r="F475" t="inlineStr">
+        <is>
+          <t>A União Europeia tornou-se uma federação completa no século XX, com um exército único substituindo as forças nacionais.</t>
+        </is>
+      </c>
+      <c r="G475" t="inlineStr">
+        <is>
+          <t>De acordo com o **terceiro parágrafo da Página 12**, "não tinha exército nem uma política externa comum... funcionava com uma espécie de meia federação".</t>
+        </is>
+      </c>
+      <c r="H475" t="inlineStr"/>
+      <c r="I475" t="inlineStr"/>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>Pág. 1</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>Geopolítica do Petróleo</t>
+        </is>
+      </c>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t>O Oriente Médio, a África do Norte, a Nigéria e a Indonésia possuíam, ao todo, mais da metade das reservas mundiais de petróleo.</t>
+        </is>
+      </c>
+      <c r="F476" t="inlineStr">
+        <is>
+          <t>As nações islâmicas possuíam poucas reservas de petróleo, sendo que a maioria dos campos conhecidos estava localizada na Europa Ocidental e nos Estados Unidos.</t>
+        </is>
+      </c>
+      <c r="G476" t="inlineStr">
+        <is>
+          <t>Conforme o **segundo parágrafo da Página 1**, essas regiões "possuíam, ao todo, mais da metade das reservas mundiais de petróleo".</t>
+        </is>
+      </c>
+      <c r="H476" t="inlineStr"/>
+      <c r="I476" t="inlineStr"/>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>Pág. 1</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>Ressurgimento Político do Islã</t>
+        </is>
+      </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>Na década de 1960, nações que pouco tempo antes haviam se tornado independentes, como Paquistão e Indonésia, desfraldavam a bandeira do Islã.</t>
+        </is>
+      </c>
+      <c r="F477" t="inlineStr">
+        <is>
+          <t>Na década de 1960, os países islâmicos abandonaram sua identidade religiosa para adotar modelos puramente seculares europeus, rejeitando símbolos como a Lua crescente.</t>
+        </is>
+      </c>
+      <c r="G477" t="inlineStr">
+        <is>
+          <t>Segundo o **primeiro parágrafo da Página 1**, na década de 1960, nações independentes "desfraldavam cada vez mais a bandeira na qual se via a Lua crescente".</t>
+        </is>
+      </c>
+      <c r="H477" t="inlineStr"/>
+      <c r="I477" t="inlineStr"/>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>Pág. 1</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>Choque do Petróleo de 1973</t>
+        </is>
+      </c>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t>Em 1973, liderados pelos árabes, os produtores aumentaram o preço do petróleo e impediram o envio para nações que apoiavam Israel.</t>
+        </is>
+      </c>
+      <c r="F478" t="inlineStr">
+        <is>
+          <t>Em 1973, os produtores árabes decidiram baixar o preço do petróleo para apoiar as economias ocidentais e fortalecer os laços com Israel.</t>
+        </is>
+      </c>
+      <c r="G478" t="inlineStr">
+        <is>
+          <t>De acordo com o **terceiro parágrafo da Página 1**, "Em 1973... aumentaram vertiginosamente o preço... além de impedirem que fosse levado para nações que apoiavam Israel".</t>
+        </is>
+      </c>
+      <c r="H478" t="inlineStr"/>
+      <c r="I478" t="inlineStr"/>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>Pág. 2</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>Divergências Culturais</t>
+        </is>
+      </c>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t>O Islã deplorava as rápidas mudanças e a moral frouxa do Ocidente, enquanto o Ocidente deplorava a lentidão das mudanças e a falta de liberdades no Islã.</t>
+        </is>
+      </c>
+      <c r="F479" t="inlineStr">
+        <is>
+          <t>O Islã adotou entusiasticamente o consumismo e a moral sexual do Ocidente, enquanto as nações cristãs se tornaram mais rígidas e conservadoras no século XX.</t>
+        </is>
+      </c>
+      <c r="G479" t="inlineStr">
+        <is>
+          <t>Conforme o **segundo parágrafo da Página 2**, "O Islã deplorava as rápidas mudanças do Ocidente, e o Ocidente deplorava a lentidão das mudanças no Islã".</t>
+        </is>
+      </c>
+      <c r="H479" t="inlineStr"/>
+      <c r="I479" t="inlineStr"/>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>Pág. 2</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>Revolução Iraniana</t>
+        </is>
+      </c>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t>O aiatolá Khomeini criou uma república teocrática no Irã onde a pena de morte era largamente empregada contra dissidência política e religiosa.</t>
+        </is>
+      </c>
+      <c r="F480" t="inlineStr">
+        <is>
+          <t>O aiatolá Khomeini estabeleceu uma democracia secular no Irã, abolindo a pena de morte e promovendo a total separação entre religião e estado.</t>
+        </is>
+      </c>
+      <c r="G480" t="inlineStr">
+        <is>
+          <t>Segundo o **quinto parágrafo da Página 2**, Khomeini criou "uma república teocrática na qual a pena de morte era largamente empregada".</t>
+        </is>
+      </c>
+      <c r="H480" t="inlineStr"/>
+      <c r="I480" t="inlineStr"/>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>Pág. 2</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>Crescimento Demográfico Islâmico</t>
+        </is>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>Em um século, a população muçulmana cresceu de 12% para 18% do total global, superando a soma de hinduístas e budistas.</t>
+        </is>
+      </c>
+      <c r="F481" t="inlineStr">
+        <is>
+          <t>O número de fiéis muçulmanos diminuiu drasticamente ao longo do século XX, tornando-se uma minoria insignificante em comparação aos budistas.</t>
+        </is>
+      </c>
+      <c r="G481" t="inlineStr">
+        <is>
+          <t>De acordo com o **terceiro parágrafo da Página 2**, "Em 1893, os muçulmanos representavam cerca de 12%... um século mais tarde, esse índice havia chegado aos 18%".</t>
+        </is>
+      </c>
+      <c r="H481" t="inlineStr"/>
+      <c r="I481" t="inlineStr"/>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>Pág. 2 (seq.)</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>Aliança EUA-Arábia Saudita</t>
+        </is>
+      </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>Os Estados Unidos e a Arábia Saudita mantinham uma relação onde um fornecia petróleo e o outro proteção militar, apesar das diferenças culturais.</t>
+        </is>
+      </c>
+      <c r="F482" t="inlineStr">
+        <is>
+          <t>Os Estados Unidos recusaram qualquer aliança com a Arábia Saudita devido às diferenças religiosas, proibindo a importação de petróleo saudita.</t>
+        </is>
+      </c>
+      <c r="G482" t="inlineStr">
+        <is>
+          <t>Conforme o **terceiro parágrafo da seção Fervor e Petróleo**, "Os dois países trabalhavam harmoniosamente, um fornecendo o petróleo, e o outro, proteção militar".</t>
+        </is>
+      </c>
+      <c r="H482" t="inlineStr"/>
+      <c r="I482" t="inlineStr"/>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>Pág. 2 (seq.)</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>Origens de Bin Laden</t>
+        </is>
+      </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>Osama Bin Laden era membro de uma rica família saudita do ramo da construção civil e lutou contra os soviéticos no Afeganistão.</t>
+        </is>
+      </c>
+      <c r="F483" t="inlineStr">
+        <is>
+          <t>Osama Bin Laden era um camponês pobre do Afeganistão que nunca teve contato com a riqueza ou com a família real saudita.</t>
+        </is>
+      </c>
+      <c r="G483" t="inlineStr">
+        <is>
+          <t>Segundo o **segundo parágrafo da seção Mais e Mais Terroristas**, ele era "Uma das 57 crianças de uma rica família saudita... membro ativo no combate contra as tropas soviéticas".</t>
+        </is>
+      </c>
+      <c r="H483" t="inlineStr"/>
+      <c r="I483" t="inlineStr"/>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>Pág. 2 (seq.)</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>Ataques de 11 de Setembro</t>
+        </is>
+      </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>Os ataques de 11 de setembro foram executados por 19 sequestradores, utilizando quatro aviões comerciais para atingir Nova York, o Pentágono e um campo na Pensilvânia.</t>
+        </is>
+      </c>
+      <c r="F484" t="inlineStr">
+        <is>
+          <t>O ataque de 11 de setembro foi realizado por mísseis disparados de navios no oceano, sem o uso de aviões ou sequestradores suicidas.</t>
+        </is>
+      </c>
+      <c r="G484" t="inlineStr">
+        <is>
+          <t>De acordo com o **texto da seção Nova York, 11 de Setembro**, "19 passageiros incomuns... Os quatro aviões iriam voar... atingindo a segunda torre... colidiu contra o Pentágono".</t>
+        </is>
+      </c>
+      <c r="H484" t="inlineStr"/>
+      <c r="I484" t="inlineStr"/>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>Pág. 2 (seq.)</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>Impacto Simbólico dos Ataques</t>
+        </is>
+      </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>O aspecto teatral do ataque ao World Trade Center foi tão impactante que fez a conquista da Lua parecer um evento de menor importância.</t>
+        </is>
+      </c>
+      <c r="F485" t="inlineStr">
+        <is>
+          <t>O ataque ao World Trade Center teve pouca repercussão visual, sendo considerado um evento midiático menor comparado à conquista da Lua.</t>
+        </is>
+      </c>
+      <c r="G485" t="inlineStr">
+        <is>
+          <t>Conforme o **segundo parágrafo da seção final (após o relato do ataque)**, "O aspecto completamente teatral do ataque... fez a conquista da lua parecer um acontecimento quase sem importância".</t>
+        </is>
+      </c>
+      <c r="H485" t="inlineStr"/>
+      <c r="I485" t="inlineStr"/>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>Pág. 2 (seq.)</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>Destruição Cultural pelo Talibã</t>
+        </is>
+      </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>Em 2001, o Talibã destruiu com canhões e foguetes duas enormes estátuas de Buda em Bamiyan, considerando-as um sacrilégio.</t>
+        </is>
+      </c>
+      <c r="F486" t="inlineStr">
+        <is>
+          <t>O Talibã preservou e restaurou as estátuas de Buda em Bamiyan em 2001, buscando promover o turismo e a tolerância religiosa no Afeganistão.</t>
+        </is>
+      </c>
+      <c r="G486" t="inlineStr">
+        <is>
+          <t>Segundo o **terceiro parágrafo da seção final**, "membros do Talibã decidiram que as estátuas eram um sacrilégio... e destruíram suas faces... com canhões e foguetes".</t>
+        </is>
+      </c>
+      <c r="H486" t="inlineStr"/>
+      <c r="I486" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
